--- a/product_data/processing_metadata/C3/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C3/PIG_meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="238" documentId="8_{E310EAF6-001C-4683-A632-3F0045222FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AC13951-2C29-4BE3-8C7E-F0470A37672F}"/>
+  <xr:revisionPtr revIDLastSave="298" documentId="8_{E310EAF6-001C-4683-A632-3F0045222FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AC2278A-CB7F-416E-8219-66B57DCA6824}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DD0B7FAE-241F-4E23-A02A-6E81F5ECAC2C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD0B7FAE-241F-4E23-A02A-6E81F5ECAC2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="300">
   <si>
     <t>file_type</t>
   </si>
@@ -582,9 +582,6 @@
     <t>ammended TM HPLC metadata based on notes from DMO</t>
   </si>
   <si>
-    <t>320620030220</t>
-  </si>
-  <si>
     <t>320620031218</t>
   </si>
   <si>
@@ -901,6 +898,42 @@
   </si>
   <si>
     <t xml:space="preserve">%Y %m %d </t>
+  </si>
+  <si>
+    <t>citation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PAL-LTER_pig_hplc</t>
+  </si>
+  <si>
+    <t>SOCCOM_pig</t>
+  </si>
+  <si>
+    <t>PAL-LTER_pig_chl</t>
+  </si>
+  <si>
+    <t>MAREDAT_1; MAREDAT_2</t>
+  </si>
+  <si>
+    <t>320619971105_fluor</t>
+  </si>
+  <si>
+    <t>320619971105_pig</t>
+  </si>
+  <si>
+    <t>320619970404_fluor</t>
+  </si>
+  <si>
+    <t>320619970404_pig</t>
+  </si>
+  <si>
+    <t>CLIVAR</t>
+  </si>
+  <si>
+    <t>ROAVERRS</t>
+  </si>
+  <si>
+    <t>IVARS_poc</t>
   </si>
 </sst>
 </file>
@@ -942,11 +975,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1261,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50972AA6-2965-4F2B-AD21-A9711D8DE30C}">
-  <dimension ref="A1:BU39"/>
+  <dimension ref="A1:BV41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K22" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1272,7 +1306,7 @@
     <col min="5" max="5" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1304,201 +1338,204 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -1513,51 +1550,105 @@
         <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="H2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I2" t="s">
         <v>155</v>
       </c>
       <c r="K2" t="s">
-        <v>178</v>
-      </c>
-      <c r="M2" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" t="s">
         <v>156</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>77</v>
-      </c>
-      <c r="R2" t="s">
-        <v>283</v>
       </c>
       <c r="S2" t="s">
         <v>282</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="T2" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC2" t="s">
         <v>157</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>158</v>
       </c>
-      <c r="AD2" t="s">
-        <v>81</v>
-      </c>
       <c r="AE2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>180</v>
+        <v>159</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>167</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>175</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -1566,111 +1657,60 @@
         <v>153</v>
       </c>
       <c r="E3" s="1">
-        <v>320619971105</v>
+        <v>320619970404</v>
       </c>
       <c r="F3" t="s">
         <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I3" t="s">
         <v>155</v>
       </c>
       <c r="K3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" t="s">
+        <v>295</v>
+      </c>
+      <c r="L3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N3" t="s">
         <v>156</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>77</v>
-      </c>
-      <c r="R3" t="s">
-        <v>283</v>
       </c>
       <c r="S3" t="s">
         <v>282</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="T3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC3" t="s">
         <v>157</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>158</v>
       </c>
-      <c r="AD3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>167</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>168</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>169</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>170</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>92</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>171</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>91</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>173</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>174</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>181</v>
+      <c r="AE3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -1685,203 +1725,170 @@
         <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="H4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I4" t="s">
         <v>155</v>
       </c>
       <c r="K4" t="s">
-        <v>178</v>
-      </c>
-      <c r="M4" t="s">
+        <v>294</v>
+      </c>
+      <c r="L4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" t="s">
         <v>156</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>77</v>
-      </c>
-      <c r="R4" t="s">
-        <v>283</v>
       </c>
       <c r="S4" t="s">
         <v>282</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="T4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC4" t="s">
         <v>157</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>158</v>
       </c>
-      <c r="AD4" t="s">
-        <v>81</v>
-      </c>
       <c r="AE4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>180</v>
-      </c>
-      <c r="BU4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>170</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>173</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>176</v>
+      </c>
+      <c r="BV4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="E5" s="1">
-        <v>320620161224</v>
+        <v>320619971105</v>
       </c>
       <c r="F5" t="s">
         <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>263</v>
       </c>
       <c r="I5" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="K5" t="s">
-        <v>202</v>
-      </c>
-      <c r="M5">
-        <v>-9999</v>
-      </c>
-      <c r="N5">
-        <v>-8888</v>
-      </c>
-      <c r="P5" t="s">
-        <v>99</v>
-      </c>
-      <c r="R5" t="s">
-        <v>100</v>
+        <v>293</v>
+      </c>
+      <c r="L5" t="s">
+        <v>178</v>
+      </c>
+      <c r="N5" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" t="s">
+        <v>282</v>
       </c>
       <c r="T5" t="s">
-        <v>101</v>
-      </c>
-      <c r="V5" t="s">
-        <v>102</v>
-      </c>
-      <c r="W5" t="s">
-        <v>103</v>
-      </c>
-      <c r="X5" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c r="AC5" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="AD5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>203</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>205</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>207</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>115</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>208</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>88</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>89</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>90</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>209</v>
+        <v>158</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -1890,7 +1897,7 @@
         <v>94</v>
       </c>
       <c r="E6" s="1">
-        <v>320620170410</v>
+        <v>320620161224</v>
       </c>
       <c r="F6" t="s">
         <v>75</v>
@@ -1908,120 +1915,132 @@
         <v>98</v>
       </c>
       <c r="K6" t="s">
-        <v>211</v>
-      </c>
-      <c r="M6">
+        <v>290</v>
+      </c>
+      <c r="L6" t="s">
+        <v>201</v>
+      </c>
+      <c r="N6">
         <v>-9999</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>-8888</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>99</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>100</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>101</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>102</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>103</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>104</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>105</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>106</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>80</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>107</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>108</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>109</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>110</v>
       </c>
       <c r="AK6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP6" t="s">
         <v>204</v>
       </c>
-      <c r="AL6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO6" t="s">
+      <c r="AQ6" t="s">
         <v>205</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AS6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>114</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN6" t="s">
         <v>207</v>
       </c>
-      <c r="AW6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>115</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM6" t="s">
+      <c r="BO6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>90</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV6" t="s">
         <v>208</v>
       </c>
-      <c r="BN6" t="s">
-        <v>88</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>89</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>90</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>212</v>
-      </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -2030,7 +2049,7 @@
         <v>94</v>
       </c>
       <c r="E7" s="1">
-        <v>320620170703</v>
+        <v>320620170410</v>
       </c>
       <c r="F7" t="s">
         <v>75</v>
@@ -2048,129 +2067,123 @@
         <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M7">
+        <v>290</v>
+      </c>
+      <c r="L7" t="s">
+        <v>210</v>
+      </c>
+      <c r="N7">
         <v>-9999</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>-8888</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>99</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>100</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>101</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>102</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>103</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>104</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>105</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>106</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>80</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>107</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>108</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>109</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>110</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AL7" t="s">
         <v>203</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AM7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP7" t="s">
         <v>204</v>
       </c>
-      <c r="AL7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>205</v>
-      </c>
-      <c r="AP7" t="s">
+      <c r="AS7" t="s">
         <v>206</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AX7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>114</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN7" t="s">
         <v>207</v>
       </c>
-      <c r="AW7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>115</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>208</v>
-      </c>
-      <c r="BN7" t="s">
+      <c r="BO7" t="s">
         <v>88</v>
       </c>
-      <c r="BO7" t="s">
+      <c r="BP7" t="s">
         <v>89</v>
       </c>
-      <c r="BP7" t="s">
+      <c r="BQ7" t="s">
         <v>90</v>
       </c>
-      <c r="BS7" t="s">
+      <c r="BT7" t="s">
         <v>70</v>
       </c>
-      <c r="BT7" t="s">
+      <c r="BU7" t="s">
         <v>71</v>
       </c>
-      <c r="BU7" t="s">
-        <v>209</v>
+      <c r="BV7" t="s">
+        <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C8" t="s">
         <v>74</v>
@@ -2179,7 +2192,7 @@
         <v>94</v>
       </c>
       <c r="E8" s="1">
-        <v>320620180309</v>
+        <v>320620170703</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -2197,111 +2210,132 @@
         <v>98</v>
       </c>
       <c r="K8" t="s">
+        <v>290</v>
+      </c>
+      <c r="L8" t="s">
+        <v>201</v>
+      </c>
+      <c r="N8">
+        <v>-9999</v>
+      </c>
+      <c r="O8">
+        <v>-8888</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>99</v>
+      </c>
+      <c r="S8" t="s">
+        <v>100</v>
+      </c>
+      <c r="U8" t="s">
+        <v>101</v>
+      </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK8" t="s">
         <v>202</v>
       </c>
-      <c r="M8">
-        <v>-9999</v>
-      </c>
-      <c r="N8">
-        <v>-8888</v>
-      </c>
-      <c r="P8" t="s">
-        <v>99</v>
-      </c>
-      <c r="R8" t="s">
-        <v>100</v>
-      </c>
-      <c r="T8" t="s">
-        <v>101</v>
-      </c>
-      <c r="V8" t="s">
-        <v>102</v>
-      </c>
-      <c r="W8" t="s">
-        <v>103</v>
-      </c>
-      <c r="X8" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP8" t="s">
         <v>204</v>
       </c>
-      <c r="AL8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO8" t="s">
+      <c r="AQ8" t="s">
         <v>205</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AS8" t="s">
+        <v>206</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>114</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN8" t="s">
         <v>207</v>
       </c>
-      <c r="AW8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>115</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>85</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>86</v>
-      </c>
-      <c r="BM8" t="s">
+      <c r="BO8" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>90</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV8" t="s">
         <v>208</v>
       </c>
-      <c r="BO8" t="s">
-        <v>89</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>90</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU8" t="s">
-        <v>209</v>
-      </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C9" t="s">
         <v>74</v>
@@ -2310,147 +2344,132 @@
         <v>94</v>
       </c>
       <c r="E9" s="1">
-        <v>320620140320</v>
+        <v>320620180309</v>
       </c>
       <c r="F9" t="s">
         <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>216</v>
+        <v>95</v>
       </c>
       <c r="H9" t="s">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="I9" t="s">
-        <v>218</v>
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>202</v>
-      </c>
-      <c r="M9">
-        <v>-999</v>
+        <v>290</v>
+      </c>
+      <c r="L9" t="s">
+        <v>201</v>
       </c>
       <c r="N9">
-        <v>-111</v>
-      </c>
-      <c r="O9" t="s">
-        <v>219</v>
-      </c>
-      <c r="P9" t="s">
+        <v>-9999</v>
+      </c>
+      <c r="O9">
+        <v>-8888</v>
+      </c>
+      <c r="Q9" t="s">
         <v>99</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>100</v>
       </c>
-      <c r="T9" t="s">
-        <v>220</v>
-      </c>
       <c r="U9" t="s">
-        <v>197</v>
-      </c>
-      <c r="V9" t="s">
+        <v>101</v>
+      </c>
+      <c r="W9" t="s">
         <v>102</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>103</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>104</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>105</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>106</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>80</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>107</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>108</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>109</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>110</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AL9" t="s">
         <v>203</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AM9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP9" t="s">
         <v>204</v>
       </c>
-      <c r="AL9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP9" t="s">
+      <c r="AS9" t="s">
         <v>206</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AX9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>114</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN9" t="s">
         <v>207</v>
       </c>
-      <c r="AW9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>115</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>221</v>
-      </c>
-      <c r="BN9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BO9" t="s">
+      <c r="BP9" t="s">
         <v>89</v>
       </c>
-      <c r="BP9" t="s">
+      <c r="BQ9" t="s">
         <v>90</v>
       </c>
-      <c r="BS9" t="s">
+      <c r="BT9" t="s">
         <v>70</v>
       </c>
-      <c r="BT9" t="s">
+      <c r="BU9" t="s">
         <v>71</v>
       </c>
+      <c r="BV9" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C10" t="s">
         <v>74</v>
@@ -2459,361 +2478,382 @@
         <v>94</v>
       </c>
       <c r="E10" s="1">
-        <v>320620110219</v>
+        <v>320620140320</v>
       </c>
       <c r="F10" t="s">
         <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H10" t="s">
+        <v>216</v>
+      </c>
+      <c r="I10" t="s">
         <v>217</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>224</v>
       </c>
-      <c r="J10" t="s">
-        <v>225</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="K10" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="L10" t="s">
+        <v>201</v>
+      </c>
+      <c r="N10">
+        <v>-999</v>
+      </c>
+      <c r="O10">
+        <v>-111</v>
+      </c>
+      <c r="P10" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>99</v>
+      </c>
+      <c r="S10" t="s">
+        <v>100</v>
+      </c>
+      <c r="U10" t="s">
+        <v>219</v>
+      </c>
+      <c r="V10" t="s">
+        <v>196</v>
+      </c>
+      <c r="W10" t="s">
+        <v>102</v>
+      </c>
+      <c r="X10" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK10" t="s">
         <v>202</v>
       </c>
-      <c r="M10">
-        <v>-999</v>
-      </c>
-      <c r="N10">
-        <v>9.990000000000001E-4</v>
-      </c>
-      <c r="P10" t="s">
-        <v>99</v>
-      </c>
-      <c r="R10" t="s">
-        <v>100</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="AL10" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>205</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>114</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN10" t="s">
         <v>220</v>
       </c>
-      <c r="U10" t="s">
-        <v>197</v>
-      </c>
-      <c r="V10" t="s">
-        <v>102</v>
-      </c>
-      <c r="W10" t="s">
-        <v>103</v>
-      </c>
-      <c r="X10" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>205</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>207</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>115</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>208</v>
-      </c>
-      <c r="BN10" t="s">
+      <c r="BO10" t="s">
         <v>88</v>
       </c>
-      <c r="BO10" t="s">
+      <c r="BP10" t="s">
         <v>89</v>
       </c>
-      <c r="BP10" t="s">
+      <c r="BQ10" t="s">
         <v>90</v>
       </c>
-      <c r="BS10" t="s">
+      <c r="BT10" t="s">
         <v>70</v>
       </c>
-      <c r="BT10" t="s">
+      <c r="BU10" t="s">
         <v>71</v>
       </c>
-      <c r="BU10" t="s">
-        <v>209</v>
-      </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C11" t="s">
-        <v>227</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
         <v>94</v>
       </c>
       <c r="E11" s="1">
-        <v>320619971220</v>
+        <v>320620110219</v>
       </c>
       <c r="F11" t="s">
-        <v>228</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I11" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="J11" t="s">
-        <v>231</v>
-      </c>
-      <c r="K11" t="s">
-        <v>232</v>
-      </c>
-      <c r="M11">
+        <v>224</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="L11" t="s">
+        <v>201</v>
+      </c>
+      <c r="N11">
         <v>-999</v>
       </c>
-      <c r="P11" t="s">
+      <c r="O11">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="Q11" t="s">
         <v>99</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>100</v>
       </c>
-      <c r="T11" t="s">
-        <v>101</v>
+      <c r="U11" t="s">
+        <v>219</v>
       </c>
       <c r="V11" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="W11" t="s">
-        <v>234</v>
+        <v>102</v>
+      </c>
+      <c r="X11" t="s">
+        <v>103</v>
       </c>
       <c r="Y11" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z11" t="s">
         <v>105</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>106</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>80</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>108</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>109</v>
       </c>
-      <c r="AE11" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>236</v>
+      <c r="AI11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>114</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>207</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>90</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" t="s">
-        <v>186</v>
+        <v>94</v>
+      </c>
+      <c r="E12" s="1">
+        <v>320619971220</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="G12" t="s">
-        <v>118</v>
+        <v>228</v>
+      </c>
+      <c r="H12" t="s">
+        <v>216</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>229</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
-      </c>
-      <c r="K12" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12">
+        <v>230</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="L12" t="s">
+        <v>231</v>
+      </c>
+      <c r="N12">
         <v>-999</v>
       </c>
-      <c r="O12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>99</v>
       </c>
-      <c r="R12" t="s">
-        <v>122</v>
-      </c>
-      <c r="T12" t="s">
-        <v>123</v>
+      <c r="S12" t="s">
+        <v>100</v>
       </c>
       <c r="U12" t="s">
-        <v>124</v>
-      </c>
-      <c r="V12" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="W12" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>78</v>
+        <v>232</v>
+      </c>
+      <c r="X12" t="s">
+        <v>233</v>
       </c>
       <c r="Z12" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="AA12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB12" t="s">
         <v>80</v>
       </c>
-      <c r="AB12" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>116</v>
-      </c>
       <c r="AD12" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>131</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>132</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>133</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>134</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>83</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>135</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>137</v>
-      </c>
-      <c r="BH12" t="s">
-        <v>138</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>139</v>
-      </c>
-      <c r="BJ12" t="s">
-        <v>140</v>
-      </c>
-      <c r="BN12" t="s">
-        <v>141</v>
-      </c>
-      <c r="BO12" t="s">
-        <v>142</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>143</v>
-      </c>
-      <c r="BS12" t="s">
-        <v>144</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>145</v>
+        <v>108</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="C13" t="s">
         <v>74</v>
@@ -2822,7 +2862,7 @@
         <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>
@@ -2837,123 +2877,126 @@
         <v>120</v>
       </c>
       <c r="K13" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" t="s">
         <v>76</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-999</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>121</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>99</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>122</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>123</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>124</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>123</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>124</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>78</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>79</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>80</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>125</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>116</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>81</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AK13" t="s">
         <v>126</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AL13" t="s">
         <v>127</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AM13" t="s">
         <v>128</v>
       </c>
-      <c r="AO13" t="s">
+      <c r="AP13" t="s">
         <v>129</v>
       </c>
-      <c r="AU13" t="s">
+      <c r="AV13" t="s">
         <v>130</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="AX13" t="s">
         <v>131</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="AZ13" t="s">
         <v>132</v>
       </c>
-      <c r="AZ13" t="s">
+      <c r="BA13" t="s">
         <v>133</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BB13" t="s">
         <v>134</v>
       </c>
-      <c r="BB13" t="s">
+      <c r="BC13" t="s">
         <v>83</v>
       </c>
-      <c r="BC13" t="s">
+      <c r="BD13" t="s">
         <v>135</v>
       </c>
-      <c r="BD13" t="s">
+      <c r="BE13" t="s">
         <v>136</v>
       </c>
-      <c r="BE13" t="s">
+      <c r="BF13" t="s">
         <v>56</v>
       </c>
-      <c r="BF13" t="s">
+      <c r="BG13" t="s">
         <v>137</v>
       </c>
-      <c r="BH13" t="s">
+      <c r="BI13" t="s">
         <v>138</v>
       </c>
-      <c r="BI13" t="s">
+      <c r="BJ13" t="s">
         <v>139</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="BK13" t="s">
         <v>140</v>
       </c>
-      <c r="BN13" t="s">
+      <c r="BO13" t="s">
         <v>141</v>
       </c>
-      <c r="BO13" t="s">
+      <c r="BP13" t="s">
         <v>142</v>
       </c>
-      <c r="BP13" t="s">
+      <c r="BQ13" t="s">
         <v>143</v>
       </c>
-      <c r="BS13" t="s">
+      <c r="BT13" t="s">
         <v>144</v>
       </c>
-      <c r="BT13" t="s">
+      <c r="BU13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C14" t="s">
         <v>74</v>
@@ -2962,78 +3005,141 @@
         <v>117</v>
       </c>
       <c r="E14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="I14" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="J14" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="K14" t="s">
-        <v>149</v>
-      </c>
-      <c r="M14">
+        <v>289</v>
+      </c>
+      <c r="L14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14">
         <v>-999</v>
       </c>
-      <c r="O14" t="s">
-        <v>150</v>
-      </c>
       <c r="P14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q14" t="s">
         <v>99</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>122</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>123</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>124</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>123</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>124</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>78</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>79</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>80</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>125</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>116</v>
       </c>
-      <c r="AD14" t="s">
-        <v>109</v>
-      </c>
       <c r="AE14" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>152</v>
+        <v>81</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>132</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>133</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>137</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>138</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>140</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>141</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>142</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
         <v>74</v>
@@ -3042,7 +3148,7 @@
         <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -3057,63 +3163,66 @@
         <v>148</v>
       </c>
       <c r="K15" t="s">
+        <v>291</v>
+      </c>
+      <c r="L15" t="s">
         <v>149</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-999</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>150</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>99</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>122</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>123</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>124</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>123</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>124</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>78</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>79</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>80</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>125</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>116</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>109</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>151</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C16" t="s">
         <v>74</v>
@@ -3122,138 +3231,81 @@
         <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="I16" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="J16" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="K16" t="s">
-        <v>76</v>
-      </c>
-      <c r="M16">
+        <v>291</v>
+      </c>
+      <c r="L16" t="s">
+        <v>149</v>
+      </c>
+      <c r="N16">
         <v>-999</v>
       </c>
-      <c r="O16" t="s">
-        <v>121</v>
-      </c>
       <c r="P16" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q16" t="s">
         <v>99</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>122</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>123</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>124</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>123</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>124</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>78</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>79</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>80</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>125</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>116</v>
       </c>
-      <c r="AD16" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>131</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>133</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>134</v>
-      </c>
-      <c r="BB16" t="s">
-        <v>83</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>135</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE16" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>137</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>139</v>
-      </c>
-      <c r="BJ16" t="s">
-        <v>140</v>
-      </c>
-      <c r="BN16" t="s">
-        <v>141</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>142</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>143</v>
-      </c>
-      <c r="BS16" t="s">
-        <v>144</v>
-      </c>
-      <c r="BT16" t="s">
-        <v>145</v>
+      <c r="AE16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C17" t="s">
         <v>74</v>
@@ -3262,7 +3314,7 @@
         <v>117</v>
       </c>
       <c r="E17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F17" t="s">
         <v>75</v>
@@ -3277,123 +3329,126 @@
         <v>120</v>
       </c>
       <c r="K17" t="s">
+        <v>289</v>
+      </c>
+      <c r="L17" t="s">
         <v>76</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-999</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>121</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>99</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>122</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>123</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>124</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>123</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>124</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>78</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>79</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>80</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>125</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>116</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>81</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AK17" t="s">
         <v>126</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AL17" t="s">
         <v>127</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AM17" t="s">
         <v>128</v>
       </c>
-      <c r="AO17" t="s">
+      <c r="AP17" t="s">
         <v>129</v>
       </c>
-      <c r="AU17" t="s">
+      <c r="AV17" t="s">
         <v>130</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AX17" t="s">
         <v>131</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="AZ17" t="s">
         <v>132</v>
       </c>
-      <c r="AZ17" t="s">
+      <c r="BA17" t="s">
         <v>133</v>
       </c>
-      <c r="BA17" t="s">
+      <c r="BB17" t="s">
         <v>134</v>
       </c>
-      <c r="BB17" t="s">
+      <c r="BC17" t="s">
         <v>83</v>
       </c>
-      <c r="BC17" t="s">
+      <c r="BD17" t="s">
         <v>135</v>
       </c>
-      <c r="BD17" t="s">
+      <c r="BE17" t="s">
         <v>136</v>
       </c>
-      <c r="BE17" t="s">
+      <c r="BF17" t="s">
         <v>56</v>
       </c>
-      <c r="BF17" t="s">
+      <c r="BG17" t="s">
         <v>137</v>
       </c>
-      <c r="BH17" t="s">
+      <c r="BI17" t="s">
         <v>138</v>
       </c>
-      <c r="BI17" t="s">
+      <c r="BJ17" t="s">
         <v>139</v>
       </c>
-      <c r="BJ17" t="s">
+      <c r="BK17" t="s">
         <v>140</v>
       </c>
-      <c r="BN17" t="s">
+      <c r="BO17" t="s">
         <v>141</v>
       </c>
-      <c r="BO17" t="s">
+      <c r="BP17" t="s">
         <v>142</v>
       </c>
-      <c r="BP17" t="s">
+      <c r="BQ17" t="s">
         <v>143</v>
       </c>
-      <c r="BS17" t="s">
+      <c r="BT17" t="s">
         <v>144</v>
       </c>
-      <c r="BT17" t="s">
+      <c r="BU17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C18" t="s">
         <v>74</v>
@@ -3402,78 +3457,141 @@
         <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F18" t="s">
         <v>75</v>
       </c>
       <c r="G18" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="J18" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="K18" t="s">
-        <v>149</v>
-      </c>
-      <c r="M18">
+        <v>289</v>
+      </c>
+      <c r="L18" t="s">
+        <v>76</v>
+      </c>
+      <c r="N18">
         <v>-999</v>
       </c>
-      <c r="O18" t="s">
-        <v>150</v>
-      </c>
       <c r="P18" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q18" t="s">
         <v>99</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>122</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>123</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>124</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>123</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>124</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>78</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>79</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>80</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>125</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>116</v>
       </c>
-      <c r="AD18" t="s">
-        <v>109</v>
-      </c>
       <c r="AE18" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>152</v>
+        <v>81</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>132</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>133</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>137</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>138</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>140</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>141</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>142</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C19" t="s">
         <v>74</v>
@@ -3482,7 +3600,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F19" t="s">
         <v>75</v>
@@ -3497,63 +3615,66 @@
         <v>148</v>
       </c>
       <c r="K19" t="s">
+        <v>291</v>
+      </c>
+      <c r="L19" t="s">
         <v>149</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-999</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>150</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>99</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>122</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>123</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>124</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>123</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>124</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>78</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>79</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>80</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>125</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>116</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>109</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>151</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C20" t="s">
         <v>74</v>
@@ -3562,138 +3683,81 @@
         <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F20" t="s">
         <v>75</v>
       </c>
       <c r="G20" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="I20" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="J20" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="K20" t="s">
-        <v>76</v>
-      </c>
-      <c r="M20">
+        <v>291</v>
+      </c>
+      <c r="L20" t="s">
+        <v>149</v>
+      </c>
+      <c r="N20">
         <v>-999</v>
       </c>
-      <c r="O20" t="s">
-        <v>121</v>
-      </c>
       <c r="P20" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q20" t="s">
         <v>99</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>122</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>123</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>124</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>123</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>124</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>78</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>79</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>80</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>125</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>116</v>
       </c>
-      <c r="AD20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>131</v>
-      </c>
-      <c r="AY20" t="s">
-        <v>132</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>133</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>134</v>
-      </c>
-      <c r="BB20" t="s">
-        <v>83</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>135</v>
-      </c>
-      <c r="BD20" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE20" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF20" t="s">
-        <v>137</v>
-      </c>
-      <c r="BH20" t="s">
-        <v>138</v>
-      </c>
-      <c r="BI20" t="s">
-        <v>139</v>
-      </c>
-      <c r="BJ20" t="s">
-        <v>140</v>
-      </c>
-      <c r="BN20" t="s">
-        <v>141</v>
-      </c>
-      <c r="BO20" t="s">
-        <v>142</v>
-      </c>
-      <c r="BP20" t="s">
-        <v>143</v>
-      </c>
-      <c r="BS20" t="s">
-        <v>144</v>
-      </c>
-      <c r="BT20" t="s">
-        <v>145</v>
+      <c r="AE20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C21" t="s">
         <v>74</v>
@@ -3702,78 +3766,141 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F21" t="s">
         <v>75</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="I21" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="J21" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="K21" t="s">
-        <v>149</v>
-      </c>
-      <c r="M21">
+        <v>289</v>
+      </c>
+      <c r="L21" t="s">
+        <v>76</v>
+      </c>
+      <c r="N21">
         <v>-999</v>
       </c>
-      <c r="O21" t="s">
-        <v>150</v>
-      </c>
       <c r="P21" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q21" t="s">
         <v>99</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>122</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>123</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>124</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>123</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>124</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>78</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>79</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>80</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>125</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>116</v>
       </c>
-      <c r="AD21" t="s">
-        <v>109</v>
-      </c>
       <c r="AE21" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>152</v>
+        <v>81</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>132</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>137</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>138</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>140</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>141</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>142</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C22" t="s">
         <v>74</v>
@@ -3782,138 +3909,81 @@
         <v>117</v>
       </c>
       <c r="E22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F22" t="s">
         <v>75</v>
       </c>
       <c r="G22" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="I22" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="J22" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="K22" t="s">
-        <v>76</v>
-      </c>
-      <c r="M22">
+        <v>291</v>
+      </c>
+      <c r="L22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N22">
         <v>-999</v>
       </c>
-      <c r="O22" t="s">
-        <v>121</v>
-      </c>
       <c r="P22" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q22" t="s">
         <v>99</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>122</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>123</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>124</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>123</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>124</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>78</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>79</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>80</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>125</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>116</v>
       </c>
-      <c r="AD22" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW22" t="s">
-        <v>131</v>
-      </c>
-      <c r="AY22" t="s">
-        <v>132</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>133</v>
-      </c>
-      <c r="BA22" t="s">
-        <v>134</v>
-      </c>
-      <c r="BB22" t="s">
-        <v>83</v>
-      </c>
-      <c r="BC22" t="s">
-        <v>135</v>
-      </c>
-      <c r="BD22" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE22" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF22" t="s">
-        <v>137</v>
-      </c>
-      <c r="BH22" t="s">
-        <v>138</v>
-      </c>
-      <c r="BI22" t="s">
-        <v>139</v>
-      </c>
-      <c r="BJ22" t="s">
-        <v>140</v>
-      </c>
-      <c r="BN22" t="s">
-        <v>141</v>
-      </c>
-      <c r="BO22" t="s">
-        <v>142</v>
-      </c>
-      <c r="BP22" t="s">
-        <v>143</v>
-      </c>
-      <c r="BS22" t="s">
-        <v>144</v>
-      </c>
-      <c r="BT22" t="s">
-        <v>145</v>
+      <c r="AE22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C23" t="s">
         <v>74</v>
@@ -3922,78 +3992,141 @@
         <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F23" t="s">
         <v>75</v>
       </c>
       <c r="G23" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="I23" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="J23" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="K23" t="s">
-        <v>149</v>
-      </c>
-      <c r="M23">
+        <v>289</v>
+      </c>
+      <c r="L23" t="s">
+        <v>76</v>
+      </c>
+      <c r="N23">
         <v>-999</v>
       </c>
-      <c r="O23" t="s">
-        <v>150</v>
-      </c>
       <c r="P23" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q23" t="s">
         <v>99</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>122</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>123</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>124</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>123</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>124</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>78</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>79</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>80</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>125</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>116</v>
       </c>
-      <c r="AD23" t="s">
-        <v>109</v>
-      </c>
       <c r="AE23" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>152</v>
+        <v>81</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>132</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>133</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>137</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>138</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>140</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>141</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>142</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
@@ -4002,7 +4135,7 @@
         <v>117</v>
       </c>
       <c r="E24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F24" t="s">
         <v>75</v>
@@ -4017,63 +4150,66 @@
         <v>148</v>
       </c>
       <c r="K24" t="s">
+        <v>291</v>
+      </c>
+      <c r="L24" t="s">
         <v>149</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>-999</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>150</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>99</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>122</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>123</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>124</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>123</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>124</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>78</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>79</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>80</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>125</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>116</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>109</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>151</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C25" t="s">
         <v>74</v>
@@ -4082,138 +4218,81 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F25" t="s">
         <v>75</v>
       </c>
       <c r="G25" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="I25" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="J25" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="K25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M25">
+        <v>291</v>
+      </c>
+      <c r="L25" t="s">
+        <v>149</v>
+      </c>
+      <c r="N25">
         <v>-999</v>
       </c>
-      <c r="O25" t="s">
-        <v>121</v>
-      </c>
       <c r="P25" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" t="s">
         <v>99</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>122</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>123</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>124</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>123</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>124</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>78</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>79</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AB25" t="s">
         <v>80</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
         <v>125</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
         <v>116</v>
       </c>
-      <c r="AD25" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU25" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW25" t="s">
-        <v>131</v>
-      </c>
-      <c r="AY25" t="s">
-        <v>132</v>
-      </c>
-      <c r="AZ25" t="s">
-        <v>133</v>
-      </c>
-      <c r="BA25" t="s">
-        <v>134</v>
-      </c>
-      <c r="BB25" t="s">
-        <v>83</v>
-      </c>
-      <c r="BC25" t="s">
-        <v>135</v>
-      </c>
-      <c r="BD25" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE25" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF25" t="s">
-        <v>137</v>
-      </c>
-      <c r="BH25" t="s">
-        <v>138</v>
-      </c>
-      <c r="BI25" t="s">
-        <v>139</v>
-      </c>
-      <c r="BJ25" t="s">
-        <v>140</v>
-      </c>
-      <c r="BN25" t="s">
-        <v>141</v>
-      </c>
-      <c r="BO25" t="s">
-        <v>142</v>
-      </c>
-      <c r="BP25" t="s">
-        <v>143</v>
-      </c>
-      <c r="BS25" t="s">
-        <v>144</v>
-      </c>
-      <c r="BT25" t="s">
-        <v>145</v>
+      <c r="AE25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C26" t="s">
         <v>74</v>
@@ -4222,7 +4301,7 @@
         <v>117</v>
       </c>
       <c r="E26" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F26" t="s">
         <v>75</v>
@@ -4237,123 +4316,126 @@
         <v>120</v>
       </c>
       <c r="K26" t="s">
+        <v>289</v>
+      </c>
+      <c r="L26" t="s">
         <v>76</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>-999</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>121</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>99</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>122</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>123</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>124</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>123</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>124</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>78</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>79</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
         <v>80</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AC26" t="s">
         <v>125</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
         <v>116</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>81</v>
       </c>
-      <c r="AJ26" t="s">
+      <c r="AK26" t="s">
         <v>126</v>
       </c>
-      <c r="AK26" t="s">
+      <c r="AL26" t="s">
         <v>127</v>
       </c>
-      <c r="AL26" t="s">
+      <c r="AM26" t="s">
         <v>128</v>
       </c>
-      <c r="AO26" t="s">
+      <c r="AP26" t="s">
         <v>129</v>
       </c>
-      <c r="AU26" t="s">
+      <c r="AV26" t="s">
         <v>130</v>
       </c>
-      <c r="AW26" t="s">
+      <c r="AX26" t="s">
         <v>131</v>
       </c>
-      <c r="AY26" t="s">
+      <c r="AZ26" t="s">
         <v>132</v>
       </c>
-      <c r="AZ26" t="s">
+      <c r="BA26" t="s">
         <v>133</v>
       </c>
-      <c r="BA26" t="s">
+      <c r="BB26" t="s">
         <v>134</v>
       </c>
-      <c r="BB26" t="s">
+      <c r="BC26" t="s">
         <v>83</v>
       </c>
-      <c r="BC26" t="s">
+      <c r="BD26" t="s">
         <v>135</v>
       </c>
-      <c r="BD26" t="s">
+      <c r="BE26" t="s">
         <v>136</v>
       </c>
-      <c r="BE26" t="s">
+      <c r="BF26" t="s">
         <v>56</v>
       </c>
-      <c r="BF26" t="s">
+      <c r="BG26" t="s">
         <v>137</v>
       </c>
-      <c r="BH26" t="s">
+      <c r="BI26" t="s">
         <v>138</v>
       </c>
-      <c r="BI26" t="s">
+      <c r="BJ26" t="s">
         <v>139</v>
       </c>
-      <c r="BJ26" t="s">
+      <c r="BK26" t="s">
         <v>140</v>
       </c>
-      <c r="BN26" t="s">
+      <c r="BO26" t="s">
         <v>141</v>
       </c>
-      <c r="BO26" t="s">
+      <c r="BP26" t="s">
         <v>142</v>
       </c>
-      <c r="BP26" t="s">
+      <c r="BQ26" t="s">
         <v>143</v>
       </c>
-      <c r="BS26" t="s">
+      <c r="BT26" t="s">
         <v>144</v>
       </c>
-      <c r="BT26" t="s">
+      <c r="BU26" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C27" t="s">
         <v>74</v>
@@ -4362,78 +4444,141 @@
         <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F27" t="s">
         <v>75</v>
       </c>
       <c r="G27" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="I27" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="J27" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="K27" t="s">
-        <v>149</v>
-      </c>
-      <c r="M27">
+        <v>289</v>
+      </c>
+      <c r="L27" t="s">
+        <v>76</v>
+      </c>
+      <c r="N27">
         <v>-999</v>
       </c>
-      <c r="O27" t="s">
-        <v>150</v>
-      </c>
       <c r="P27" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q27" t="s">
         <v>99</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>122</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>123</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>124</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>123</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>124</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>78</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>79</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
         <v>80</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
         <v>125</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
         <v>116</v>
       </c>
-      <c r="AD27" t="s">
-        <v>109</v>
-      </c>
       <c r="AE27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>152</v>
+        <v>81</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>132</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>133</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>137</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>138</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>140</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>141</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>142</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C28" t="s">
         <v>74</v>
@@ -4442,7 +4587,7 @@
         <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F28" t="s">
         <v>75</v>
@@ -4457,63 +4602,66 @@
         <v>148</v>
       </c>
       <c r="K28" t="s">
+        <v>291</v>
+      </c>
+      <c r="L28" t="s">
         <v>149</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-999</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>150</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>99</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>122</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>123</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>124</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>123</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>124</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>78</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>79</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AB28" t="s">
         <v>80</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AC28" t="s">
         <v>125</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AD28" t="s">
         <v>116</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AE28" t="s">
         <v>109</v>
       </c>
-      <c r="AE28" t="s">
+      <c r="AF28" t="s">
         <v>151</v>
       </c>
-      <c r="AF28" t="s">
+      <c r="AG28" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C29" t="s">
         <v>74</v>
@@ -4522,138 +4670,81 @@
         <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F29" t="s">
         <v>75</v>
       </c>
       <c r="G29" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="I29" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="J29" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="K29" t="s">
-        <v>76</v>
-      </c>
-      <c r="M29">
+        <v>291</v>
+      </c>
+      <c r="L29" t="s">
+        <v>149</v>
+      </c>
+      <c r="N29">
         <v>-999</v>
       </c>
-      <c r="O29" t="s">
-        <v>121</v>
-      </c>
       <c r="P29" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q29" t="s">
         <v>99</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>122</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>123</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>124</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>123</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>124</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>78</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>79</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AB29" t="s">
         <v>80</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AC29" t="s">
         <v>125</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AD29" t="s">
         <v>116</v>
       </c>
-      <c r="AD29" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO29" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU29" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW29" t="s">
-        <v>131</v>
-      </c>
-      <c r="AY29" t="s">
-        <v>132</v>
-      </c>
-      <c r="AZ29" t="s">
-        <v>133</v>
-      </c>
-      <c r="BA29" t="s">
-        <v>134</v>
-      </c>
-      <c r="BB29" t="s">
-        <v>83</v>
-      </c>
-      <c r="BC29" t="s">
-        <v>135</v>
-      </c>
-      <c r="BD29" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE29" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF29" t="s">
-        <v>137</v>
-      </c>
-      <c r="BH29" t="s">
-        <v>138</v>
-      </c>
-      <c r="BI29" t="s">
-        <v>139</v>
-      </c>
-      <c r="BJ29" t="s">
-        <v>140</v>
-      </c>
-      <c r="BN29" t="s">
-        <v>141</v>
-      </c>
-      <c r="BO29" t="s">
-        <v>142</v>
-      </c>
-      <c r="BP29" t="s">
-        <v>143</v>
-      </c>
-      <c r="BS29" t="s">
-        <v>144</v>
-      </c>
-      <c r="BT29" t="s">
-        <v>145</v>
+      <c r="AE29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C30" t="s">
         <v>74</v>
@@ -4662,7 +4753,7 @@
         <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F30" t="s">
         <v>75</v>
@@ -4677,123 +4768,126 @@
         <v>120</v>
       </c>
       <c r="K30" t="s">
+        <v>289</v>
+      </c>
+      <c r="L30" t="s">
         <v>76</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>-999</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>121</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>99</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>122</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>123</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>124</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>123</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>124</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>78</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>79</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AB30" t="s">
         <v>80</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AC30" t="s">
         <v>125</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AD30" t="s">
         <v>116</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AE30" t="s">
         <v>81</v>
       </c>
-      <c r="AJ30" t="s">
+      <c r="AK30" t="s">
         <v>126</v>
       </c>
-      <c r="AK30" t="s">
+      <c r="AL30" t="s">
         <v>127</v>
       </c>
-      <c r="AL30" t="s">
+      <c r="AM30" t="s">
         <v>128</v>
       </c>
-      <c r="AO30" t="s">
+      <c r="AP30" t="s">
         <v>129</v>
       </c>
-      <c r="AU30" t="s">
+      <c r="AV30" t="s">
         <v>130</v>
       </c>
-      <c r="AW30" t="s">
+      <c r="AX30" t="s">
         <v>131</v>
       </c>
-      <c r="AY30" t="s">
+      <c r="AZ30" t="s">
         <v>132</v>
       </c>
-      <c r="AZ30" t="s">
+      <c r="BA30" t="s">
         <v>133</v>
       </c>
-      <c r="BA30" t="s">
+      <c r="BB30" t="s">
         <v>134</v>
       </c>
-      <c r="BB30" t="s">
+      <c r="BC30" t="s">
         <v>83</v>
       </c>
-      <c r="BC30" t="s">
+      <c r="BD30" t="s">
         <v>135</v>
       </c>
-      <c r="BD30" t="s">
+      <c r="BE30" t="s">
         <v>136</v>
       </c>
-      <c r="BE30" t="s">
+      <c r="BF30" t="s">
         <v>56</v>
       </c>
-      <c r="BF30" t="s">
+      <c r="BG30" t="s">
         <v>137</v>
       </c>
-      <c r="BH30" t="s">
+      <c r="BI30" t="s">
         <v>138</v>
       </c>
-      <c r="BI30" t="s">
+      <c r="BJ30" t="s">
         <v>139</v>
       </c>
-      <c r="BJ30" t="s">
+      <c r="BK30" t="s">
         <v>140</v>
       </c>
-      <c r="BN30" t="s">
+      <c r="BO30" t="s">
         <v>141</v>
       </c>
-      <c r="BO30" t="s">
+      <c r="BP30" t="s">
         <v>142</v>
       </c>
-      <c r="BP30" t="s">
+      <c r="BQ30" t="s">
         <v>143</v>
       </c>
-      <c r="BS30" t="s">
+      <c r="BT30" t="s">
         <v>144</v>
       </c>
-      <c r="BT30" t="s">
+      <c r="BU30" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C31" t="s">
         <v>74</v>
@@ -4802,78 +4896,141 @@
         <v>117</v>
       </c>
       <c r="E31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F31" t="s">
         <v>75</v>
       </c>
       <c r="G31" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="I31" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="J31" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="K31" t="s">
-        <v>149</v>
-      </c>
-      <c r="M31">
+        <v>289</v>
+      </c>
+      <c r="L31" t="s">
+        <v>76</v>
+      </c>
+      <c r="N31">
         <v>-999</v>
       </c>
-      <c r="O31" t="s">
-        <v>150</v>
-      </c>
       <c r="P31" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q31" t="s">
         <v>99</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>122</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>123</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>124</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>123</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>124</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>78</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>79</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AB31" t="s">
         <v>80</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AC31" t="s">
         <v>125</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AD31" t="s">
         <v>116</v>
       </c>
-      <c r="AD31" t="s">
-        <v>109</v>
-      </c>
       <c r="AE31" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>152</v>
+        <v>81</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>132</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>133</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>137</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>138</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>140</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>141</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>142</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT31" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C32" t="s">
         <v>74</v>
@@ -4882,7 +5039,7 @@
         <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F32" t="s">
         <v>75</v>
@@ -4897,377 +5054,296 @@
         <v>148</v>
       </c>
       <c r="K32" t="s">
+        <v>291</v>
+      </c>
+      <c r="L32" t="s">
         <v>149</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>-999</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>150</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>99</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>122</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>123</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>124</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>123</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>124</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>78</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>79</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="AB32" t="s">
         <v>80</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AC32" t="s">
         <v>125</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AD32" t="s">
         <v>116</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AE32" t="s">
         <v>109</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="AF32" t="s">
         <v>151</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AG32" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C33" t="s">
         <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="1">
-        <v>320620151207</v>
+        <v>117</v>
+      </c>
+      <c r="E33" t="s">
+        <v>195</v>
       </c>
       <c r="F33" t="s">
         <v>75</v>
       </c>
       <c r="G33" t="s">
-        <v>95</v>
-      </c>
-      <c r="H33" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="I33" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="J33" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="K33" t="s">
-        <v>202</v>
-      </c>
-      <c r="M33">
-        <v>-9999</v>
+        <v>291</v>
+      </c>
+      <c r="L33" t="s">
+        <v>149</v>
       </c>
       <c r="N33">
-        <v>-8888</v>
+        <v>-999</v>
       </c>
       <c r="P33" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q33" t="s">
         <v>99</v>
       </c>
-      <c r="R33" t="s">
-        <v>100</v>
-      </c>
-      <c r="T33" t="s">
-        <v>101</v>
+      <c r="S33" t="s">
+        <v>122</v>
+      </c>
+      <c r="U33" t="s">
+        <v>123</v>
       </c>
       <c r="V33" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="W33" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="X33" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="Z33" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB33" t="s">
         <v>80</v>
       </c>
-      <c r="AB33" t="s">
-        <v>107</v>
-      </c>
       <c r="AC33" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AD33" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE33" t="s">
         <v>109</v>
       </c>
-      <c r="AH33" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>203</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>205</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>206</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>207</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>115</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB33" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE33" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF33" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH33" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>208</v>
-      </c>
-      <c r="BN33" t="s">
-        <v>88</v>
-      </c>
-      <c r="BO33" t="s">
-        <v>89</v>
-      </c>
-      <c r="BP33" t="s">
-        <v>90</v>
-      </c>
-      <c r="BS33" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT33" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU33" t="s">
-        <v>209</v>
+      <c r="AF33" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C34" t="s">
         <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>257</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>183</v>
+        <v>94</v>
+      </c>
+      <c r="E34" s="1">
+        <v>320620151207</v>
       </c>
       <c r="F34" t="s">
         <v>75</v>
       </c>
       <c r="G34" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="H34" t="s">
-        <v>264</v>
+        <v>96</v>
+      </c>
+      <c r="I34" t="s">
+        <v>97</v>
+      </c>
+      <c r="J34" t="s">
+        <v>98</v>
       </c>
       <c r="K34" t="s">
-        <v>265</v>
-      </c>
-      <c r="M34" t="s">
-        <v>278</v>
-      </c>
-      <c r="R34" t="s">
-        <v>272</v>
-      </c>
-      <c r="T34" t="s">
-        <v>287</v>
+        <v>290</v>
+      </c>
+      <c r="L34" t="s">
+        <v>201</v>
+      </c>
+      <c r="N34">
+        <v>-9999</v>
+      </c>
+      <c r="O34">
+        <v>-8888</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>99</v>
+      </c>
+      <c r="S34" t="s">
+        <v>100</v>
       </c>
       <c r="U34" t="s">
-        <v>288</v>
+        <v>101</v>
+      </c>
+      <c r="W34" t="s">
+        <v>102</v>
+      </c>
+      <c r="X34" t="s">
+        <v>103</v>
       </c>
       <c r="Y34" t="s">
-        <v>279</v>
+        <v>104</v>
       </c>
       <c r="Z34" t="s">
-        <v>286</v>
+        <v>105</v>
       </c>
       <c r="AA34" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB34" t="s">
         <v>80</v>
       </c>
       <c r="AC34" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="AD34" t="s">
-        <v>159</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>280</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>35</v>
+        <v>108</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>110</v>
       </c>
       <c r="AK34" t="s">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="AL34" t="s">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="AM34" t="s">
-        <v>281</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="AP34" t="s">
-        <v>284</v>
+        <v>204</v>
       </c>
       <c r="AQ34" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>285</v>
+        <v>205</v>
       </c>
       <c r="AS34" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>48</v>
+        <v>206</v>
       </c>
       <c r="AX34" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="AZ34" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="BA34" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="BB34" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC34" t="s">
         <v>53</v>
       </c>
-      <c r="BC34" t="s">
-        <v>54</v>
-      </c>
       <c r="BD34" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="BE34" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="BF34" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="BG34" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="BI34" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ34" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="BN34" t="s">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="BO34" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="BP34" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="BQ34" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR34" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS34" t="s">
+        <v>90</v>
+      </c>
+      <c r="BT34" t="s">
         <v>70</v>
       </c>
-      <c r="BT34" t="s">
+      <c r="BU34" t="s">
         <v>71</v>
       </c>
+      <c r="BV34" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="35" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -5278,10 +5354,10 @@
         <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F35" t="s">
         <v>75</v>
@@ -5290,424 +5366,615 @@
         <v>177</v>
       </c>
       <c r="H35" t="s">
+        <v>263</v>
+      </c>
+      <c r="K35" t="s">
+        <v>292</v>
+      </c>
+      <c r="L35" t="s">
         <v>264</v>
       </c>
-      <c r="K35" t="s">
-        <v>265</v>
-      </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
+        <v>277</v>
+      </c>
+      <c r="S35" t="s">
+        <v>271</v>
+      </c>
+      <c r="U35" t="s">
+        <v>286</v>
+      </c>
+      <c r="V35" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z35" t="s">
         <v>278</v>
       </c>
-      <c r="R35" t="s">
-        <v>272</v>
-      </c>
-      <c r="T35" t="s">
-        <v>287</v>
-      </c>
-      <c r="U35" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y35" t="s">
+      <c r="AA35" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI35" t="s">
         <v>279</v>
       </c>
-      <c r="Z35" t="s">
-        <v>286</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>159</v>
-      </c>
-      <c r="AH35" t="s">
+      <c r="AK35" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN35" t="s">
         <v>280</v>
       </c>
-      <c r="AJ35" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM35" t="s">
-        <v>281</v>
-      </c>
-      <c r="AN35" t="s">
+      <c r="AO35" t="s">
         <v>39</v>
       </c>
-      <c r="AO35" t="s">
+      <c r="AP35" t="s">
         <v>40</v>
       </c>
-      <c r="AP35" t="s">
+      <c r="AQ35" t="s">
+        <v>283</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS35" t="s">
         <v>284</v>
       </c>
-      <c r="AQ35" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR35" t="s">
-        <v>285</v>
-      </c>
-      <c r="AS35" t="s">
+      <c r="AT35" t="s">
         <v>44</v>
       </c>
-      <c r="AT35" t="s">
+      <c r="AU35" t="s">
         <v>45</v>
       </c>
-      <c r="AU35" t="s">
+      <c r="AV35" t="s">
         <v>46</v>
       </c>
-      <c r="AV35" t="s">
+      <c r="AW35" t="s">
         <v>47</v>
       </c>
-      <c r="AW35" t="s">
+      <c r="AX35" t="s">
         <v>48</v>
       </c>
-      <c r="AX35" t="s">
+      <c r="AY35" t="s">
         <v>49</v>
       </c>
-      <c r="AY35" t="s">
+      <c r="AZ35" t="s">
         <v>50</v>
       </c>
-      <c r="AZ35" t="s">
+      <c r="BA35" t="s">
         <v>51</v>
       </c>
-      <c r="BA35" t="s">
+      <c r="BB35" t="s">
         <v>52</v>
       </c>
-      <c r="BB35" t="s">
+      <c r="BC35" t="s">
         <v>53</v>
       </c>
-      <c r="BC35" t="s">
+      <c r="BD35" t="s">
         <v>54</v>
       </c>
-      <c r="BD35" t="s">
+      <c r="BE35" t="s">
         <v>55</v>
       </c>
-      <c r="BE35" t="s">
+      <c r="BF35" t="s">
         <v>56</v>
       </c>
-      <c r="BF35" t="s">
+      <c r="BG35" t="s">
         <v>57</v>
       </c>
-      <c r="BG35" t="s">
+      <c r="BH35" t="s">
         <v>58</v>
       </c>
-      <c r="BH35" t="s">
+      <c r="BI35" t="s">
         <v>59</v>
       </c>
-      <c r="BI35" t="s">
+      <c r="BJ35" t="s">
         <v>60</v>
       </c>
-      <c r="BJ35" t="s">
+      <c r="BK35" t="s">
         <v>61</v>
       </c>
-      <c r="BK35" t="s">
+      <c r="BL35" t="s">
         <v>62</v>
       </c>
-      <c r="BL35" t="s">
+      <c r="BM35" t="s">
         <v>63</v>
       </c>
-      <c r="BM35" t="s">
+      <c r="BN35" t="s">
         <v>64</v>
       </c>
-      <c r="BN35" t="s">
+      <c r="BO35" t="s">
         <v>65</v>
       </c>
-      <c r="BO35" t="s">
+      <c r="BP35" t="s">
         <v>66</v>
       </c>
-      <c r="BP35" t="s">
+      <c r="BQ35" t="s">
         <v>67</v>
       </c>
-      <c r="BQ35" t="s">
+      <c r="BR35" t="s">
         <v>68</v>
       </c>
-      <c r="BR35" t="s">
+      <c r="BS35" t="s">
         <v>69</v>
       </c>
-      <c r="BS35" t="s">
+      <c r="BT35" t="s">
         <v>70</v>
       </c>
-      <c r="BT35" t="s">
+      <c r="BU35" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C36" t="s">
-        <v>270</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>260</v>
-      </c>
-      <c r="E36" t="s">
-        <v>182</v>
+        <v>256</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="F36" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s">
         <v>177</v>
       </c>
       <c r="H36" t="s">
+        <v>263</v>
+      </c>
+      <c r="K36" t="s">
+        <v>292</v>
+      </c>
+      <c r="L36" t="s">
         <v>264</v>
       </c>
-      <c r="K36" t="s">
-        <v>178</v>
-      </c>
-      <c r="M36" t="s">
-        <v>156</v>
-      </c>
-      <c r="P36" t="s">
-        <v>99</v>
-      </c>
-      <c r="R36" t="s">
-        <v>272</v>
-      </c>
-      <c r="T36" t="s">
-        <v>273</v>
+      <c r="N36" t="s">
+        <v>277</v>
+      </c>
+      <c r="S36" t="s">
+        <v>271</v>
       </c>
       <c r="U36" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="V36" t="s">
-        <v>275</v>
-      </c>
-      <c r="W36" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="Z36" t="s">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="AA36" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB36" t="s">
         <v>80</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="AD36" t="s">
         <v>116</v>
       </c>
-      <c r="AD36" t="s">
-        <v>109</v>
-      </c>
       <c r="AE36" t="s">
-        <v>277</v>
+        <v>159</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>280</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>283</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>284</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH36" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK36" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL36" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN36" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP36" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ36" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR36" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D37" t="s">
+        <v>259</v>
+      </c>
+      <c r="E37">
+        <v>320620030220</v>
+      </c>
+      <c r="F37" t="s">
         <v>270</v>
-      </c>
-      <c r="D37" t="s">
-        <v>260</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F37" t="s">
-        <v>271</v>
       </c>
       <c r="G37" t="s">
         <v>177</v>
       </c>
       <c r="H37" t="s">
-        <v>264</v>
-      </c>
-      <c r="K37" t="s">
+        <v>263</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="L37" t="s">
         <v>178</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>156</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>99</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
+        <v>271</v>
+      </c>
+      <c r="U37" t="s">
         <v>272</v>
       </c>
-      <c r="T37" t="s">
+      <c r="V37" t="s">
         <v>273</v>
       </c>
-      <c r="U37" t="s">
+      <c r="W37" t="s">
         <v>274</v>
       </c>
-      <c r="V37" t="s">
+      <c r="X37" t="s">
         <v>275</v>
       </c>
-      <c r="W37" t="s">
+      <c r="Z37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF37" t="s">
         <v>276</v>
       </c>
-      <c r="Y37" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>277</v>
-      </c>
     </row>
-    <row r="38" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C38" t="s">
+        <v>269</v>
+      </c>
+      <c r="D38" t="s">
+        <v>259</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F38" t="s">
         <v>270</v>
-      </c>
-      <c r="D38" t="s">
-        <v>260</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F38" t="s">
-        <v>271</v>
       </c>
       <c r="G38" t="s">
         <v>177</v>
       </c>
       <c r="H38" t="s">
-        <v>264</v>
-      </c>
-      <c r="K38" t="s">
+        <v>263</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="L38" t="s">
         <v>178</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>156</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>99</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
+        <v>271</v>
+      </c>
+      <c r="U38" t="s">
         <v>272</v>
       </c>
-      <c r="T38" t="s">
+      <c r="V38" t="s">
         <v>273</v>
       </c>
-      <c r="U38" t="s">
+      <c r="W38" t="s">
         <v>274</v>
       </c>
-      <c r="V38" t="s">
+      <c r="X38" t="s">
         <v>275</v>
       </c>
-      <c r="W38" t="s">
+      <c r="Z38" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF38" t="s">
         <v>276</v>
       </c>
-      <c r="Y38" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>277</v>
-      </c>
     </row>
-    <row r="39" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>73</v>
       </c>
       <c r="B39" t="s">
+        <v>267</v>
+      </c>
+      <c r="C39" t="s">
         <v>269</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>259</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F39" t="s">
         <v>270</v>
-      </c>
-      <c r="D39" t="s">
-        <v>260</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F39" t="s">
-        <v>271</v>
       </c>
       <c r="G39" t="s">
         <v>177</v>
       </c>
       <c r="H39" t="s">
-        <v>264</v>
-      </c>
-      <c r="K39" t="s">
+        <v>263</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="L39" t="s">
         <v>178</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>156</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>99</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
+        <v>271</v>
+      </c>
+      <c r="U39" t="s">
         <v>272</v>
       </c>
-      <c r="T39" t="s">
+      <c r="V39" t="s">
         <v>273</v>
       </c>
-      <c r="U39" t="s">
+      <c r="W39" t="s">
         <v>274</v>
       </c>
-      <c r="V39" t="s">
+      <c r="X39" t="s">
         <v>275</v>
       </c>
-      <c r="W39" t="s">
+      <c r="Z39" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF39" t="s">
         <v>276</v>
       </c>
-      <c r="Y39" t="s">
+    </row>
+    <row r="40" spans="1:74" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
+        <v>268</v>
+      </c>
+      <c r="C40" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" t="s">
+        <v>259</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" t="s">
+        <v>270</v>
+      </c>
+      <c r="G40" t="s">
+        <v>177</v>
+      </c>
+      <c r="H40" t="s">
+        <v>263</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="L40" t="s">
+        <v>178</v>
+      </c>
+      <c r="N40" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>99</v>
+      </c>
+      <c r="S40" t="s">
+        <v>271</v>
+      </c>
+      <c r="U40" t="s">
+        <v>272</v>
+      </c>
+      <c r="V40" t="s">
+        <v>273</v>
+      </c>
+      <c r="W40" t="s">
+        <v>274</v>
+      </c>
+      <c r="X40" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z40" t="s">
         <v>78</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA40" t="s">
         <v>79</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB40" t="s">
         <v>80</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="AD40" t="s">
         <v>116</v>
       </c>
-      <c r="AD39" t="s">
+      <c r="AE40" t="s">
         <v>109</v>
       </c>
-      <c r="AE39" t="s">
-        <v>277</v>
-      </c>
+      <c r="AF40" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:74" x14ac:dyDescent="0.35">
+      <c r="K41" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/product_data/processing_metadata/C3/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C3/PIG_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="298" documentId="8_{E310EAF6-001C-4683-A632-3F0045222FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AC2278A-CB7F-416E-8219-66B57DCA6824}"/>
+  <xr:revisionPtr revIDLastSave="309" documentId="8_{E310EAF6-001C-4683-A632-3F0045222FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B50D4A01-6ABE-4EE9-A6A3-409E97E61B33}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD0B7FAE-241F-4E23-A02A-6E81F5ECAC2C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DD0B7FAE-241F-4E23-A02A-6E81F5ECAC2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="300">
   <si>
     <t>file_type</t>
   </si>
@@ -495,9 +495,6 @@
     <t>Phaeopigment</t>
   </si>
   <si>
-    <t>JGOFS</t>
-  </si>
-  <si>
     <t>Robert R. Bidigare</t>
   </si>
   <si>
@@ -804,18 +801,12 @@
     <t>E:/Data_downloads/SeaBASS/320620151206/HPLC</t>
   </si>
   <si>
-    <t>MAREDAT</t>
-  </si>
-  <si>
     <t>E:/Data_downloads/MAREDAT/122</t>
   </si>
   <si>
     <t>E:/Data_downloads/MAREDAT/121</t>
   </si>
   <si>
-    <t>IVARS</t>
-  </si>
-  <si>
     <t>33LG19990102</t>
   </si>
   <si>
@@ -934,6 +925,15 @@
   </si>
   <si>
     <t>IVARS_poc</t>
+  </si>
+  <si>
+    <t>BCO-DMO</t>
+  </si>
+  <si>
+    <t>320620030220</t>
+  </si>
+  <si>
+    <t>PANGEAE</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1298,7 @@
   <dimension ref="A1:BV41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1338,7 +1338,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
@@ -1535,13 +1535,13 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>297</v>
       </c>
       <c r="E2" s="1">
         <v>320619970404</v>
@@ -1550,97 +1550,97 @@
         <v>75</v>
       </c>
       <c r="G2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I2" t="s">
         <v>154</v>
       </c>
-      <c r="H2" t="s">
-        <v>263</v>
-      </c>
-      <c r="I2" t="s">
-        <v>155</v>
-      </c>
       <c r="K2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L2" t="s">
         <v>76</v>
       </c>
       <c r="N2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q2" t="s">
         <v>77</v>
       </c>
       <c r="S2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="T2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AC2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD2" t="s">
         <v>157</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>158</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AI2" t="s">
         <v>159</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>160</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>161</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AP2" t="s">
         <v>162</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AR2" t="s">
         <v>163</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AX2" t="s">
         <v>164</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AZ2" t="s">
         <v>165</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>166</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>167</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>168</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>169</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>170</v>
       </c>
       <c r="BE2" t="s">
         <v>92</v>
       </c>
       <c r="BF2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BG2" t="s">
         <v>171</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>172</v>
       </c>
       <c r="BI2" t="s">
         <v>91</v>
       </c>
       <c r="BJ2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BK2" t="s">
         <v>173</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BP2" t="s">
         <v>174</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>175</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:74" x14ac:dyDescent="0.35">
@@ -1648,13 +1648,13 @@
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>297</v>
       </c>
       <c r="E3" s="1">
         <v>320619970404</v>
@@ -1663,46 +1663,46 @@
         <v>75</v>
       </c>
       <c r="G3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K3" t="s">
+        <v>292</v>
+      </c>
+      <c r="L3" t="s">
         <v>177</v>
       </c>
-      <c r="H3" t="s">
-        <v>263</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="N3" t="s">
         <v>155</v>
-      </c>
-      <c r="K3" t="s">
-        <v>295</v>
-      </c>
-      <c r="L3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N3" t="s">
-        <v>156</v>
       </c>
       <c r="Q3" t="s">
         <v>77</v>
       </c>
       <c r="S3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="T3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AC3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD3" t="s">
         <v>157</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>158</v>
       </c>
       <c r="AE3" t="s">
         <v>81</v>
       </c>
       <c r="AF3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG3" t="s">
         <v>179</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:74" x14ac:dyDescent="0.35">
@@ -1710,13 +1710,13 @@
         <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>297</v>
       </c>
       <c r="E4" s="1">
         <v>320619971105</v>
@@ -1725,100 +1725,100 @@
         <v>75</v>
       </c>
       <c r="G4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I4" t="s">
         <v>154</v>
       </c>
-      <c r="H4" t="s">
-        <v>263</v>
-      </c>
-      <c r="I4" t="s">
-        <v>155</v>
-      </c>
       <c r="K4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L4" t="s">
         <v>76</v>
       </c>
       <c r="N4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q4" t="s">
         <v>77</v>
       </c>
       <c r="S4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="T4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AC4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD4" t="s">
         <v>157</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>158</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AI4" t="s">
         <v>159</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AL4" t="s">
         <v>160</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>161</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AP4" t="s">
         <v>162</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AR4" t="s">
         <v>163</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AX4" t="s">
         <v>164</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AZ4" t="s">
         <v>165</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>166</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>167</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>168</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
         <v>169</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>170</v>
       </c>
       <c r="BE4" t="s">
         <v>92</v>
       </c>
       <c r="BF4" t="s">
+        <v>170</v>
+      </c>
+      <c r="BG4" t="s">
         <v>171</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>172</v>
       </c>
       <c r="BI4" t="s">
         <v>91</v>
       </c>
       <c r="BJ4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BK4" t="s">
         <v>173</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BP4" t="s">
         <v>174</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BQ4" t="s">
         <v>175</v>
       </c>
-      <c r="BQ4" t="s">
-        <v>176</v>
-      </c>
       <c r="BV4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:74" x14ac:dyDescent="0.35">
@@ -1826,13 +1826,13 @@
         <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>297</v>
       </c>
       <c r="E5" s="1">
         <v>320619971105</v>
@@ -1841,46 +1841,46 @@
         <v>75</v>
       </c>
       <c r="G5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" t="s">
+        <v>260</v>
+      </c>
+      <c r="I5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" t="s">
+        <v>290</v>
+      </c>
+      <c r="L5" t="s">
         <v>177</v>
       </c>
-      <c r="H5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="N5" t="s">
         <v>155</v>
-      </c>
-      <c r="K5" t="s">
-        <v>293</v>
-      </c>
-      <c r="L5" t="s">
-        <v>178</v>
-      </c>
-      <c r="N5" t="s">
-        <v>156</v>
       </c>
       <c r="Q5" t="s">
         <v>77</v>
       </c>
       <c r="S5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="T5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AC5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD5" t="s">
         <v>157</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>158</v>
       </c>
       <c r="AE5" t="s">
         <v>81</v>
       </c>
       <c r="AF5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG5" t="s">
         <v>179</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:74" x14ac:dyDescent="0.35">
@@ -1888,7 +1888,7 @@
         <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -1915,10 +1915,10 @@
         <v>98</v>
       </c>
       <c r="K6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N6">
         <v>-9999</v>
@@ -1966,22 +1966,22 @@
         <v>110</v>
       </c>
       <c r="AK6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL6" t="s">
         <v>202</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>203</v>
       </c>
       <c r="AM6" t="s">
         <v>111</v>
       </c>
       <c r="AP6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>204</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AS6" t="s">
         <v>205</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>206</v>
       </c>
       <c r="AX6" t="s">
         <v>113</v>
@@ -2014,7 +2014,7 @@
         <v>87</v>
       </c>
       <c r="BN6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BO6" t="s">
         <v>88</v>
@@ -2032,7 +2032,7 @@
         <v>71</v>
       </c>
       <c r="BV6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:74" x14ac:dyDescent="0.35">
@@ -2040,7 +2040,7 @@
         <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -2067,10 +2067,10 @@
         <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N7">
         <v>-9999</v>
@@ -2118,16 +2118,16 @@
         <v>110</v>
       </c>
       <c r="AL7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AM7" t="s">
         <v>111</v>
       </c>
       <c r="AP7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AS7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AX7" t="s">
         <v>113</v>
@@ -2157,7 +2157,7 @@
         <v>87</v>
       </c>
       <c r="BN7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BO7" t="s">
         <v>88</v>
@@ -2175,7 +2175,7 @@
         <v>71</v>
       </c>
       <c r="BV7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:74" x14ac:dyDescent="0.35">
@@ -2183,7 +2183,7 @@
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C8" t="s">
         <v>74</v>
@@ -2210,10 +2210,10 @@
         <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N8">
         <v>-9999</v>
@@ -2261,22 +2261,22 @@
         <v>110</v>
       </c>
       <c r="AK8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL8" t="s">
         <v>202</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>203</v>
       </c>
       <c r="AM8" t="s">
         <v>111</v>
       </c>
       <c r="AP8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ8" t="s">
         <v>204</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AS8" t="s">
         <v>205</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>206</v>
       </c>
       <c r="AX8" t="s">
         <v>113</v>
@@ -2309,7 +2309,7 @@
         <v>87</v>
       </c>
       <c r="BN8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BO8" t="s">
         <v>88</v>
@@ -2327,7 +2327,7 @@
         <v>71</v>
       </c>
       <c r="BV8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:74" x14ac:dyDescent="0.35">
@@ -2335,7 +2335,7 @@
         <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
         <v>74</v>
@@ -2362,10 +2362,10 @@
         <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N9">
         <v>-9999</v>
@@ -2413,16 +2413,16 @@
         <v>110</v>
       </c>
       <c r="AL9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AM9" t="s">
         <v>111</v>
       </c>
       <c r="AP9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AS9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AX9" t="s">
         <v>113</v>
@@ -2446,7 +2446,7 @@
         <v>86</v>
       </c>
       <c r="BN9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BP9" t="s">
         <v>89</v>
@@ -2461,7 +2461,7 @@
         <v>71</v>
       </c>
       <c r="BV9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:74" x14ac:dyDescent="0.35">
@@ -2469,7 +2469,7 @@
         <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C10" t="s">
         <v>74</v>
@@ -2484,22 +2484,22 @@
         <v>75</v>
       </c>
       <c r="G10" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" t="s">
         <v>215</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>216</v>
       </c>
-      <c r="I10" t="s">
-        <v>217</v>
-      </c>
       <c r="J10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N10">
         <v>-999</v>
@@ -2508,7 +2508,7 @@
         <v>-111</v>
       </c>
       <c r="P10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q10" t="s">
         <v>99</v>
@@ -2517,10 +2517,10 @@
         <v>100</v>
       </c>
       <c r="U10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W10" t="s">
         <v>102</v>
@@ -2553,10 +2553,10 @@
         <v>110</v>
       </c>
       <c r="AK10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL10" t="s">
         <v>202</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>203</v>
       </c>
       <c r="AM10" t="s">
         <v>111</v>
@@ -2565,10 +2565,10 @@
         <v>112</v>
       </c>
       <c r="AQ10" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS10" t="s">
         <v>205</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>206</v>
       </c>
       <c r="AX10" t="s">
         <v>113</v>
@@ -2601,7 +2601,7 @@
         <v>87</v>
       </c>
       <c r="BN10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BO10" t="s">
         <v>88</v>
@@ -2624,7 +2624,7 @@
         <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" t="s">
         <v>74</v>
@@ -2639,22 +2639,22 @@
         <v>75</v>
       </c>
       <c r="G11" t="s">
+        <v>221</v>
+      </c>
+      <c r="H11" t="s">
+        <v>215</v>
+      </c>
+      <c r="I11" t="s">
         <v>222</v>
       </c>
-      <c r="H11" t="s">
-        <v>216</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>223</v>
       </c>
-      <c r="J11" t="s">
-        <v>224</v>
-      </c>
       <c r="K11" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N11">
         <v>-999</v>
@@ -2669,10 +2669,10 @@
         <v>100</v>
       </c>
       <c r="U11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W11" t="s">
         <v>102</v>
@@ -2702,22 +2702,22 @@
         <v>110</v>
       </c>
       <c r="AK11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL11" t="s">
         <v>202</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>203</v>
       </c>
       <c r="AM11" t="s">
         <v>111</v>
       </c>
       <c r="AP11" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ11" t="s">
         <v>204</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AS11" t="s">
         <v>205</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>206</v>
       </c>
       <c r="AX11" t="s">
         <v>113</v>
@@ -2750,7 +2750,7 @@
         <v>87</v>
       </c>
       <c r="BN11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BO11" t="s">
         <v>88</v>
@@ -2768,7 +2768,7 @@
         <v>71</v>
       </c>
       <c r="BV11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:74" x14ac:dyDescent="0.35">
@@ -2776,10 +2776,10 @@
         <v>73</v>
       </c>
       <c r="B12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" t="s">
         <v>225</v>
-      </c>
-      <c r="C12" t="s">
-        <v>226</v>
       </c>
       <c r="D12" t="s">
         <v>94</v>
@@ -2788,25 +2788,25 @@
         <v>320619971220</v>
       </c>
       <c r="F12" t="s">
+        <v>226</v>
+      </c>
+      <c r="G12" t="s">
         <v>227</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>215</v>
+      </c>
+      <c r="I12" t="s">
         <v>228</v>
       </c>
-      <c r="H12" t="s">
-        <v>216</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>229</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="L12" t="s">
         <v>230</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="L12" t="s">
-        <v>231</v>
       </c>
       <c r="N12">
         <v>-999</v>
@@ -2821,10 +2821,10 @@
         <v>101</v>
       </c>
       <c r="W12" t="s">
+        <v>231</v>
+      </c>
+      <c r="X12" t="s">
         <v>232</v>
-      </c>
-      <c r="X12" t="s">
-        <v>233</v>
       </c>
       <c r="Z12" t="s">
         <v>105</v>
@@ -2842,10 +2842,10 @@
         <v>109</v>
       </c>
       <c r="AF12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AG12" t="s">
         <v>234</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:74" x14ac:dyDescent="0.35">
@@ -2853,7 +2853,7 @@
         <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C13" t="s">
         <v>74</v>
@@ -2862,7 +2862,7 @@
         <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>
@@ -2877,7 +2877,7 @@
         <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L13" t="s">
         <v>76</v>
@@ -2996,7 +2996,7 @@
         <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C14" t="s">
         <v>74</v>
@@ -3005,7 +3005,7 @@
         <v>117</v>
       </c>
       <c r="E14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>
@@ -3020,7 +3020,7 @@
         <v>120</v>
       </c>
       <c r="K14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L14" t="s">
         <v>76</v>
@@ -3139,7 +3139,7 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C15" t="s">
         <v>74</v>
@@ -3148,7 +3148,7 @@
         <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -3163,7 +3163,7 @@
         <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L15" t="s">
         <v>149</v>
@@ -3222,7 +3222,7 @@
         <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C16" t="s">
         <v>74</v>
@@ -3231,7 +3231,7 @@
         <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
@@ -3246,7 +3246,7 @@
         <v>148</v>
       </c>
       <c r="K16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L16" t="s">
         <v>149</v>
@@ -3305,7 +3305,7 @@
         <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C17" t="s">
         <v>74</v>
@@ -3314,7 +3314,7 @@
         <v>117</v>
       </c>
       <c r="E17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F17" t="s">
         <v>75</v>
@@ -3329,7 +3329,7 @@
         <v>120</v>
       </c>
       <c r="K17" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L17" t="s">
         <v>76</v>
@@ -3448,7 +3448,7 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" t="s">
         <v>74</v>
@@ -3457,7 +3457,7 @@
         <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F18" t="s">
         <v>75</v>
@@ -3472,7 +3472,7 @@
         <v>120</v>
       </c>
       <c r="K18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L18" t="s">
         <v>76</v>
@@ -3591,7 +3591,7 @@
         <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" t="s">
         <v>74</v>
@@ -3600,7 +3600,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F19" t="s">
         <v>75</v>
@@ -3615,7 +3615,7 @@
         <v>148</v>
       </c>
       <c r="K19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L19" t="s">
         <v>149</v>
@@ -3674,7 +3674,7 @@
         <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C20" t="s">
         <v>74</v>
@@ -3683,7 +3683,7 @@
         <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F20" t="s">
         <v>75</v>
@@ -3698,7 +3698,7 @@
         <v>148</v>
       </c>
       <c r="K20" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L20" t="s">
         <v>149</v>
@@ -3757,7 +3757,7 @@
         <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C21" t="s">
         <v>74</v>
@@ -3766,7 +3766,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F21" t="s">
         <v>75</v>
@@ -3781,7 +3781,7 @@
         <v>120</v>
       </c>
       <c r="K21" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L21" t="s">
         <v>76</v>
@@ -3900,7 +3900,7 @@
         <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C22" t="s">
         <v>74</v>
@@ -3909,7 +3909,7 @@
         <v>117</v>
       </c>
       <c r="E22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F22" t="s">
         <v>75</v>
@@ -3924,7 +3924,7 @@
         <v>148</v>
       </c>
       <c r="K22" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L22" t="s">
         <v>149</v>
@@ -3983,7 +3983,7 @@
         <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C23" t="s">
         <v>74</v>
@@ -3992,7 +3992,7 @@
         <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F23" t="s">
         <v>75</v>
@@ -4007,7 +4007,7 @@
         <v>120</v>
       </c>
       <c r="K23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L23" t="s">
         <v>76</v>
@@ -4126,7 +4126,7 @@
         <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
@@ -4135,7 +4135,7 @@
         <v>117</v>
       </c>
       <c r="E24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F24" t="s">
         <v>75</v>
@@ -4150,7 +4150,7 @@
         <v>148</v>
       </c>
       <c r="K24" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L24" t="s">
         <v>149</v>
@@ -4209,7 +4209,7 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C25" t="s">
         <v>74</v>
@@ -4218,7 +4218,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F25" t="s">
         <v>75</v>
@@ -4233,7 +4233,7 @@
         <v>148</v>
       </c>
       <c r="K25" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L25" t="s">
         <v>149</v>
@@ -4292,7 +4292,7 @@
         <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C26" t="s">
         <v>74</v>
@@ -4301,7 +4301,7 @@
         <v>117</v>
       </c>
       <c r="E26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F26" t="s">
         <v>75</v>
@@ -4316,7 +4316,7 @@
         <v>120</v>
       </c>
       <c r="K26" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L26" t="s">
         <v>76</v>
@@ -4435,7 +4435,7 @@
         <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C27" t="s">
         <v>74</v>
@@ -4444,7 +4444,7 @@
         <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F27" t="s">
         <v>75</v>
@@ -4459,7 +4459,7 @@
         <v>120</v>
       </c>
       <c r="K27" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L27" t="s">
         <v>76</v>
@@ -4578,7 +4578,7 @@
         <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C28" t="s">
         <v>74</v>
@@ -4587,7 +4587,7 @@
         <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F28" t="s">
         <v>75</v>
@@ -4602,7 +4602,7 @@
         <v>148</v>
       </c>
       <c r="K28" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L28" t="s">
         <v>149</v>
@@ -4661,7 +4661,7 @@
         <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C29" t="s">
         <v>74</v>
@@ -4670,7 +4670,7 @@
         <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F29" t="s">
         <v>75</v>
@@ -4685,7 +4685,7 @@
         <v>148</v>
       </c>
       <c r="K29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L29" t="s">
         <v>149</v>
@@ -4744,7 +4744,7 @@
         <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C30" t="s">
         <v>74</v>
@@ -4753,7 +4753,7 @@
         <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F30" t="s">
         <v>75</v>
@@ -4768,7 +4768,7 @@
         <v>120</v>
       </c>
       <c r="K30" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s">
         <v>76</v>
@@ -4887,7 +4887,7 @@
         <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C31" t="s">
         <v>74</v>
@@ -4896,7 +4896,7 @@
         <v>117</v>
       </c>
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31" t="s">
         <v>75</v>
@@ -4911,7 +4911,7 @@
         <v>120</v>
       </c>
       <c r="K31" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s">
         <v>76</v>
@@ -5030,7 +5030,7 @@
         <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C32" t="s">
         <v>74</v>
@@ -5039,7 +5039,7 @@
         <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F32" t="s">
         <v>75</v>
@@ -5054,7 +5054,7 @@
         <v>148</v>
       </c>
       <c r="K32" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L32" t="s">
         <v>149</v>
@@ -5113,7 +5113,7 @@
         <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C33" t="s">
         <v>74</v>
@@ -5122,7 +5122,7 @@
         <v>117</v>
       </c>
       <c r="E33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F33" t="s">
         <v>75</v>
@@ -5137,7 +5137,7 @@
         <v>148</v>
       </c>
       <c r="K33" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s">
         <v>149</v>
@@ -5196,7 +5196,7 @@
         <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C34" t="s">
         <v>74</v>
@@ -5223,10 +5223,10 @@
         <v>98</v>
       </c>
       <c r="K34" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N34">
         <v>-9999</v>
@@ -5274,22 +5274,22 @@
         <v>110</v>
       </c>
       <c r="AK34" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL34" t="s">
         <v>202</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>203</v>
       </c>
       <c r="AM34" t="s">
         <v>111</v>
       </c>
       <c r="AP34" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ34" t="s">
         <v>204</v>
       </c>
-      <c r="AQ34" t="s">
+      <c r="AS34" t="s">
         <v>205</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>206</v>
       </c>
       <c r="AX34" t="s">
         <v>113</v>
@@ -5322,7 +5322,7 @@
         <v>87</v>
       </c>
       <c r="BN34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BO34" t="s">
         <v>88</v>
@@ -5340,7 +5340,7 @@
         <v>71</v>
       </c>
       <c r="BV34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:74" x14ac:dyDescent="0.35">
@@ -5348,49 +5348,49 @@
         <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C35" t="s">
         <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F35" t="s">
         <v>75</v>
       </c>
       <c r="G35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H35" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K35" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L35" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="N35" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="S35" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="U35" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="V35" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Z35" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AA35" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AB35" t="s">
         <v>80</v>
@@ -5399,10 +5399,10 @@
         <v>116</v>
       </c>
       <c r="AE35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AI35" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AK35" t="s">
         <v>35</v>
@@ -5414,7 +5414,7 @@
         <v>37</v>
       </c>
       <c r="AN35" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AO35" t="s">
         <v>39</v>
@@ -5423,13 +5423,13 @@
         <v>40</v>
       </c>
       <c r="AQ35" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AR35" t="s">
         <v>42</v>
       </c>
       <c r="AS35" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AT35" t="s">
         <v>44</v>
@@ -5521,49 +5521,49 @@
         <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C36" t="s">
         <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F36" t="s">
         <v>75</v>
       </c>
       <c r="G36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H36" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K36" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="N36" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="S36" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="U36" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="V36" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Z36" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AA36" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AB36" t="s">
         <v>80</v>
@@ -5572,10 +5572,10 @@
         <v>116</v>
       </c>
       <c r="AE36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AI36" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AK36" t="s">
         <v>35</v>
@@ -5587,7 +5587,7 @@
         <v>37</v>
       </c>
       <c r="AN36" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AO36" t="s">
         <v>39</v>
@@ -5596,13 +5596,13 @@
         <v>40</v>
       </c>
       <c r="AQ36" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AR36" t="s">
         <v>42</v>
       </c>
       <c r="AS36" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AT36" t="s">
         <v>44</v>
@@ -5694,52 +5694,52 @@
         <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C37" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D37" t="s">
-        <v>259</v>
-      </c>
-      <c r="E37">
-        <v>320620030220</v>
+        <v>297</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="F37" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G37" t="s">
+        <v>176</v>
+      </c>
+      <c r="H37" t="s">
+        <v>260</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="L37" t="s">
         <v>177</v>
       </c>
-      <c r="H37" t="s">
-        <v>263</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="L37" t="s">
-        <v>178</v>
-      </c>
       <c r="N37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q37" t="s">
         <v>99</v>
       </c>
       <c r="S37" t="s">
+        <v>268</v>
+      </c>
+      <c r="U37" t="s">
+        <v>269</v>
+      </c>
+      <c r="V37" t="s">
+        <v>270</v>
+      </c>
+      <c r="W37" t="s">
         <v>271</v>
       </c>
-      <c r="U37" t="s">
+      <c r="X37" t="s">
         <v>272</v>
-      </c>
-      <c r="V37" t="s">
-        <v>273</v>
-      </c>
-      <c r="W37" t="s">
-        <v>274</v>
-      </c>
-      <c r="X37" t="s">
-        <v>275</v>
       </c>
       <c r="Z37" t="s">
         <v>78</v>
@@ -5757,7 +5757,7 @@
         <v>109</v>
       </c>
       <c r="AF37" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:74" x14ac:dyDescent="0.35">
@@ -5765,52 +5765,52 @@
         <v>73</v>
       </c>
       <c r="B38" t="s">
+        <v>263</v>
+      </c>
+      <c r="C38" t="s">
         <v>266</v>
       </c>
-      <c r="C38" t="s">
-        <v>269</v>
-      </c>
       <c r="D38" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F38" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G38" t="s">
+        <v>176</v>
+      </c>
+      <c r="H38" t="s">
+        <v>260</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="L38" t="s">
         <v>177</v>
       </c>
-      <c r="H38" t="s">
-        <v>263</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="L38" t="s">
-        <v>178</v>
-      </c>
       <c r="N38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q38" t="s">
         <v>99</v>
       </c>
       <c r="S38" t="s">
+        <v>268</v>
+      </c>
+      <c r="U38" t="s">
+        <v>269</v>
+      </c>
+      <c r="V38" t="s">
+        <v>270</v>
+      </c>
+      <c r="W38" t="s">
         <v>271</v>
       </c>
-      <c r="U38" t="s">
+      <c r="X38" t="s">
         <v>272</v>
-      </c>
-      <c r="V38" t="s">
-        <v>273</v>
-      </c>
-      <c r="W38" t="s">
-        <v>274</v>
-      </c>
-      <c r="X38" t="s">
-        <v>275</v>
       </c>
       <c r="Z38" t="s">
         <v>78</v>
@@ -5828,7 +5828,7 @@
         <v>109</v>
       </c>
       <c r="AF38" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:74" x14ac:dyDescent="0.35">
@@ -5836,52 +5836,52 @@
         <v>73</v>
       </c>
       <c r="B39" t="s">
+        <v>264</v>
+      </c>
+      <c r="C39" t="s">
+        <v>266</v>
+      </c>
+      <c r="D39" t="s">
+        <v>297</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F39" t="s">
         <v>267</v>
       </c>
-      <c r="C39" t="s">
-        <v>269</v>
-      </c>
-      <c r="D39" t="s">
-        <v>259</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F39" t="s">
-        <v>270</v>
-      </c>
       <c r="G39" t="s">
+        <v>176</v>
+      </c>
+      <c r="H39" t="s">
+        <v>260</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="L39" t="s">
         <v>177</v>
       </c>
-      <c r="H39" t="s">
-        <v>263</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="L39" t="s">
-        <v>178</v>
-      </c>
       <c r="N39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q39" t="s">
         <v>99</v>
       </c>
       <c r="S39" t="s">
+        <v>268</v>
+      </c>
+      <c r="U39" t="s">
+        <v>269</v>
+      </c>
+      <c r="V39" t="s">
+        <v>270</v>
+      </c>
+      <c r="W39" t="s">
         <v>271</v>
       </c>
-      <c r="U39" t="s">
+      <c r="X39" t="s">
         <v>272</v>
-      </c>
-      <c r="V39" t="s">
-        <v>273</v>
-      </c>
-      <c r="W39" t="s">
-        <v>274</v>
-      </c>
-      <c r="X39" t="s">
-        <v>275</v>
       </c>
       <c r="Z39" t="s">
         <v>78</v>
@@ -5899,7 +5899,7 @@
         <v>109</v>
       </c>
       <c r="AF39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:74" x14ac:dyDescent="0.35">
@@ -5907,52 +5907,52 @@
         <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C40" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D40" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F40" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G40" t="s">
+        <v>176</v>
+      </c>
+      <c r="H40" t="s">
+        <v>260</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="L40" t="s">
         <v>177</v>
       </c>
-      <c r="H40" t="s">
-        <v>263</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="L40" t="s">
-        <v>178</v>
-      </c>
       <c r="N40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q40" t="s">
         <v>99</v>
       </c>
       <c r="S40" t="s">
+        <v>268</v>
+      </c>
+      <c r="U40" t="s">
+        <v>269</v>
+      </c>
+      <c r="V40" t="s">
+        <v>270</v>
+      </c>
+      <c r="W40" t="s">
         <v>271</v>
       </c>
-      <c r="U40" t="s">
+      <c r="X40" t="s">
         <v>272</v>
-      </c>
-      <c r="V40" t="s">
-        <v>273</v>
-      </c>
-      <c r="W40" t="s">
-        <v>274</v>
-      </c>
-      <c r="X40" t="s">
-        <v>275</v>
       </c>
       <c r="Z40" t="s">
         <v>78</v>
@@ -5970,7 +5970,7 @@
         <v>109</v>
       </c>
       <c r="AF40" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:74" x14ac:dyDescent="0.35">

--- a/product_data/processing_metadata/C3/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C3/PIG_meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="309" documentId="8_{E310EAF6-001C-4683-A632-3F0045222FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B50D4A01-6ABE-4EE9-A6A3-409E97E61B33}"/>
+  <xr:revisionPtr revIDLastSave="368" documentId="8_{E310EAF6-001C-4683-A632-3F0045222FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A5B832A-4693-4CC3-AF08-5A78644BB648}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DD0B7FAE-241F-4E23-A02A-6E81F5ECAC2C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD0B7FAE-241F-4E23-A02A-6E81F5ECAC2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="303">
   <si>
     <t>file_type</t>
   </si>
@@ -264,9 +264,6 @@
     <t>comma</t>
   </si>
   <si>
-    <t>Wright_etal_1991</t>
-  </si>
-  <si>
     <t>UTC</t>
   </si>
   <si>
@@ -567,9 +564,6 @@
     <t>Walker O. Smith</t>
   </si>
   <si>
-    <t>JGOFS_1994_2</t>
-  </si>
-  <si>
     <t>chl_a_fluor</t>
   </si>
   <si>
@@ -934,6 +928,21 @@
   </si>
   <si>
     <t>PANGEAE</t>
+  </si>
+  <si>
+    <t>analysis_type</t>
+  </si>
+  <si>
+    <t>Wright_1991</t>
+  </si>
+  <si>
+    <t>JGOFS</t>
+  </si>
+  <si>
+    <t>HPLC</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -1295,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50972AA6-2965-4F2B-AD21-A9711D8DE30C}">
-  <dimension ref="A1:BV41"/>
+  <dimension ref="A1:BW41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1306,7 +1315,7 @@
     <col min="5" max="5" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1338,210 +1347,213 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L1" t="s">
+        <v>298</v>
+      </c>
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E2" s="1">
         <v>320619970404</v>
@@ -1550,111 +1562,114 @@
         <v>75</v>
       </c>
       <c r="G2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I2" t="s">
         <v>153</v>
       </c>
-      <c r="H2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>291</v>
+      </c>
+      <c r="L2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M2" t="s">
+        <v>299</v>
+      </c>
+      <c r="O2" t="s">
         <v>154</v>
       </c>
-      <c r="K2" t="s">
-        <v>293</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="R2" t="s">
         <v>76</v>
       </c>
-      <c r="N2" t="s">
+      <c r="T2" t="s">
+        <v>277</v>
+      </c>
+      <c r="U2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD2" t="s">
         <v>155</v>
       </c>
-      <c r="Q2" t="s">
-        <v>77</v>
-      </c>
-      <c r="S2" t="s">
-        <v>279</v>
-      </c>
-      <c r="T2" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>156</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>157</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AJ2" t="s">
         <v>158</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AM2" t="s">
         <v>159</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>160</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AQ2" t="s">
         <v>161</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>162</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AY2" t="s">
         <v>163</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BA2" t="s">
         <v>164</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BB2" t="s">
         <v>165</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BC2" t="s">
         <v>166</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BD2" t="s">
         <v>167</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BE2" t="s">
         <v>168</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BF2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG2" t="s">
         <v>169</v>
       </c>
-      <c r="BE2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF2" t="s">
+      <c r="BH2" t="s">
         <v>170</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BJ2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK2" t="s">
         <v>171</v>
       </c>
-      <c r="BI2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BJ2" t="s">
+      <c r="BL2" t="s">
         <v>172</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BQ2" t="s">
         <v>173</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BR2" t="s">
         <v>174</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>175</v>
-      </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E3" s="1">
         <v>320619970404</v>
@@ -1663,60 +1678,63 @@
         <v>75</v>
       </c>
       <c r="G3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3" t="s">
+        <v>290</v>
+      </c>
+      <c r="L3" t="s">
+        <v>302</v>
+      </c>
+      <c r="M3" t="s">
+        <v>300</v>
+      </c>
+      <c r="O3" t="s">
+        <v>154</v>
+      </c>
+      <c r="R3" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" t="s">
+        <v>277</v>
+      </c>
+      <c r="U3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG3" t="s">
         <v>176</v>
       </c>
-      <c r="H3" t="s">
-        <v>260</v>
-      </c>
-      <c r="I3" t="s">
-        <v>154</v>
-      </c>
-      <c r="K3" t="s">
-        <v>292</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="AH3" t="s">
         <v>177</v>
       </c>
-      <c r="N3" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>77</v>
-      </c>
-      <c r="S3" t="s">
-        <v>279</v>
-      </c>
-      <c r="T3" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>179</v>
-      </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E4" s="1">
         <v>320619971105</v>
@@ -1725,114 +1743,117 @@
         <v>75</v>
       </c>
       <c r="G4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" t="s">
+        <v>258</v>
+      </c>
+      <c r="I4" t="s">
         <v>153</v>
       </c>
-      <c r="H4" t="s">
-        <v>260</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
+        <v>289</v>
+      </c>
+      <c r="L4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M4" t="s">
+        <v>299</v>
+      </c>
+      <c r="O4" t="s">
         <v>154</v>
       </c>
-      <c r="K4" t="s">
-        <v>291</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="R4" t="s">
         <v>76</v>
       </c>
-      <c r="N4" t="s">
+      <c r="T4" t="s">
+        <v>277</v>
+      </c>
+      <c r="U4" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD4" t="s">
         <v>155</v>
       </c>
-      <c r="Q4" t="s">
-        <v>77</v>
-      </c>
-      <c r="S4" t="s">
-        <v>279</v>
-      </c>
-      <c r="T4" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
         <v>156</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AF4" t="s">
         <v>157</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AJ4" t="s">
         <v>158</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AM4" t="s">
         <v>159</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AN4" t="s">
         <v>160</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AQ4" t="s">
         <v>161</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AS4" t="s">
         <v>162</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AY4" t="s">
         <v>163</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="BA4" t="s">
         <v>164</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BB4" t="s">
         <v>165</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BC4" t="s">
         <v>166</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BD4" t="s">
         <v>167</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BE4" t="s">
         <v>168</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BF4" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG4" t="s">
         <v>169</v>
       </c>
-      <c r="BE4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF4" t="s">
+      <c r="BH4" t="s">
         <v>170</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BJ4" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK4" t="s">
         <v>171</v>
       </c>
-      <c r="BI4" t="s">
-        <v>91</v>
-      </c>
-      <c r="BJ4" t="s">
+      <c r="BL4" t="s">
         <v>172</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BQ4" t="s">
         <v>173</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BR4" t="s">
         <v>174</v>
       </c>
-      <c r="BQ4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>180</v>
+      <c r="BW4" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E5" s="1">
         <v>320619971105</v>
@@ -1841,60 +1862,63 @@
         <v>75</v>
       </c>
       <c r="G5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K5" t="s">
+        <v>288</v>
+      </c>
+      <c r="L5" t="s">
+        <v>302</v>
+      </c>
+      <c r="M5" t="s">
+        <v>300</v>
+      </c>
+      <c r="O5" t="s">
+        <v>154</v>
+      </c>
+      <c r="R5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T5" t="s">
+        <v>277</v>
+      </c>
+      <c r="U5" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG5" t="s">
         <v>176</v>
       </c>
-      <c r="H5" t="s">
-        <v>260</v>
-      </c>
-      <c r="I5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K5" t="s">
-        <v>290</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="AH5" t="s">
         <v>177</v>
       </c>
-      <c r="N5" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>77</v>
-      </c>
-      <c r="S5" t="s">
-        <v>279</v>
-      </c>
-      <c r="T5" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>179</v>
-      </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="1">
         <v>320620161224</v>
@@ -1903,150 +1927,153 @@
         <v>75</v>
       </c>
       <c r="G6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" t="s">
         <v>95</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>96</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>97</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>285</v>
+      </c>
+      <c r="L6" t="s">
+        <v>301</v>
+      </c>
+      <c r="M6" t="s">
+        <v>198</v>
+      </c>
+      <c r="O6">
+        <v>-9999</v>
+      </c>
+      <c r="P6">
+        <v>-8888</v>
+      </c>
+      <c r="R6" t="s">
         <v>98</v>
       </c>
-      <c r="K6" t="s">
-        <v>287</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="T6" t="s">
+        <v>99</v>
+      </c>
+      <c r="V6" t="s">
+        <v>100</v>
+      </c>
+      <c r="X6" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM6" t="s">
         <v>200</v>
       </c>
-      <c r="N6">
-        <v>-9999</v>
-      </c>
-      <c r="O6">
-        <v>-8888</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>99</v>
-      </c>
-      <c r="S6" t="s">
-        <v>100</v>
-      </c>
-      <c r="U6" t="s">
-        <v>101</v>
-      </c>
-      <c r="W6" t="s">
-        <v>102</v>
-      </c>
-      <c r="X6" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI6" t="s">
+      <c r="AN6" t="s">
         <v>110</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AQ6" t="s">
         <v>201</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AR6" t="s">
         <v>202</v>
       </c>
-      <c r="AM6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP6" t="s">
+      <c r="AT6" t="s">
         <v>203</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AY6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BO6" t="s">
         <v>204</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="BP6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW6" t="s">
         <v>205</v>
       </c>
-      <c r="AX6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>115</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>206</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>88</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>89</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>90</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>207</v>
-      </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="1">
         <v>320620170410</v>
@@ -2055,141 +2082,144 @@
         <v>75</v>
       </c>
       <c r="G7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" t="s">
         <v>95</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>96</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>97</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L7" t="s">
+        <v>301</v>
+      </c>
+      <c r="M7" t="s">
+        <v>207</v>
+      </c>
+      <c r="O7">
+        <v>-9999</v>
+      </c>
+      <c r="P7">
+        <v>-8888</v>
+      </c>
+      <c r="R7" t="s">
         <v>98</v>
       </c>
-      <c r="K7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L7" t="s">
-        <v>209</v>
-      </c>
-      <c r="N7">
-        <v>-9999</v>
-      </c>
-      <c r="O7">
-        <v>-8888</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="T7" t="s">
         <v>99</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>100</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>101</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Y7" t="s">
         <v>102</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Z7" t="s">
         <v>103</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AA7" t="s">
         <v>104</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AB7" t="s">
         <v>105</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AC7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD7" t="s">
         <v>106</v>
       </c>
-      <c r="AB7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC7" t="s">
+      <c r="AE7" t="s">
         <v>107</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AF7" t="s">
         <v>108</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AJ7" t="s">
         <v>109</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AM7" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN7" t="s">
         <v>110</v>
       </c>
-      <c r="AL7" t="s">
-        <v>202</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP7" t="s">
+      <c r="AQ7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="s">
         <v>203</v>
       </c>
-      <c r="AS7" t="s">
-        <v>205</v>
-      </c>
-      <c r="AX7" t="s">
+      <c r="AY7" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA7" t="s">
         <v>113</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="BB7" t="s">
         <v>114</v>
       </c>
-      <c r="BA7" t="s">
-        <v>115</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>82</v>
-      </c>
       <c r="BC7" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD7" t="s">
         <v>53</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BE7" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF7" t="s">
         <v>84</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="BH7" t="s">
         <v>85</v>
       </c>
-      <c r="BG7" t="s">
+      <c r="BJ7" t="s">
         <v>86</v>
       </c>
-      <c r="BI7" t="s">
+      <c r="BO7" t="s">
+        <v>204</v>
+      </c>
+      <c r="BP7" t="s">
         <v>87</v>
       </c>
-      <c r="BN7" t="s">
-        <v>206</v>
-      </c>
-      <c r="BO7" t="s">
+      <c r="BQ7" t="s">
         <v>88</v>
       </c>
-      <c r="BP7" t="s">
+      <c r="BR7" t="s">
         <v>89</v>
       </c>
-      <c r="BQ7" t="s">
-        <v>90</v>
-      </c>
-      <c r="BT7" t="s">
+      <c r="BU7" t="s">
         <v>70</v>
       </c>
-      <c r="BU7" t="s">
+      <c r="BV7" t="s">
         <v>71</v>
       </c>
-      <c r="BV7" t="s">
-        <v>210</v>
+      <c r="BW7" t="s">
+        <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C8" t="s">
         <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="1">
         <v>320620170703</v>
@@ -2198,150 +2228,153 @@
         <v>75</v>
       </c>
       <c r="G8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" t="s">
         <v>95</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>96</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>97</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>285</v>
+      </c>
+      <c r="L8" t="s">
+        <v>301</v>
+      </c>
+      <c r="M8" t="s">
+        <v>198</v>
+      </c>
+      <c r="O8">
+        <v>-9999</v>
+      </c>
+      <c r="P8">
+        <v>-8888</v>
+      </c>
+      <c r="R8" t="s">
         <v>98</v>
       </c>
-      <c r="K8" t="s">
-        <v>287</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="T8" t="s">
+        <v>99</v>
+      </c>
+      <c r="V8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM8" t="s">
         <v>200</v>
       </c>
-      <c r="N8">
-        <v>-9999</v>
-      </c>
-      <c r="O8">
-        <v>-8888</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S8" t="s">
-        <v>100</v>
-      </c>
-      <c r="U8" t="s">
-        <v>101</v>
-      </c>
-      <c r="W8" t="s">
-        <v>102</v>
-      </c>
-      <c r="X8" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI8" t="s">
+      <c r="AN8" t="s">
         <v>110</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AQ8" t="s">
         <v>201</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AR8" t="s">
         <v>202</v>
       </c>
-      <c r="AM8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP8" t="s">
+      <c r="AT8" t="s">
         <v>203</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AY8" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BO8" t="s">
         <v>204</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="BP8" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW8" t="s">
         <v>205</v>
       </c>
-      <c r="AX8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>115</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>85</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>206</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>88</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>89</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>90</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU8" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>207</v>
-      </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C9" t="s">
         <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="1">
         <v>320620180309</v>
@@ -2350,132 +2383,135 @@
         <v>75</v>
       </c>
       <c r="G9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" t="s">
         <v>95</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>96</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>97</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
+        <v>285</v>
+      </c>
+      <c r="L9" t="s">
+        <v>301</v>
+      </c>
+      <c r="M9" t="s">
+        <v>198</v>
+      </c>
+      <c r="O9">
+        <v>-9999</v>
+      </c>
+      <c r="P9">
+        <v>-8888</v>
+      </c>
+      <c r="R9" t="s">
         <v>98</v>
       </c>
-      <c r="K9" t="s">
-        <v>287</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="T9" t="s">
+        <v>99</v>
+      </c>
+      <c r="V9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM9" t="s">
         <v>200</v>
       </c>
-      <c r="N9">
-        <v>-9999</v>
-      </c>
-      <c r="O9">
-        <v>-8888</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>99</v>
-      </c>
-      <c r="S9" t="s">
-        <v>100</v>
-      </c>
-      <c r="U9" t="s">
-        <v>101</v>
-      </c>
-      <c r="W9" t="s">
-        <v>102</v>
-      </c>
-      <c r="X9" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI9" t="s">
+      <c r="AN9" t="s">
         <v>110</v>
       </c>
-      <c r="AL9" t="s">
-        <v>202</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP9" t="s">
+      <c r="AQ9" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT9" t="s">
         <v>203</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AY9" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>204</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW9" t="s">
         <v>205</v>
       </c>
-      <c r="AX9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>115</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>86</v>
-      </c>
-      <c r="BN9" t="s">
-        <v>206</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>89</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>90</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>207</v>
-      </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C10" t="s">
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="1">
         <v>320620140320</v>
@@ -2484,153 +2520,156 @@
         <v>75</v>
       </c>
       <c r="G10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H10" t="s">
+        <v>213</v>
+      </c>
+      <c r="I10" t="s">
         <v>214</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
+        <v>221</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M10" t="s">
+        <v>198</v>
+      </c>
+      <c r="O10">
+        <v>-999</v>
+      </c>
+      <c r="P10">
+        <v>-111</v>
+      </c>
+      <c r="Q10" t="s">
         <v>215</v>
       </c>
-      <c r="I10" t="s">
+      <c r="R10" t="s">
+        <v>98</v>
+      </c>
+      <c r="T10" t="s">
+        <v>99</v>
+      </c>
+      <c r="V10" t="s">
         <v>216</v>
       </c>
-      <c r="J10" t="s">
-        <v>223</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="W10" t="s">
+        <v>193</v>
+      </c>
+      <c r="X10" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM10" t="s">
         <v>200</v>
       </c>
-      <c r="N10">
-        <v>-999</v>
-      </c>
-      <c r="O10">
-        <v>-111</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="AN10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>203</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>86</v>
+      </c>
+      <c r="BO10" t="s">
         <v>217</v>
       </c>
-      <c r="Q10" t="s">
-        <v>99</v>
-      </c>
-      <c r="S10" t="s">
-        <v>100</v>
-      </c>
-      <c r="U10" t="s">
-        <v>218</v>
-      </c>
-      <c r="V10" t="s">
-        <v>195</v>
-      </c>
-      <c r="W10" t="s">
-        <v>102</v>
-      </c>
-      <c r="X10" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>202</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>204</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>205</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>115</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>85</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG10" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI10" t="s">
+      <c r="BP10" t="s">
         <v>87</v>
       </c>
-      <c r="BN10" t="s">
-        <v>219</v>
-      </c>
-      <c r="BO10" t="s">
+      <c r="BQ10" t="s">
         <v>88</v>
       </c>
-      <c r="BP10" t="s">
+      <c r="BR10" t="s">
         <v>89</v>
       </c>
-      <c r="BQ10" t="s">
-        <v>90</v>
-      </c>
-      <c r="BT10" t="s">
+      <c r="BU10" t="s">
         <v>70</v>
       </c>
-      <c r="BU10" t="s">
+      <c r="BV10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="1">
         <v>320620110219</v>
@@ -2639,2570 +2678,2639 @@
         <v>75</v>
       </c>
       <c r="G11" t="s">
+        <v>219</v>
+      </c>
+      <c r="H11" t="s">
+        <v>213</v>
+      </c>
+      <c r="I11" t="s">
+        <v>220</v>
+      </c>
+      <c r="J11" t="s">
         <v>221</v>
       </c>
-      <c r="H11" t="s">
-        <v>215</v>
-      </c>
-      <c r="I11" t="s">
-        <v>222</v>
-      </c>
-      <c r="J11" t="s">
-        <v>223</v>
-      </c>
       <c r="K11" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="L11" t="s">
+        <v>292</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M11" t="s">
+        <v>198</v>
+      </c>
+      <c r="O11">
+        <v>-999</v>
+      </c>
+      <c r="P11">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="R11" t="s">
+        <v>98</v>
+      </c>
+      <c r="T11" t="s">
+        <v>99</v>
+      </c>
+      <c r="V11" t="s">
+        <v>216</v>
+      </c>
+      <c r="W11" t="s">
+        <v>193</v>
+      </c>
+      <c r="X11" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM11" t="s">
         <v>200</v>
       </c>
-      <c r="N11">
-        <v>-999</v>
-      </c>
-      <c r="O11">
-        <v>9.990000000000001E-4</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>99</v>
-      </c>
-      <c r="S11" t="s">
-        <v>100</v>
-      </c>
-      <c r="U11" t="s">
-        <v>218</v>
-      </c>
-      <c r="V11" t="s">
-        <v>195</v>
-      </c>
-      <c r="W11" t="s">
-        <v>102</v>
-      </c>
-      <c r="X11" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI11" t="s">
+      <c r="AN11" t="s">
         <v>110</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AQ11" t="s">
         <v>201</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AR11" t="s">
         <v>202</v>
       </c>
-      <c r="AM11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP11" t="s">
+      <c r="AT11" t="s">
         <v>203</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AY11" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>86</v>
+      </c>
+      <c r="BO11" t="s">
         <v>204</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="BP11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW11" t="s">
         <v>205</v>
       </c>
-      <c r="AX11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>115</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>85</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG11" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI11" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN11" t="s">
-        <v>206</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>88</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>89</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>90</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>207</v>
-      </c>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="1">
         <v>320619971220</v>
       </c>
       <c r="F12" t="s">
+        <v>224</v>
+      </c>
+      <c r="G12" t="s">
+        <v>225</v>
+      </c>
+      <c r="H12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I12" t="s">
         <v>226</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
         <v>227</v>
       </c>
-      <c r="H12" t="s">
-        <v>215</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="K12" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="M12" t="s">
         <v>228</v>
       </c>
-      <c r="J12" t="s">
+      <c r="O12">
+        <v>-999</v>
+      </c>
+      <c r="R12" t="s">
+        <v>98</v>
+      </c>
+      <c r="T12" t="s">
+        <v>99</v>
+      </c>
+      <c r="V12" t="s">
+        <v>100</v>
+      </c>
+      <c r="X12" t="s">
         <v>229</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="Y12" t="s">
         <v>230</v>
       </c>
-      <c r="N12">
-        <v>-999</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>99</v>
-      </c>
-      <c r="S12" t="s">
-        <v>100</v>
-      </c>
-      <c r="U12" t="s">
-        <v>101</v>
-      </c>
-      <c r="W12" t="s">
+      <c r="AA12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG12" t="s">
         <v>231</v>
       </c>
-      <c r="X12" t="s">
+      <c r="AH12" t="s">
         <v>232</v>
       </c>
-      <c r="Z12" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>233</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>234</v>
-      </c>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C13" t="s">
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>
       </c>
       <c r="G13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" t="s">
         <v>118</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>119</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>284</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M13" t="s">
+        <v>299</v>
+      </c>
+      <c r="O13">
+        <v>-999</v>
+      </c>
+      <c r="Q13" t="s">
         <v>120</v>
       </c>
-      <c r="K13" t="s">
-        <v>286</v>
-      </c>
-      <c r="L13" t="s">
-        <v>76</v>
-      </c>
-      <c r="N13">
-        <v>-999</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
+        <v>98</v>
+      </c>
+      <c r="T13" t="s">
         <v>121</v>
       </c>
-      <c r="Q13" t="s">
-        <v>99</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
         <v>122</v>
-      </c>
-      <c r="U13" t="s">
-        <v>123</v>
-      </c>
-      <c r="V13" t="s">
-        <v>124</v>
       </c>
       <c r="W13" t="s">
         <v>123</v>
       </c>
       <c r="X13" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD13" t="s">
         <v>124</v>
       </c>
-      <c r="Z13" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB13" t="s">
+      <c r="AE13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF13" t="s">
         <v>80</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AL13" t="s">
         <v>125</v>
       </c>
-      <c r="AD13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK13" t="s">
+      <c r="AM13" t="s">
         <v>126</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AN13" t="s">
         <v>127</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AQ13" t="s">
         <v>128</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="AW13" t="s">
         <v>129</v>
       </c>
-      <c r="AV13" t="s">
+      <c r="AY13" t="s">
         <v>130</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="BA13" t="s">
         <v>131</v>
       </c>
-      <c r="AZ13" t="s">
+      <c r="BB13" t="s">
         <v>132</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BC13" t="s">
         <v>133</v>
       </c>
-      <c r="BB13" t="s">
+      <c r="BD13" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE13" t="s">
         <v>134</v>
       </c>
-      <c r="BC13" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD13" t="s">
+      <c r="BF13" t="s">
         <v>135</v>
       </c>
-      <c r="BE13" t="s">
+      <c r="BG13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH13" t="s">
         <v>136</v>
       </c>
-      <c r="BF13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG13" t="s">
+      <c r="BJ13" t="s">
         <v>137</v>
       </c>
-      <c r="BI13" t="s">
+      <c r="BK13" t="s">
         <v>138</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="BL13" t="s">
         <v>139</v>
       </c>
-      <c r="BK13" t="s">
+      <c r="BP13" t="s">
         <v>140</v>
       </c>
-      <c r="BO13" t="s">
+      <c r="BQ13" t="s">
         <v>141</v>
       </c>
-      <c r="BP13" t="s">
+      <c r="BR13" t="s">
         <v>142</v>
       </c>
-      <c r="BQ13" t="s">
+      <c r="BU13" t="s">
         <v>143</v>
       </c>
-      <c r="BT13" t="s">
+      <c r="BV13" t="s">
         <v>144</v>
       </c>
-      <c r="BU13" t="s">
-        <v>145</v>
-      </c>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C14" t="s">
         <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>
       </c>
       <c r="G14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" t="s">
         <v>118</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>119</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
+        <v>284</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M14" t="s">
+        <v>299</v>
+      </c>
+      <c r="O14">
+        <v>-999</v>
+      </c>
+      <c r="Q14" t="s">
         <v>120</v>
       </c>
-      <c r="K14" t="s">
-        <v>286</v>
-      </c>
-      <c r="L14" t="s">
-        <v>76</v>
-      </c>
-      <c r="N14">
-        <v>-999</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
+        <v>98</v>
+      </c>
+      <c r="T14" t="s">
         <v>121</v>
       </c>
-      <c r="Q14" t="s">
-        <v>99</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="V14" t="s">
         <v>122</v>
-      </c>
-      <c r="U14" t="s">
-        <v>123</v>
-      </c>
-      <c r="V14" t="s">
-        <v>124</v>
       </c>
       <c r="W14" t="s">
         <v>123</v>
       </c>
       <c r="X14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD14" t="s">
         <v>124</v>
       </c>
-      <c r="Z14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s">
+      <c r="AE14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF14" t="s">
         <v>80</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AL14" t="s">
         <v>125</v>
       </c>
-      <c r="AD14" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK14" t="s">
+      <c r="AM14" t="s">
         <v>126</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AN14" t="s">
         <v>127</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AQ14" t="s">
         <v>128</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="AW14" t="s">
         <v>129</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AY14" t="s">
         <v>130</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="BA14" t="s">
         <v>131</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="BB14" t="s">
         <v>132</v>
       </c>
-      <c r="BA14" t="s">
+      <c r="BC14" t="s">
         <v>133</v>
       </c>
-      <c r="BB14" t="s">
+      <c r="BD14" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE14" t="s">
         <v>134</v>
       </c>
-      <c r="BC14" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD14" t="s">
+      <c r="BF14" t="s">
         <v>135</v>
       </c>
-      <c r="BE14" t="s">
+      <c r="BG14" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH14" t="s">
         <v>136</v>
       </c>
-      <c r="BF14" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG14" t="s">
+      <c r="BJ14" t="s">
         <v>137</v>
       </c>
-      <c r="BI14" t="s">
+      <c r="BK14" t="s">
         <v>138</v>
       </c>
-      <c r="BJ14" t="s">
+      <c r="BL14" t="s">
         <v>139</v>
       </c>
-      <c r="BK14" t="s">
+      <c r="BP14" t="s">
         <v>140</v>
       </c>
-      <c r="BO14" t="s">
+      <c r="BQ14" t="s">
         <v>141</v>
       </c>
-      <c r="BP14" t="s">
+      <c r="BR14" t="s">
         <v>142</v>
       </c>
-      <c r="BQ14" t="s">
+      <c r="BU14" t="s">
         <v>143</v>
       </c>
-      <c r="BT14" t="s">
+      <c r="BV14" t="s">
         <v>144</v>
       </c>
-      <c r="BU14" t="s">
-        <v>145</v>
-      </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C15" t="s">
         <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
       </c>
       <c r="G15" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" t="s">
         <v>146</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>147</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
+        <v>286</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="M15" t="s">
         <v>148</v>
       </c>
-      <c r="K15" t="s">
-        <v>288</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="O15">
+        <v>-999</v>
+      </c>
+      <c r="Q15" t="s">
         <v>149</v>
       </c>
-      <c r="N15">
-        <v>-999</v>
-      </c>
-      <c r="P15" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>99</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="R15" t="s">
+        <v>98</v>
+      </c>
+      <c r="T15" t="s">
+        <v>121</v>
+      </c>
+      <c r="V15" t="s">
         <v>122</v>
-      </c>
-      <c r="U15" t="s">
-        <v>123</v>
-      </c>
-      <c r="V15" t="s">
-        <v>124</v>
       </c>
       <c r="W15" t="s">
         <v>123</v>
       </c>
       <c r="X15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD15" t="s">
         <v>124</v>
       </c>
-      <c r="Z15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>116</v>
-      </c>
       <c r="AE15" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AF15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH15" t="s">
         <v>151</v>
       </c>
-      <c r="AG15" t="s">
-        <v>152</v>
-      </c>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C16" t="s">
         <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
       </c>
       <c r="G16" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16" t="s">
         <v>146</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>147</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
+        <v>286</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="M16" t="s">
         <v>148</v>
       </c>
-      <c r="K16" t="s">
-        <v>288</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="O16">
+        <v>-999</v>
+      </c>
+      <c r="Q16" t="s">
         <v>149</v>
       </c>
-      <c r="N16">
-        <v>-999</v>
-      </c>
-      <c r="P16" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>99</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="R16" t="s">
+        <v>98</v>
+      </c>
+      <c r="T16" t="s">
+        <v>121</v>
+      </c>
+      <c r="V16" t="s">
         <v>122</v>
-      </c>
-      <c r="U16" t="s">
-        <v>123</v>
-      </c>
-      <c r="V16" t="s">
-        <v>124</v>
       </c>
       <c r="W16" t="s">
         <v>123</v>
       </c>
       <c r="X16" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD16" t="s">
         <v>124</v>
       </c>
-      <c r="Z16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>116</v>
-      </c>
       <c r="AE16" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AF16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH16" t="s">
         <v>151</v>
       </c>
-      <c r="AG16" t="s">
-        <v>152</v>
-      </c>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C17" t="s">
         <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F17" t="s">
         <v>75</v>
       </c>
       <c r="G17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" t="s">
         <v>118</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>119</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
+        <v>284</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M17" t="s">
+        <v>299</v>
+      </c>
+      <c r="O17">
+        <v>-999</v>
+      </c>
+      <c r="Q17" t="s">
         <v>120</v>
       </c>
-      <c r="K17" t="s">
-        <v>286</v>
-      </c>
-      <c r="L17" t="s">
-        <v>76</v>
-      </c>
-      <c r="N17">
-        <v>-999</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
+        <v>98</v>
+      </c>
+      <c r="T17" t="s">
         <v>121</v>
       </c>
-      <c r="Q17" t="s">
-        <v>99</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="V17" t="s">
         <v>122</v>
-      </c>
-      <c r="U17" t="s">
-        <v>123</v>
-      </c>
-      <c r="V17" t="s">
-        <v>124</v>
       </c>
       <c r="W17" t="s">
         <v>123</v>
       </c>
       <c r="X17" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD17" t="s">
         <v>124</v>
       </c>
-      <c r="Z17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB17" t="s">
+      <c r="AE17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF17" t="s">
         <v>80</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AL17" t="s">
         <v>125</v>
       </c>
-      <c r="AD17" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK17" t="s">
+      <c r="AM17" t="s">
         <v>126</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AN17" t="s">
         <v>127</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AQ17" t="s">
         <v>128</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AW17" t="s">
         <v>129</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="AY17" t="s">
         <v>130</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="BA17" t="s">
         <v>131</v>
       </c>
-      <c r="AZ17" t="s">
+      <c r="BB17" t="s">
         <v>132</v>
       </c>
-      <c r="BA17" t="s">
+      <c r="BC17" t="s">
         <v>133</v>
       </c>
-      <c r="BB17" t="s">
+      <c r="BD17" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE17" t="s">
         <v>134</v>
       </c>
-      <c r="BC17" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD17" t="s">
+      <c r="BF17" t="s">
         <v>135</v>
       </c>
-      <c r="BE17" t="s">
+      <c r="BG17" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH17" t="s">
         <v>136</v>
       </c>
-      <c r="BF17" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG17" t="s">
+      <c r="BJ17" t="s">
         <v>137</v>
       </c>
-      <c r="BI17" t="s">
+      <c r="BK17" t="s">
         <v>138</v>
       </c>
-      <c r="BJ17" t="s">
+      <c r="BL17" t="s">
         <v>139</v>
       </c>
-      <c r="BK17" t="s">
+      <c r="BP17" t="s">
         <v>140</v>
       </c>
-      <c r="BO17" t="s">
+      <c r="BQ17" t="s">
         <v>141</v>
       </c>
-      <c r="BP17" t="s">
+      <c r="BR17" t="s">
         <v>142</v>
       </c>
-      <c r="BQ17" t="s">
+      <c r="BU17" t="s">
         <v>143</v>
       </c>
-      <c r="BT17" t="s">
+      <c r="BV17" t="s">
         <v>144</v>
       </c>
-      <c r="BU17" t="s">
-        <v>145</v>
-      </c>
     </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C18" t="s">
         <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F18" t="s">
         <v>75</v>
       </c>
       <c r="G18" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" t="s">
         <v>118</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>119</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
+        <v>284</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M18" t="s">
+        <v>299</v>
+      </c>
+      <c r="O18">
+        <v>-999</v>
+      </c>
+      <c r="Q18" t="s">
         <v>120</v>
       </c>
-      <c r="K18" t="s">
-        <v>286</v>
-      </c>
-      <c r="L18" t="s">
-        <v>76</v>
-      </c>
-      <c r="N18">
-        <v>-999</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
+        <v>98</v>
+      </c>
+      <c r="T18" t="s">
         <v>121</v>
       </c>
-      <c r="Q18" t="s">
-        <v>99</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="V18" t="s">
         <v>122</v>
-      </c>
-      <c r="U18" t="s">
-        <v>123</v>
-      </c>
-      <c r="V18" t="s">
-        <v>124</v>
       </c>
       <c r="W18" t="s">
         <v>123</v>
       </c>
       <c r="X18" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD18" t="s">
         <v>124</v>
       </c>
-      <c r="Z18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB18" t="s">
+      <c r="AE18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF18" t="s">
         <v>80</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AL18" t="s">
         <v>125</v>
       </c>
-      <c r="AD18" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK18" t="s">
+      <c r="AM18" t="s">
         <v>126</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AN18" t="s">
         <v>127</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AQ18" t="s">
         <v>128</v>
       </c>
-      <c r="AP18" t="s">
+      <c r="AW18" t="s">
         <v>129</v>
       </c>
-      <c r="AV18" t="s">
+      <c r="AY18" t="s">
         <v>130</v>
       </c>
-      <c r="AX18" t="s">
+      <c r="BA18" t="s">
         <v>131</v>
       </c>
-      <c r="AZ18" t="s">
+      <c r="BB18" t="s">
         <v>132</v>
       </c>
-      <c r="BA18" t="s">
+      <c r="BC18" t="s">
         <v>133</v>
       </c>
-      <c r="BB18" t="s">
+      <c r="BD18" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE18" t="s">
         <v>134</v>
       </c>
-      <c r="BC18" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD18" t="s">
+      <c r="BF18" t="s">
         <v>135</v>
       </c>
-      <c r="BE18" t="s">
+      <c r="BG18" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH18" t="s">
         <v>136</v>
       </c>
-      <c r="BF18" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG18" t="s">
+      <c r="BJ18" t="s">
         <v>137</v>
       </c>
-      <c r="BI18" t="s">
+      <c r="BK18" t="s">
         <v>138</v>
       </c>
-      <c r="BJ18" t="s">
+      <c r="BL18" t="s">
         <v>139</v>
       </c>
-      <c r="BK18" t="s">
+      <c r="BP18" t="s">
         <v>140</v>
       </c>
-      <c r="BO18" t="s">
+      <c r="BQ18" t="s">
         <v>141</v>
       </c>
-      <c r="BP18" t="s">
+      <c r="BR18" t="s">
         <v>142</v>
       </c>
-      <c r="BQ18" t="s">
+      <c r="BU18" t="s">
         <v>143</v>
       </c>
-      <c r="BT18" t="s">
+      <c r="BV18" t="s">
         <v>144</v>
       </c>
-      <c r="BU18" t="s">
-        <v>145</v>
-      </c>
     </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C19" t="s">
         <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F19" t="s">
         <v>75</v>
       </c>
       <c r="G19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" t="s">
         <v>146</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>147</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
+        <v>286</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="M19" t="s">
         <v>148</v>
       </c>
-      <c r="K19" t="s">
-        <v>288</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="O19">
+        <v>-999</v>
+      </c>
+      <c r="Q19" t="s">
         <v>149</v>
       </c>
-      <c r="N19">
-        <v>-999</v>
-      </c>
-      <c r="P19" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>99</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="R19" t="s">
+        <v>98</v>
+      </c>
+      <c r="T19" t="s">
+        <v>121</v>
+      </c>
+      <c r="V19" t="s">
         <v>122</v>
-      </c>
-      <c r="U19" t="s">
-        <v>123</v>
-      </c>
-      <c r="V19" t="s">
-        <v>124</v>
       </c>
       <c r="W19" t="s">
         <v>123</v>
       </c>
       <c r="X19" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD19" t="s">
         <v>124</v>
       </c>
-      <c r="Z19" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>116</v>
-      </c>
       <c r="AE19" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AF19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="s">
         <v>151</v>
       </c>
-      <c r="AG19" t="s">
-        <v>152</v>
-      </c>
     </row>
-    <row r="20" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C20" t="s">
         <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F20" t="s">
         <v>75</v>
       </c>
       <c r="G20" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" t="s">
         <v>146</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>147</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
+        <v>286</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="M20" t="s">
         <v>148</v>
       </c>
-      <c r="K20" t="s">
-        <v>288</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="O20">
+        <v>-999</v>
+      </c>
+      <c r="Q20" t="s">
         <v>149</v>
       </c>
-      <c r="N20">
-        <v>-999</v>
-      </c>
-      <c r="P20" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>99</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="R20" t="s">
+        <v>98</v>
+      </c>
+      <c r="T20" t="s">
+        <v>121</v>
+      </c>
+      <c r="V20" t="s">
         <v>122</v>
-      </c>
-      <c r="U20" t="s">
-        <v>123</v>
-      </c>
-      <c r="V20" t="s">
-        <v>124</v>
       </c>
       <c r="W20" t="s">
         <v>123</v>
       </c>
       <c r="X20" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD20" t="s">
         <v>124</v>
       </c>
-      <c r="Z20" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>116</v>
-      </c>
       <c r="AE20" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AF20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH20" t="s">
         <v>151</v>
       </c>
-      <c r="AG20" t="s">
-        <v>152</v>
-      </c>
     </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C21" t="s">
         <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F21" t="s">
         <v>75</v>
       </c>
       <c r="G21" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" t="s">
         <v>118</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>119</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
+        <v>284</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M21" t="s">
+        <v>299</v>
+      </c>
+      <c r="O21">
+        <v>-999</v>
+      </c>
+      <c r="Q21" t="s">
         <v>120</v>
       </c>
-      <c r="K21" t="s">
-        <v>286</v>
-      </c>
-      <c r="L21" t="s">
-        <v>76</v>
-      </c>
-      <c r="N21">
-        <v>-999</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="R21" t="s">
+        <v>98</v>
+      </c>
+      <c r="T21" t="s">
         <v>121</v>
       </c>
-      <c r="Q21" t="s">
-        <v>99</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="V21" t="s">
         <v>122</v>
-      </c>
-      <c r="U21" t="s">
-        <v>123</v>
-      </c>
-      <c r="V21" t="s">
-        <v>124</v>
       </c>
       <c r="W21" t="s">
         <v>123</v>
       </c>
       <c r="X21" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD21" t="s">
         <v>124</v>
       </c>
-      <c r="Z21" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB21" t="s">
+      <c r="AE21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF21" t="s">
         <v>80</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AL21" t="s">
         <v>125</v>
       </c>
-      <c r="AD21" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK21" t="s">
+      <c r="AM21" t="s">
         <v>126</v>
       </c>
-      <c r="AL21" t="s">
+      <c r="AN21" t="s">
         <v>127</v>
       </c>
-      <c r="AM21" t="s">
+      <c r="AQ21" t="s">
         <v>128</v>
       </c>
-      <c r="AP21" t="s">
+      <c r="AW21" t="s">
         <v>129</v>
       </c>
-      <c r="AV21" t="s">
+      <c r="AY21" t="s">
         <v>130</v>
       </c>
-      <c r="AX21" t="s">
+      <c r="BA21" t="s">
         <v>131</v>
       </c>
-      <c r="AZ21" t="s">
+      <c r="BB21" t="s">
         <v>132</v>
       </c>
-      <c r="BA21" t="s">
+      <c r="BC21" t="s">
         <v>133</v>
       </c>
-      <c r="BB21" t="s">
+      <c r="BD21" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE21" t="s">
         <v>134</v>
       </c>
-      <c r="BC21" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD21" t="s">
+      <c r="BF21" t="s">
         <v>135</v>
       </c>
-      <c r="BE21" t="s">
+      <c r="BG21" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH21" t="s">
         <v>136</v>
       </c>
-      <c r="BF21" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG21" t="s">
+      <c r="BJ21" t="s">
         <v>137</v>
       </c>
-      <c r="BI21" t="s">
+      <c r="BK21" t="s">
         <v>138</v>
       </c>
-      <c r="BJ21" t="s">
+      <c r="BL21" t="s">
         <v>139</v>
       </c>
-      <c r="BK21" t="s">
+      <c r="BP21" t="s">
         <v>140</v>
       </c>
-      <c r="BO21" t="s">
+      <c r="BQ21" t="s">
         <v>141</v>
       </c>
-      <c r="BP21" t="s">
+      <c r="BR21" t="s">
         <v>142</v>
       </c>
-      <c r="BQ21" t="s">
+      <c r="BU21" t="s">
         <v>143</v>
       </c>
-      <c r="BT21" t="s">
+      <c r="BV21" t="s">
         <v>144</v>
       </c>
-      <c r="BU21" t="s">
-        <v>145</v>
-      </c>
     </row>
-    <row r="22" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C22" t="s">
         <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F22" t="s">
         <v>75</v>
       </c>
       <c r="G22" t="s">
+        <v>145</v>
+      </c>
+      <c r="I22" t="s">
         <v>146</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>147</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
+        <v>286</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="M22" t="s">
         <v>148</v>
       </c>
-      <c r="K22" t="s">
-        <v>288</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="O22">
+        <v>-999</v>
+      </c>
+      <c r="Q22" t="s">
         <v>149</v>
       </c>
-      <c r="N22">
-        <v>-999</v>
-      </c>
-      <c r="P22" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>99</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="R22" t="s">
+        <v>98</v>
+      </c>
+      <c r="T22" t="s">
+        <v>121</v>
+      </c>
+      <c r="V22" t="s">
         <v>122</v>
-      </c>
-      <c r="U22" t="s">
-        <v>123</v>
-      </c>
-      <c r="V22" t="s">
-        <v>124</v>
       </c>
       <c r="W22" t="s">
         <v>123</v>
       </c>
       <c r="X22" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD22" t="s">
         <v>124</v>
       </c>
-      <c r="Z22" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>116</v>
-      </c>
       <c r="AE22" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AF22" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH22" t="s">
         <v>151</v>
       </c>
-      <c r="AG22" t="s">
-        <v>152</v>
-      </c>
     </row>
-    <row r="23" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C23" t="s">
         <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F23" t="s">
         <v>75</v>
       </c>
       <c r="G23" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" t="s">
         <v>118</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>119</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
+        <v>284</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M23" t="s">
+        <v>299</v>
+      </c>
+      <c r="O23">
+        <v>-999</v>
+      </c>
+      <c r="Q23" t="s">
         <v>120</v>
       </c>
-      <c r="K23" t="s">
-        <v>286</v>
-      </c>
-      <c r="L23" t="s">
-        <v>76</v>
-      </c>
-      <c r="N23">
-        <v>-999</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="R23" t="s">
+        <v>98</v>
+      </c>
+      <c r="T23" t="s">
         <v>121</v>
       </c>
-      <c r="Q23" t="s">
-        <v>99</v>
-      </c>
-      <c r="S23" t="s">
+      <c r="V23" t="s">
         <v>122</v>
-      </c>
-      <c r="U23" t="s">
-        <v>123</v>
-      </c>
-      <c r="V23" t="s">
-        <v>124</v>
       </c>
       <c r="W23" t="s">
         <v>123</v>
       </c>
       <c r="X23" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD23" t="s">
         <v>124</v>
       </c>
-      <c r="Z23" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB23" t="s">
+      <c r="AE23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF23" t="s">
         <v>80</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AL23" t="s">
         <v>125</v>
       </c>
-      <c r="AD23" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK23" t="s">
+      <c r="AM23" t="s">
         <v>126</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AN23" t="s">
         <v>127</v>
       </c>
-      <c r="AM23" t="s">
+      <c r="AQ23" t="s">
         <v>128</v>
       </c>
-      <c r="AP23" t="s">
+      <c r="AW23" t="s">
         <v>129</v>
       </c>
-      <c r="AV23" t="s">
+      <c r="AY23" t="s">
         <v>130</v>
       </c>
-      <c r="AX23" t="s">
+      <c r="BA23" t="s">
         <v>131</v>
       </c>
-      <c r="AZ23" t="s">
+      <c r="BB23" t="s">
         <v>132</v>
       </c>
-      <c r="BA23" t="s">
+      <c r="BC23" t="s">
         <v>133</v>
       </c>
-      <c r="BB23" t="s">
+      <c r="BD23" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE23" t="s">
         <v>134</v>
       </c>
-      <c r="BC23" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD23" t="s">
+      <c r="BF23" t="s">
         <v>135</v>
       </c>
-      <c r="BE23" t="s">
+      <c r="BG23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH23" t="s">
         <v>136</v>
       </c>
-      <c r="BF23" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG23" t="s">
+      <c r="BJ23" t="s">
         <v>137</v>
       </c>
-      <c r="BI23" t="s">
+      <c r="BK23" t="s">
         <v>138</v>
       </c>
-      <c r="BJ23" t="s">
+      <c r="BL23" t="s">
         <v>139</v>
       </c>
-      <c r="BK23" t="s">
+      <c r="BP23" t="s">
         <v>140</v>
       </c>
-      <c r="BO23" t="s">
+      <c r="BQ23" t="s">
         <v>141</v>
       </c>
-      <c r="BP23" t="s">
+      <c r="BR23" t="s">
         <v>142</v>
       </c>
-      <c r="BQ23" t="s">
+      <c r="BU23" t="s">
         <v>143</v>
       </c>
-      <c r="BT23" t="s">
+      <c r="BV23" t="s">
         <v>144</v>
       </c>
-      <c r="BU23" t="s">
-        <v>145</v>
-      </c>
     </row>
-    <row r="24" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F24" t="s">
         <v>75</v>
       </c>
       <c r="G24" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" t="s">
         <v>146</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>147</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
+        <v>286</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="M24" t="s">
         <v>148</v>
       </c>
-      <c r="K24" t="s">
-        <v>288</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="O24">
+        <v>-999</v>
+      </c>
+      <c r="Q24" t="s">
         <v>149</v>
       </c>
-      <c r="N24">
-        <v>-999</v>
-      </c>
-      <c r="P24" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>99</v>
-      </c>
-      <c r="S24" t="s">
+      <c r="R24" t="s">
+        <v>98</v>
+      </c>
+      <c r="T24" t="s">
+        <v>121</v>
+      </c>
+      <c r="V24" t="s">
         <v>122</v>
-      </c>
-      <c r="U24" t="s">
-        <v>123</v>
-      </c>
-      <c r="V24" t="s">
-        <v>124</v>
       </c>
       <c r="W24" t="s">
         <v>123</v>
       </c>
       <c r="X24" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD24" t="s">
         <v>124</v>
       </c>
-      <c r="Z24" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>116</v>
-      </c>
       <c r="AE24" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AF24" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH24" t="s">
         <v>151</v>
       </c>
-      <c r="AG24" t="s">
-        <v>152</v>
-      </c>
     </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C25" t="s">
         <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F25" t="s">
         <v>75</v>
       </c>
       <c r="G25" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" t="s">
         <v>146</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>147</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
+        <v>286</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="M25" t="s">
         <v>148</v>
       </c>
-      <c r="K25" t="s">
-        <v>288</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="O25">
+        <v>-999</v>
+      </c>
+      <c r="Q25" t="s">
         <v>149</v>
       </c>
-      <c r="N25">
-        <v>-999</v>
-      </c>
-      <c r="P25" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>99</v>
-      </c>
-      <c r="S25" t="s">
+      <c r="R25" t="s">
+        <v>98</v>
+      </c>
+      <c r="T25" t="s">
+        <v>121</v>
+      </c>
+      <c r="V25" t="s">
         <v>122</v>
-      </c>
-      <c r="U25" t="s">
-        <v>123</v>
-      </c>
-      <c r="V25" t="s">
-        <v>124</v>
       </c>
       <c r="W25" t="s">
         <v>123</v>
       </c>
       <c r="X25" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD25" t="s">
         <v>124</v>
       </c>
-      <c r="Z25" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>116</v>
-      </c>
       <c r="AE25" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AF25" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH25" t="s">
         <v>151</v>
       </c>
-      <c r="AG25" t="s">
-        <v>152</v>
-      </c>
     </row>
-    <row r="26" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C26" t="s">
         <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F26" t="s">
         <v>75</v>
       </c>
       <c r="G26" t="s">
+        <v>117</v>
+      </c>
+      <c r="I26" t="s">
         <v>118</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>119</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
+        <v>284</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M26" t="s">
+        <v>299</v>
+      </c>
+      <c r="O26">
+        <v>-999</v>
+      </c>
+      <c r="Q26" t="s">
         <v>120</v>
       </c>
-      <c r="K26" t="s">
-        <v>286</v>
-      </c>
-      <c r="L26" t="s">
-        <v>76</v>
-      </c>
-      <c r="N26">
-        <v>-999</v>
-      </c>
-      <c r="P26" t="s">
+      <c r="R26" t="s">
+        <v>98</v>
+      </c>
+      <c r="T26" t="s">
         <v>121</v>
       </c>
-      <c r="Q26" t="s">
-        <v>99</v>
-      </c>
-      <c r="S26" t="s">
+      <c r="V26" t="s">
         <v>122</v>
-      </c>
-      <c r="U26" t="s">
-        <v>123</v>
-      </c>
-      <c r="V26" t="s">
-        <v>124</v>
       </c>
       <c r="W26" t="s">
         <v>123</v>
       </c>
       <c r="X26" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD26" t="s">
         <v>124</v>
       </c>
-      <c r="Z26" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s">
+      <c r="AE26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF26" t="s">
         <v>80</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AL26" t="s">
         <v>125</v>
       </c>
-      <c r="AD26" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK26" t="s">
+      <c r="AM26" t="s">
         <v>126</v>
       </c>
-      <c r="AL26" t="s">
+      <c r="AN26" t="s">
         <v>127</v>
       </c>
-      <c r="AM26" t="s">
+      <c r="AQ26" t="s">
         <v>128</v>
       </c>
-      <c r="AP26" t="s">
+      <c r="AW26" t="s">
         <v>129</v>
       </c>
-      <c r="AV26" t="s">
+      <c r="AY26" t="s">
         <v>130</v>
       </c>
-      <c r="AX26" t="s">
+      <c r="BA26" t="s">
         <v>131</v>
       </c>
-      <c r="AZ26" t="s">
+      <c r="BB26" t="s">
         <v>132</v>
       </c>
-      <c r="BA26" t="s">
+      <c r="BC26" t="s">
         <v>133</v>
       </c>
-      <c r="BB26" t="s">
+      <c r="BD26" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE26" t="s">
         <v>134</v>
       </c>
-      <c r="BC26" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD26" t="s">
+      <c r="BF26" t="s">
         <v>135</v>
       </c>
-      <c r="BE26" t="s">
+      <c r="BG26" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH26" t="s">
         <v>136</v>
       </c>
-      <c r="BF26" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG26" t="s">
+      <c r="BJ26" t="s">
         <v>137</v>
       </c>
-      <c r="BI26" t="s">
+      <c r="BK26" t="s">
         <v>138</v>
       </c>
-      <c r="BJ26" t="s">
+      <c r="BL26" t="s">
         <v>139</v>
       </c>
-      <c r="BK26" t="s">
+      <c r="BP26" t="s">
         <v>140</v>
       </c>
-      <c r="BO26" t="s">
+      <c r="BQ26" t="s">
         <v>141</v>
       </c>
-      <c r="BP26" t="s">
+      <c r="BR26" t="s">
         <v>142</v>
       </c>
-      <c r="BQ26" t="s">
+      <c r="BU26" t="s">
         <v>143</v>
       </c>
-      <c r="BT26" t="s">
+      <c r="BV26" t="s">
         <v>144</v>
       </c>
-      <c r="BU26" t="s">
-        <v>145</v>
-      </c>
     </row>
-    <row r="27" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C27" t="s">
         <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F27" t="s">
         <v>75</v>
       </c>
       <c r="G27" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" t="s">
         <v>118</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>119</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
+        <v>284</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M27" t="s">
+        <v>299</v>
+      </c>
+      <c r="O27">
+        <v>-999</v>
+      </c>
+      <c r="Q27" t="s">
         <v>120</v>
       </c>
-      <c r="K27" t="s">
-        <v>286</v>
-      </c>
-      <c r="L27" t="s">
-        <v>76</v>
-      </c>
-      <c r="N27">
-        <v>-999</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="R27" t="s">
+        <v>98</v>
+      </c>
+      <c r="T27" t="s">
         <v>121</v>
       </c>
-      <c r="Q27" t="s">
-        <v>99</v>
-      </c>
-      <c r="S27" t="s">
+      <c r="V27" t="s">
         <v>122</v>
-      </c>
-      <c r="U27" t="s">
-        <v>123</v>
-      </c>
-      <c r="V27" t="s">
-        <v>124</v>
       </c>
       <c r="W27" t="s">
         <v>123</v>
       </c>
       <c r="X27" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD27" t="s">
         <v>124</v>
       </c>
-      <c r="Z27" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s">
+      <c r="AE27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF27" t="s">
         <v>80</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AL27" t="s">
         <v>125</v>
       </c>
-      <c r="AD27" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK27" t="s">
+      <c r="AM27" t="s">
         <v>126</v>
       </c>
-      <c r="AL27" t="s">
+      <c r="AN27" t="s">
         <v>127</v>
       </c>
-      <c r="AM27" t="s">
+      <c r="AQ27" t="s">
         <v>128</v>
       </c>
-      <c r="AP27" t="s">
+      <c r="AW27" t="s">
         <v>129</v>
       </c>
-      <c r="AV27" t="s">
+      <c r="AY27" t="s">
         <v>130</v>
       </c>
-      <c r="AX27" t="s">
+      <c r="BA27" t="s">
         <v>131</v>
       </c>
-      <c r="AZ27" t="s">
+      <c r="BB27" t="s">
         <v>132</v>
       </c>
-      <c r="BA27" t="s">
+      <c r="BC27" t="s">
         <v>133</v>
       </c>
-      <c r="BB27" t="s">
+      <c r="BD27" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE27" t="s">
         <v>134</v>
       </c>
-      <c r="BC27" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD27" t="s">
+      <c r="BF27" t="s">
         <v>135</v>
       </c>
-      <c r="BE27" t="s">
+      <c r="BG27" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH27" t="s">
         <v>136</v>
       </c>
-      <c r="BF27" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG27" t="s">
+      <c r="BJ27" t="s">
         <v>137</v>
       </c>
-      <c r="BI27" t="s">
+      <c r="BK27" t="s">
         <v>138</v>
       </c>
-      <c r="BJ27" t="s">
+      <c r="BL27" t="s">
         <v>139</v>
       </c>
-      <c r="BK27" t="s">
+      <c r="BP27" t="s">
         <v>140</v>
       </c>
-      <c r="BO27" t="s">
+      <c r="BQ27" t="s">
         <v>141</v>
       </c>
-      <c r="BP27" t="s">
+      <c r="BR27" t="s">
         <v>142</v>
       </c>
-      <c r="BQ27" t="s">
+      <c r="BU27" t="s">
         <v>143</v>
       </c>
-      <c r="BT27" t="s">
+      <c r="BV27" t="s">
         <v>144</v>
       </c>
-      <c r="BU27" t="s">
-        <v>145</v>
-      </c>
     </row>
-    <row r="28" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C28" t="s">
         <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F28" t="s">
         <v>75</v>
       </c>
       <c r="G28" t="s">
+        <v>145</v>
+      </c>
+      <c r="I28" t="s">
         <v>146</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>147</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
+        <v>286</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="M28" t="s">
         <v>148</v>
       </c>
-      <c r="K28" t="s">
-        <v>288</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="O28">
+        <v>-999</v>
+      </c>
+      <c r="Q28" t="s">
         <v>149</v>
       </c>
-      <c r="N28">
-        <v>-999</v>
-      </c>
-      <c r="P28" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>99</v>
-      </c>
-      <c r="S28" t="s">
+      <c r="R28" t="s">
+        <v>98</v>
+      </c>
+      <c r="T28" t="s">
+        <v>121</v>
+      </c>
+      <c r="V28" t="s">
         <v>122</v>
-      </c>
-      <c r="U28" t="s">
-        <v>123</v>
-      </c>
-      <c r="V28" t="s">
-        <v>124</v>
       </c>
       <c r="W28" t="s">
         <v>123</v>
       </c>
       <c r="X28" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD28" t="s">
         <v>124</v>
       </c>
-      <c r="Z28" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>116</v>
-      </c>
       <c r="AE28" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AF28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH28" t="s">
         <v>151</v>
       </c>
-      <c r="AG28" t="s">
-        <v>152</v>
-      </c>
     </row>
-    <row r="29" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C29" t="s">
         <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F29" t="s">
         <v>75</v>
       </c>
       <c r="G29" t="s">
+        <v>145</v>
+      </c>
+      <c r="I29" t="s">
         <v>146</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>147</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
+        <v>286</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="M29" t="s">
         <v>148</v>
       </c>
-      <c r="K29" t="s">
-        <v>288</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="O29">
+        <v>-999</v>
+      </c>
+      <c r="Q29" t="s">
         <v>149</v>
       </c>
-      <c r="N29">
-        <v>-999</v>
-      </c>
-      <c r="P29" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>99</v>
-      </c>
-      <c r="S29" t="s">
+      <c r="R29" t="s">
+        <v>98</v>
+      </c>
+      <c r="T29" t="s">
+        <v>121</v>
+      </c>
+      <c r="V29" t="s">
         <v>122</v>
-      </c>
-      <c r="U29" t="s">
-        <v>123</v>
-      </c>
-      <c r="V29" t="s">
-        <v>124</v>
       </c>
       <c r="W29" t="s">
         <v>123</v>
       </c>
       <c r="X29" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD29" t="s">
         <v>124</v>
       </c>
-      <c r="Z29" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>116</v>
-      </c>
       <c r="AE29" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AF29" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH29" t="s">
         <v>151</v>
       </c>
-      <c r="AG29" t="s">
-        <v>152</v>
-      </c>
     </row>
-    <row r="30" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C30" t="s">
         <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F30" t="s">
         <v>75</v>
       </c>
       <c r="G30" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" t="s">
         <v>118</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>119</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
+        <v>284</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M30" t="s">
+        <v>299</v>
+      </c>
+      <c r="O30">
+        <v>-999</v>
+      </c>
+      <c r="Q30" t="s">
         <v>120</v>
       </c>
-      <c r="K30" t="s">
-        <v>286</v>
-      </c>
-      <c r="L30" t="s">
-        <v>76</v>
-      </c>
-      <c r="N30">
-        <v>-999</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="R30" t="s">
+        <v>98</v>
+      </c>
+      <c r="T30" t="s">
         <v>121</v>
       </c>
-      <c r="Q30" t="s">
-        <v>99</v>
-      </c>
-      <c r="S30" t="s">
+      <c r="V30" t="s">
         <v>122</v>
-      </c>
-      <c r="U30" t="s">
-        <v>123</v>
-      </c>
-      <c r="V30" t="s">
-        <v>124</v>
       </c>
       <c r="W30" t="s">
         <v>123</v>
       </c>
       <c r="X30" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD30" t="s">
         <v>124</v>
       </c>
-      <c r="Z30" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB30" t="s">
+      <c r="AE30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF30" t="s">
         <v>80</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AL30" t="s">
         <v>125</v>
       </c>
-      <c r="AD30" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK30" t="s">
+      <c r="AM30" t="s">
         <v>126</v>
       </c>
-      <c r="AL30" t="s">
+      <c r="AN30" t="s">
         <v>127</v>
       </c>
-      <c r="AM30" t="s">
+      <c r="AQ30" t="s">
         <v>128</v>
       </c>
-      <c r="AP30" t="s">
+      <c r="AW30" t="s">
         <v>129</v>
       </c>
-      <c r="AV30" t="s">
+      <c r="AY30" t="s">
         <v>130</v>
       </c>
-      <c r="AX30" t="s">
+      <c r="BA30" t="s">
         <v>131</v>
       </c>
-      <c r="AZ30" t="s">
+      <c r="BB30" t="s">
         <v>132</v>
       </c>
-      <c r="BA30" t="s">
+      <c r="BC30" t="s">
         <v>133</v>
       </c>
-      <c r="BB30" t="s">
+      <c r="BD30" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE30" t="s">
         <v>134</v>
       </c>
-      <c r="BC30" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD30" t="s">
+      <c r="BF30" t="s">
         <v>135</v>
       </c>
-      <c r="BE30" t="s">
+      <c r="BG30" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH30" t="s">
         <v>136</v>
       </c>
-      <c r="BF30" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG30" t="s">
+      <c r="BJ30" t="s">
         <v>137</v>
       </c>
-      <c r="BI30" t="s">
+      <c r="BK30" t="s">
         <v>138</v>
       </c>
-      <c r="BJ30" t="s">
+      <c r="BL30" t="s">
         <v>139</v>
       </c>
-      <c r="BK30" t="s">
+      <c r="BP30" t="s">
         <v>140</v>
       </c>
-      <c r="BO30" t="s">
+      <c r="BQ30" t="s">
         <v>141</v>
       </c>
-      <c r="BP30" t="s">
+      <c r="BR30" t="s">
         <v>142</v>
       </c>
-      <c r="BQ30" t="s">
+      <c r="BU30" t="s">
         <v>143</v>
       </c>
-      <c r="BT30" t="s">
+      <c r="BV30" t="s">
         <v>144</v>
       </c>
-      <c r="BU30" t="s">
-        <v>145</v>
-      </c>
     </row>
-    <row r="31" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C31" t="s">
         <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F31" t="s">
         <v>75</v>
       </c>
       <c r="G31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" t="s">
         <v>118</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>119</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
+        <v>284</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M31" t="s">
+        <v>299</v>
+      </c>
+      <c r="O31">
+        <v>-999</v>
+      </c>
+      <c r="Q31" t="s">
         <v>120</v>
       </c>
-      <c r="K31" t="s">
-        <v>286</v>
-      </c>
-      <c r="L31" t="s">
-        <v>76</v>
-      </c>
-      <c r="N31">
-        <v>-999</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="R31" t="s">
+        <v>98</v>
+      </c>
+      <c r="T31" t="s">
         <v>121</v>
       </c>
-      <c r="Q31" t="s">
-        <v>99</v>
-      </c>
-      <c r="S31" t="s">
+      <c r="V31" t="s">
         <v>122</v>
-      </c>
-      <c r="U31" t="s">
-        <v>123</v>
-      </c>
-      <c r="V31" t="s">
-        <v>124</v>
       </c>
       <c r="W31" t="s">
         <v>123</v>
       </c>
       <c r="X31" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD31" t="s">
         <v>124</v>
       </c>
-      <c r="Z31" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB31" t="s">
+      <c r="AE31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF31" t="s">
         <v>80</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AL31" t="s">
         <v>125</v>
       </c>
-      <c r="AD31" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK31" t="s">
+      <c r="AM31" t="s">
         <v>126</v>
       </c>
-      <c r="AL31" t="s">
+      <c r="AN31" t="s">
         <v>127</v>
       </c>
-      <c r="AM31" t="s">
+      <c r="AQ31" t="s">
         <v>128</v>
       </c>
-      <c r="AP31" t="s">
+      <c r="AW31" t="s">
         <v>129</v>
       </c>
-      <c r="AV31" t="s">
+      <c r="AY31" t="s">
         <v>130</v>
       </c>
-      <c r="AX31" t="s">
+      <c r="BA31" t="s">
         <v>131</v>
       </c>
-      <c r="AZ31" t="s">
+      <c r="BB31" t="s">
         <v>132</v>
       </c>
-      <c r="BA31" t="s">
+      <c r="BC31" t="s">
         <v>133</v>
       </c>
-      <c r="BB31" t="s">
+      <c r="BD31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE31" t="s">
         <v>134</v>
       </c>
-      <c r="BC31" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD31" t="s">
+      <c r="BF31" t="s">
         <v>135</v>
       </c>
-      <c r="BE31" t="s">
+      <c r="BG31" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH31" t="s">
         <v>136</v>
       </c>
-      <c r="BF31" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG31" t="s">
+      <c r="BJ31" t="s">
         <v>137</v>
       </c>
-      <c r="BI31" t="s">
+      <c r="BK31" t="s">
         <v>138</v>
       </c>
-      <c r="BJ31" t="s">
+      <c r="BL31" t="s">
         <v>139</v>
       </c>
-      <c r="BK31" t="s">
+      <c r="BP31" t="s">
         <v>140</v>
       </c>
-      <c r="BO31" t="s">
+      <c r="BQ31" t="s">
         <v>141</v>
       </c>
-      <c r="BP31" t="s">
+      <c r="BR31" t="s">
         <v>142</v>
       </c>
-      <c r="BQ31" t="s">
+      <c r="BU31" t="s">
         <v>143</v>
       </c>
-      <c r="BT31" t="s">
+      <c r="BV31" t="s">
         <v>144</v>
       </c>
-      <c r="BU31" t="s">
-        <v>145</v>
-      </c>
     </row>
-    <row r="32" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C32" t="s">
         <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F32" t="s">
         <v>75</v>
       </c>
       <c r="G32" t="s">
+        <v>145</v>
+      </c>
+      <c r="I32" t="s">
         <v>146</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>147</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
+        <v>286</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="M32" t="s">
         <v>148</v>
       </c>
-      <c r="K32" t="s">
-        <v>288</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="O32">
+        <v>-999</v>
+      </c>
+      <c r="Q32" t="s">
         <v>149</v>
       </c>
-      <c r="N32">
-        <v>-999</v>
-      </c>
-      <c r="P32" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>99</v>
-      </c>
-      <c r="S32" t="s">
+      <c r="R32" t="s">
+        <v>98</v>
+      </c>
+      <c r="T32" t="s">
+        <v>121</v>
+      </c>
+      <c r="V32" t="s">
         <v>122</v>
-      </c>
-      <c r="U32" t="s">
-        <v>123</v>
-      </c>
-      <c r="V32" t="s">
-        <v>124</v>
       </c>
       <c r="W32" t="s">
         <v>123</v>
       </c>
       <c r="X32" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD32" t="s">
         <v>124</v>
       </c>
-      <c r="Z32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>116</v>
-      </c>
       <c r="AE32" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AF32" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH32" t="s">
         <v>151</v>
       </c>
-      <c r="AG32" t="s">
-        <v>152</v>
-      </c>
     </row>
-    <row r="33" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C33" t="s">
         <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F33" t="s">
         <v>75</v>
       </c>
       <c r="G33" t="s">
+        <v>145</v>
+      </c>
+      <c r="I33" t="s">
         <v>146</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>147</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
+        <v>286</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="M33" t="s">
         <v>148</v>
       </c>
-      <c r="K33" t="s">
-        <v>288</v>
-      </c>
-      <c r="L33" t="s">
+      <c r="O33">
+        <v>-999</v>
+      </c>
+      <c r="Q33" t="s">
         <v>149</v>
       </c>
-      <c r="N33">
-        <v>-999</v>
-      </c>
-      <c r="P33" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>99</v>
-      </c>
-      <c r="S33" t="s">
+      <c r="R33" t="s">
+        <v>98</v>
+      </c>
+      <c r="T33" t="s">
+        <v>121</v>
+      </c>
+      <c r="V33" t="s">
         <v>122</v>
-      </c>
-      <c r="U33" t="s">
-        <v>123</v>
-      </c>
-      <c r="V33" t="s">
-        <v>124</v>
       </c>
       <c r="W33" t="s">
         <v>123</v>
       </c>
       <c r="X33" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD33" t="s">
         <v>124</v>
       </c>
-      <c r="Z33" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>116</v>
-      </c>
       <c r="AE33" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AF33" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH33" t="s">
         <v>151</v>
       </c>
-      <c r="AG33" t="s">
-        <v>152</v>
-      </c>
     </row>
-    <row r="34" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C34" t="s">
         <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E34" s="1">
         <v>320620151207</v>
@@ -5211,770 +5319,792 @@
         <v>75</v>
       </c>
       <c r="G34" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" t="s">
         <v>95</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>96</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>97</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
+        <v>285</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M34" t="s">
+        <v>198</v>
+      </c>
+      <c r="O34">
+        <v>-9999</v>
+      </c>
+      <c r="P34">
+        <v>-8888</v>
+      </c>
+      <c r="R34" t="s">
         <v>98</v>
       </c>
-      <c r="K34" t="s">
-        <v>287</v>
-      </c>
-      <c r="L34" t="s">
+      <c r="T34" t="s">
+        <v>99</v>
+      </c>
+      <c r="V34" t="s">
+        <v>100</v>
+      </c>
+      <c r="X34" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM34" t="s">
         <v>200</v>
       </c>
-      <c r="N34">
-        <v>-9999</v>
-      </c>
-      <c r="O34">
-        <v>-8888</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>99</v>
-      </c>
-      <c r="S34" t="s">
-        <v>100</v>
-      </c>
-      <c r="U34" t="s">
-        <v>101</v>
-      </c>
-      <c r="W34" t="s">
-        <v>102</v>
-      </c>
-      <c r="X34" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI34" t="s">
+      <c r="AN34" t="s">
         <v>110</v>
       </c>
-      <c r="AK34" t="s">
+      <c r="AQ34" t="s">
         <v>201</v>
       </c>
-      <c r="AL34" t="s">
+      <c r="AR34" t="s">
         <v>202</v>
       </c>
-      <c r="AM34" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP34" t="s">
+      <c r="AT34" t="s">
         <v>203</v>
       </c>
-      <c r="AQ34" t="s">
+      <c r="AY34" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>86</v>
+      </c>
+      <c r="BO34" t="s">
         <v>204</v>
       </c>
-      <c r="AS34" t="s">
+      <c r="BP34" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW34" t="s">
         <v>205</v>
       </c>
-      <c r="AX34" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>115</v>
-      </c>
-      <c r="BB34" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>85</v>
-      </c>
-      <c r="BF34" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN34" t="s">
-        <v>206</v>
-      </c>
-      <c r="BO34" t="s">
-        <v>88</v>
-      </c>
-      <c r="BP34" t="s">
-        <v>89</v>
-      </c>
-      <c r="BQ34" t="s">
-        <v>90</v>
-      </c>
-      <c r="BT34" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU34" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV34" t="s">
-        <v>207</v>
-      </c>
     </row>
-    <row r="35" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C35" t="s">
         <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F35" t="s">
         <v>75</v>
       </c>
       <c r="G35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H35" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K35" t="s">
-        <v>289</v>
-      </c>
-      <c r="L35" t="s">
-        <v>261</v>
-      </c>
-      <c r="N35" t="s">
+        <v>287</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M35" t="s">
+        <v>259</v>
+      </c>
+      <c r="O35" t="s">
+        <v>272</v>
+      </c>
+      <c r="T35" t="s">
+        <v>266</v>
+      </c>
+      <c r="V35" t="s">
+        <v>281</v>
+      </c>
+      <c r="W35" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ35" t="s">
         <v>274</v>
       </c>
-      <c r="S35" t="s">
-        <v>268</v>
-      </c>
-      <c r="U35" t="s">
-        <v>283</v>
-      </c>
-      <c r="V35" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z35" t="s">
+      <c r="AL35" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO35" t="s">
         <v>275</v>
       </c>
-      <c r="AA35" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>276</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM35" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>277</v>
-      </c>
-      <c r="AO35" t="s">
+      <c r="AP35" t="s">
         <v>39</v>
       </c>
-      <c r="AP35" t="s">
+      <c r="AQ35" t="s">
         <v>40</v>
       </c>
-      <c r="AQ35" t="s">
-        <v>280</v>
-      </c>
       <c r="AR35" t="s">
+        <v>278</v>
+      </c>
+      <c r="AS35" t="s">
         <v>42</v>
       </c>
-      <c r="AS35" t="s">
-        <v>281</v>
-      </c>
       <c r="AT35" t="s">
+        <v>279</v>
+      </c>
+      <c r="AU35" t="s">
         <v>44</v>
       </c>
-      <c r="AU35" t="s">
+      <c r="AV35" t="s">
         <v>45</v>
       </c>
-      <c r="AV35" t="s">
+      <c r="AW35" t="s">
         <v>46</v>
       </c>
-      <c r="AW35" t="s">
+      <c r="AX35" t="s">
         <v>47</v>
       </c>
-      <c r="AX35" t="s">
+      <c r="AY35" t="s">
         <v>48</v>
       </c>
-      <c r="AY35" t="s">
+      <c r="AZ35" t="s">
         <v>49</v>
       </c>
-      <c r="AZ35" t="s">
+      <c r="BA35" t="s">
         <v>50</v>
       </c>
-      <c r="BA35" t="s">
+      <c r="BB35" t="s">
         <v>51</v>
       </c>
-      <c r="BB35" t="s">
+      <c r="BC35" t="s">
         <v>52</v>
       </c>
-      <c r="BC35" t="s">
+      <c r="BD35" t="s">
         <v>53</v>
       </c>
-      <c r="BD35" t="s">
+      <c r="BE35" t="s">
         <v>54</v>
       </c>
-      <c r="BE35" t="s">
+      <c r="BF35" t="s">
         <v>55</v>
       </c>
-      <c r="BF35" t="s">
+      <c r="BG35" t="s">
         <v>56</v>
       </c>
-      <c r="BG35" t="s">
+      <c r="BH35" t="s">
         <v>57</v>
       </c>
-      <c r="BH35" t="s">
+      <c r="BI35" t="s">
         <v>58</v>
       </c>
-      <c r="BI35" t="s">
+      <c r="BJ35" t="s">
         <v>59</v>
       </c>
-      <c r="BJ35" t="s">
+      <c r="BK35" t="s">
         <v>60</v>
       </c>
-      <c r="BK35" t="s">
+      <c r="BL35" t="s">
         <v>61</v>
       </c>
-      <c r="BL35" t="s">
+      <c r="BM35" t="s">
         <v>62</v>
       </c>
-      <c r="BM35" t="s">
+      <c r="BN35" t="s">
         <v>63</v>
       </c>
-      <c r="BN35" t="s">
+      <c r="BO35" t="s">
         <v>64</v>
       </c>
-      <c r="BO35" t="s">
+      <c r="BP35" t="s">
         <v>65</v>
       </c>
-      <c r="BP35" t="s">
+      <c r="BQ35" t="s">
         <v>66</v>
       </c>
-      <c r="BQ35" t="s">
+      <c r="BR35" t="s">
         <v>67</v>
       </c>
-      <c r="BR35" t="s">
+      <c r="BS35" t="s">
         <v>68</v>
       </c>
-      <c r="BS35" t="s">
+      <c r="BT35" t="s">
         <v>69</v>
       </c>
-      <c r="BT35" t="s">
+      <c r="BU35" t="s">
         <v>70</v>
       </c>
-      <c r="BU35" t="s">
+      <c r="BV35" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C36" t="s">
         <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F36" t="s">
         <v>75</v>
       </c>
       <c r="G36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H36" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K36" t="s">
-        <v>289</v>
-      </c>
-      <c r="L36" t="s">
-        <v>261</v>
-      </c>
-      <c r="N36" t="s">
+        <v>287</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M36" t="s">
+        <v>259</v>
+      </c>
+      <c r="O36" t="s">
+        <v>272</v>
+      </c>
+      <c r="T36" t="s">
+        <v>266</v>
+      </c>
+      <c r="V36" t="s">
+        <v>281</v>
+      </c>
+      <c r="W36" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ36" t="s">
         <v>274</v>
       </c>
-      <c r="S36" t="s">
-        <v>268</v>
-      </c>
-      <c r="U36" t="s">
-        <v>283</v>
-      </c>
-      <c r="V36" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z36" t="s">
+      <c r="AL36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO36" t="s">
         <v>275</v>
       </c>
-      <c r="AA36" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>276</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL36" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM36" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>277</v>
-      </c>
-      <c r="AO36" t="s">
+      <c r="AP36" t="s">
         <v>39</v>
       </c>
-      <c r="AP36" t="s">
+      <c r="AQ36" t="s">
         <v>40</v>
       </c>
-      <c r="AQ36" t="s">
-        <v>280</v>
-      </c>
       <c r="AR36" t="s">
+        <v>278</v>
+      </c>
+      <c r="AS36" t="s">
         <v>42</v>
       </c>
-      <c r="AS36" t="s">
-        <v>281</v>
-      </c>
       <c r="AT36" t="s">
+        <v>279</v>
+      </c>
+      <c r="AU36" t="s">
         <v>44</v>
       </c>
-      <c r="AU36" t="s">
+      <c r="AV36" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" t="s">
+      <c r="AW36" t="s">
         <v>46</v>
       </c>
-      <c r="AW36" t="s">
+      <c r="AX36" t="s">
         <v>47</v>
       </c>
-      <c r="AX36" t="s">
+      <c r="AY36" t="s">
         <v>48</v>
       </c>
-      <c r="AY36" t="s">
+      <c r="AZ36" t="s">
         <v>49</v>
       </c>
-      <c r="AZ36" t="s">
+      <c r="BA36" t="s">
         <v>50</v>
       </c>
-      <c r="BA36" t="s">
+      <c r="BB36" t="s">
         <v>51</v>
       </c>
-      <c r="BB36" t="s">
+      <c r="BC36" t="s">
         <v>52</v>
       </c>
-      <c r="BC36" t="s">
+      <c r="BD36" t="s">
         <v>53</v>
       </c>
-      <c r="BD36" t="s">
+      <c r="BE36" t="s">
         <v>54</v>
       </c>
-      <c r="BE36" t="s">
+      <c r="BF36" t="s">
         <v>55</v>
       </c>
-      <c r="BF36" t="s">
+      <c r="BG36" t="s">
         <v>56</v>
       </c>
-      <c r="BG36" t="s">
+      <c r="BH36" t="s">
         <v>57</v>
       </c>
-      <c r="BH36" t="s">
+      <c r="BI36" t="s">
         <v>58</v>
       </c>
-      <c r="BI36" t="s">
+      <c r="BJ36" t="s">
         <v>59</v>
       </c>
-      <c r="BJ36" t="s">
+      <c r="BK36" t="s">
         <v>60</v>
       </c>
-      <c r="BK36" t="s">
+      <c r="BL36" t="s">
         <v>61</v>
       </c>
-      <c r="BL36" t="s">
+      <c r="BM36" t="s">
         <v>62</v>
       </c>
-      <c r="BM36" t="s">
+      <c r="BN36" t="s">
         <v>63</v>
       </c>
-      <c r="BN36" t="s">
+      <c r="BO36" t="s">
         <v>64</v>
       </c>
-      <c r="BO36" t="s">
+      <c r="BP36" t="s">
         <v>65</v>
       </c>
-      <c r="BP36" t="s">
+      <c r="BQ36" t="s">
         <v>66</v>
       </c>
-      <c r="BQ36" t="s">
+      <c r="BR36" t="s">
         <v>67</v>
       </c>
-      <c r="BR36" t="s">
+      <c r="BS36" t="s">
         <v>68</v>
       </c>
-      <c r="BS36" t="s">
+      <c r="BT36" t="s">
         <v>69</v>
       </c>
-      <c r="BT36" t="s">
+      <c r="BU36" t="s">
         <v>70</v>
       </c>
-      <c r="BU36" t="s">
+      <c r="BV36" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C37" t="s">
+        <v>264</v>
+      </c>
+      <c r="D37" t="s">
+        <v>295</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F37" t="s">
+        <v>265</v>
+      </c>
+      <c r="G37" t="s">
+        <v>175</v>
+      </c>
+      <c r="H37" t="s">
+        <v>258</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="M37" t="s">
+        <v>300</v>
+      </c>
+      <c r="O37" t="s">
+        <v>154</v>
+      </c>
+      <c r="R37" t="s">
+        <v>98</v>
+      </c>
+      <c r="T37" t="s">
         <v>266</v>
       </c>
-      <c r="D37" t="s">
-        <v>297</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="V37" t="s">
         <v>267</v>
       </c>
-      <c r="G37" t="s">
-        <v>176</v>
-      </c>
-      <c r="H37" t="s">
-        <v>260</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="L37" t="s">
-        <v>177</v>
-      </c>
-      <c r="N37" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>99</v>
-      </c>
-      <c r="S37" t="s">
+      <c r="W37" t="s">
         <v>268</v>
       </c>
-      <c r="U37" t="s">
+      <c r="X37" t="s">
         <v>269</v>
       </c>
-      <c r="V37" t="s">
+      <c r="Y37" t="s">
         <v>270</v>
       </c>
-      <c r="W37" t="s">
+      <c r="AA37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG37" t="s">
         <v>271</v>
       </c>
-      <c r="X37" t="s">
-        <v>272</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>273</v>
-      </c>
     </row>
-    <row r="38" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C38" t="s">
+        <v>264</v>
+      </c>
+      <c r="D38" t="s">
+        <v>295</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F38" t="s">
+        <v>265</v>
+      </c>
+      <c r="G38" t="s">
+        <v>175</v>
+      </c>
+      <c r="H38" t="s">
+        <v>258</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="M38" t="s">
+        <v>300</v>
+      </c>
+      <c r="O38" t="s">
+        <v>154</v>
+      </c>
+      <c r="R38" t="s">
+        <v>98</v>
+      </c>
+      <c r="T38" t="s">
         <v>266</v>
       </c>
-      <c r="D38" t="s">
-        <v>297</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="V38" t="s">
         <v>267</v>
       </c>
-      <c r="G38" t="s">
-        <v>176</v>
-      </c>
-      <c r="H38" t="s">
-        <v>260</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="L38" t="s">
-        <v>177</v>
-      </c>
-      <c r="N38" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>99</v>
-      </c>
-      <c r="S38" t="s">
+      <c r="W38" t="s">
         <v>268</v>
       </c>
-      <c r="U38" t="s">
+      <c r="X38" t="s">
         <v>269</v>
       </c>
-      <c r="V38" t="s">
+      <c r="Y38" t="s">
         <v>270</v>
       </c>
-      <c r="W38" t="s">
+      <c r="AA38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG38" t="s">
         <v>271</v>
       </c>
-      <c r="X38" t="s">
-        <v>272</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>273</v>
-      </c>
     </row>
-    <row r="39" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>73</v>
       </c>
       <c r="B39" t="s">
+        <v>262</v>
+      </c>
+      <c r="C39" t="s">
         <v>264</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>295</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" t="s">
+        <v>265</v>
+      </c>
+      <c r="G39" t="s">
+        <v>175</v>
+      </c>
+      <c r="H39" t="s">
+        <v>258</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="M39" t="s">
+        <v>300</v>
+      </c>
+      <c r="O39" t="s">
+        <v>154</v>
+      </c>
+      <c r="R39" t="s">
+        <v>98</v>
+      </c>
+      <c r="T39" t="s">
         <v>266</v>
       </c>
-      <c r="D39" t="s">
-        <v>297</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="V39" t="s">
         <v>267</v>
       </c>
-      <c r="G39" t="s">
-        <v>176</v>
-      </c>
-      <c r="H39" t="s">
-        <v>260</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="L39" t="s">
-        <v>177</v>
-      </c>
-      <c r="N39" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>99</v>
-      </c>
-      <c r="S39" t="s">
+      <c r="W39" t="s">
         <v>268</v>
       </c>
-      <c r="U39" t="s">
+      <c r="X39" t="s">
         <v>269</v>
       </c>
-      <c r="V39" t="s">
+      <c r="Y39" t="s">
         <v>270</v>
       </c>
-      <c r="W39" t="s">
+      <c r="AA39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG39" t="s">
         <v>271</v>
       </c>
-      <c r="X39" t="s">
-        <v>272</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>273</v>
-      </c>
     </row>
-    <row r="40" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>73</v>
       </c>
       <c r="B40" t="s">
+        <v>263</v>
+      </c>
+      <c r="C40" t="s">
+        <v>264</v>
+      </c>
+      <c r="D40" t="s">
+        <v>295</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" t="s">
         <v>265</v>
       </c>
-      <c r="C40" t="s">
+      <c r="G40" t="s">
+        <v>175</v>
+      </c>
+      <c r="H40" t="s">
+        <v>258</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="M40" t="s">
+        <v>300</v>
+      </c>
+      <c r="O40" t="s">
+        <v>154</v>
+      </c>
+      <c r="R40" t="s">
+        <v>98</v>
+      </c>
+      <c r="T40" t="s">
         <v>266</v>
       </c>
-      <c r="D40" t="s">
-        <v>297</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="V40" t="s">
         <v>267</v>
       </c>
-      <c r="G40" t="s">
-        <v>176</v>
-      </c>
-      <c r="H40" t="s">
-        <v>260</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="L40" t="s">
-        <v>177</v>
-      </c>
-      <c r="N40" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>99</v>
-      </c>
-      <c r="S40" t="s">
+      <c r="W40" t="s">
         <v>268</v>
       </c>
-      <c r="U40" t="s">
+      <c r="X40" t="s">
         <v>269</v>
       </c>
-      <c r="V40" t="s">
+      <c r="Y40" t="s">
         <v>270</v>
       </c>
-      <c r="W40" t="s">
+      <c r="AA40" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG40" t="s">
         <v>271</v>
       </c>
-      <c r="X40" t="s">
-        <v>272</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>273</v>
-      </c>
     </row>
-    <row r="41" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:75" x14ac:dyDescent="0.35">
       <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/product_data/processing_metadata/C3/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C3/PIG_meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="368" documentId="8_{E310EAF6-001C-4683-A632-3F0045222FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A5B832A-4693-4CC3-AF08-5A78644BB648}"/>
+  <xr:revisionPtr revIDLastSave="369" documentId="8_{E310EAF6-001C-4683-A632-3F0045222FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55ADA804-1F1A-4AFE-A505-BBC2C5A23D7B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD0B7FAE-241F-4E23-A02A-6E81F5ECAC2C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DD0B7FAE-241F-4E23-A02A-6E81F5ECAC2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="304">
   <si>
     <t>file_type</t>
   </si>
@@ -943,6 +943,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/JGOFS/320619970404/HPLC_pigments</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1310,7 @@
   <dimension ref="A1:BW41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1547,7 +1550,7 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>303</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>

--- a/product_data/processing_metadata/C3/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C3/PIG_meta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="369" documentId="8_{E310EAF6-001C-4683-A632-3F0045222FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55ADA804-1F1A-4AFE-A505-BBC2C5A23D7B}"/>
+  <xr:revisionPtr revIDLastSave="370" documentId="8_{E310EAF6-001C-4683-A632-3F0045222FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91203B2F-4C10-434C-AE1C-108936E139EB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DD0B7FAE-241F-4E23-A02A-6E81F5ECAC2C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="303">
   <si>
     <t>file_type</t>
   </si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>Chla_ide</t>
-  </si>
-  <si>
-    <t>Chla_ allom</t>
   </si>
   <si>
     <t>Chla_prime</t>
@@ -1309,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50972AA6-2965-4F2B-AD21-A9711D8DE30C}">
   <dimension ref="A1:BW41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="AB25" workbookViewId="0">
+      <selection activeCell="AO36" sqref="AO36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1350,10 +1347,10 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -1440,515 +1437,515 @@
         <v>37</v>
       </c>
       <c r="AO1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AP1" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>49</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>56</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>57</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>61</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>63</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>64</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>67</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>69</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>71</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E2" s="1">
         <v>320619970404</v>
       </c>
       <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L2" t="s">
+        <v>300</v>
+      </c>
+      <c r="M2" t="s">
+        <v>298</v>
+      </c>
+      <c r="O2" t="s">
+        <v>153</v>
+      </c>
+      <c r="R2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I2" t="s">
-        <v>153</v>
-      </c>
-      <c r="K2" t="s">
-        <v>291</v>
-      </c>
-      <c r="L2" t="s">
-        <v>301</v>
-      </c>
-      <c r="M2" t="s">
-        <v>299</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="T2" t="s">
+        <v>276</v>
+      </c>
+      <c r="U2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD2" t="s">
         <v>154</v>
       </c>
-      <c r="R2" t="s">
-        <v>76</v>
-      </c>
-      <c r="T2" t="s">
-        <v>277</v>
-      </c>
-      <c r="U2" t="s">
-        <v>276</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>155</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>156</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" t="s">
         <v>157</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" t="s">
         <v>158</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>159</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>160</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AS2" t="s">
         <v>161</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AY2" t="s">
         <v>162</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BA2" t="s">
         <v>163</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>164</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>165</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>166</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>167</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BG2" t="s">
         <v>168</v>
       </c>
-      <c r="BF2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>169</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BJ2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK2" t="s">
         <v>170</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>171</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BQ2" t="s">
         <v>172</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
         <v>173</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
       <c r="D3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E3" s="1">
         <v>320619970404</v>
       </c>
       <c r="F3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3" t="s">
+        <v>289</v>
+      </c>
+      <c r="L3" t="s">
+        <v>301</v>
+      </c>
+      <c r="M3" t="s">
+        <v>299</v>
+      </c>
+      <c r="O3" t="s">
+        <v>153</v>
+      </c>
+      <c r="R3" t="s">
         <v>75</v>
       </c>
-      <c r="G3" t="s">
+      <c r="T3" t="s">
+        <v>276</v>
+      </c>
+      <c r="U3" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG3" t="s">
         <v>175</v>
       </c>
-      <c r="H3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I3" t="s">
-        <v>153</v>
-      </c>
-      <c r="K3" t="s">
-        <v>290</v>
-      </c>
-      <c r="L3" t="s">
-        <v>302</v>
-      </c>
-      <c r="M3" t="s">
-        <v>300</v>
-      </c>
-      <c r="O3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R3" t="s">
-        <v>76</v>
-      </c>
-      <c r="T3" t="s">
-        <v>277</v>
-      </c>
-      <c r="U3" t="s">
-        <v>276</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>176</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" t="s">
         <v>73</v>
       </c>
-      <c r="B4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
       <c r="D4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E4" s="1">
         <v>320619971105</v>
       </c>
       <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" t="s">
+        <v>288</v>
+      </c>
+      <c r="L4" t="s">
+        <v>300</v>
+      </c>
+      <c r="M4" t="s">
+        <v>298</v>
+      </c>
+      <c r="O4" t="s">
+        <v>153</v>
+      </c>
+      <c r="R4" t="s">
         <v>75</v>
       </c>
-      <c r="G4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H4" t="s">
-        <v>258</v>
-      </c>
-      <c r="I4" t="s">
-        <v>153</v>
-      </c>
-      <c r="K4" t="s">
-        <v>289</v>
-      </c>
-      <c r="L4" t="s">
-        <v>301</v>
-      </c>
-      <c r="M4" t="s">
-        <v>299</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="T4" t="s">
+        <v>276</v>
+      </c>
+      <c r="U4" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD4" t="s">
         <v>154</v>
       </c>
-      <c r="R4" t="s">
-        <v>76</v>
-      </c>
-      <c r="T4" t="s">
-        <v>277</v>
-      </c>
-      <c r="U4" t="s">
-        <v>276</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>155</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>156</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AJ4" t="s">
         <v>157</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AM4" t="s">
         <v>158</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>159</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AQ4" t="s">
         <v>160</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AS4" t="s">
         <v>161</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AY4" t="s">
         <v>162</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="BA4" t="s">
         <v>163</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>164</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>165</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
         <v>166</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BE4" t="s">
         <v>167</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
+        <v>90</v>
+      </c>
+      <c r="BG4" t="s">
         <v>168</v>
       </c>
-      <c r="BF4" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG4" t="s">
+      <c r="BH4" t="s">
         <v>169</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BJ4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK4" t="s">
         <v>170</v>
       </c>
-      <c r="BJ4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BK4" t="s">
+      <c r="BL4" t="s">
         <v>171</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BQ4" t="s">
         <v>172</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BR4" t="s">
         <v>173</v>
       </c>
-      <c r="BR4" t="s">
-        <v>174</v>
-      </c>
       <c r="BW4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" t="s">
         <v>73</v>
       </c>
-      <c r="B5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E5" s="1">
         <v>320619971105</v>
       </c>
       <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" t="s">
+        <v>257</v>
+      </c>
+      <c r="I5" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" t="s">
+        <v>287</v>
+      </c>
+      <c r="L5" t="s">
+        <v>301</v>
+      </c>
+      <c r="M5" t="s">
+        <v>299</v>
+      </c>
+      <c r="O5" t="s">
+        <v>153</v>
+      </c>
+      <c r="R5" t="s">
         <v>75</v>
       </c>
-      <c r="G5" t="s">
+      <c r="T5" t="s">
+        <v>276</v>
+      </c>
+      <c r="U5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG5" t="s">
         <v>175</v>
       </c>
-      <c r="H5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K5" t="s">
-        <v>288</v>
-      </c>
-      <c r="L5" t="s">
-        <v>302</v>
-      </c>
-      <c r="M5" t="s">
-        <v>300</v>
-      </c>
-      <c r="O5" t="s">
-        <v>154</v>
-      </c>
-      <c r="R5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T5" t="s">
-        <v>277</v>
-      </c>
-      <c r="U5" t="s">
-        <v>276</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>176</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" t="s">
         <v>73</v>
       </c>
-      <c r="B6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="1">
         <v>320620161224</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" t="s">
         <v>94</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>95</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>96</v>
       </c>
-      <c r="J6" t="s">
-        <v>97</v>
-      </c>
       <c r="K6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O6">
         <v>-9999</v>
@@ -1957,153 +1954,153 @@
         <v>-8888</v>
       </c>
       <c r="R6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T6" t="s">
         <v>98</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>99</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>100</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>101</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>102</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>103</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>104</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s">
         <v>105</v>
       </c>
-      <c r="AC6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>106</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>107</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AJ6" t="s">
         <v>108</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AL6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN6" t="s">
         <v>109</v>
       </c>
-      <c r="AL6" t="s">
-        <v>199</v>
-      </c>
-      <c r="AM6" t="s">
+      <c r="AQ6" t="s">
         <v>200</v>
       </c>
-      <c r="AN6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ6" t="s">
+      <c r="AR6" t="s">
         <v>201</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AT6" t="s">
         <v>202</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AY6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO6" t="s">
         <v>203</v>
       </c>
-      <c r="AY6" t="s">
-        <v>112</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>113</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>92</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ6" t="s">
+      <c r="BP6" t="s">
         <v>86</v>
       </c>
-      <c r="BO6" t="s">
+      <c r="BQ6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BW6" t="s">
         <v>204</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>88</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>89</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>70</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>71</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" t="s">
         <v>73</v>
       </c>
-      <c r="B7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" t="s">
-        <v>74</v>
-      </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" s="1">
         <v>320620170410</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" t="s">
         <v>94</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>95</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>96</v>
       </c>
-      <c r="J7" t="s">
-        <v>97</v>
-      </c>
       <c r="K7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O7">
         <v>-9999</v>
@@ -2112,144 +2109,144 @@
         <v>-8888</v>
       </c>
       <c r="R7" t="s">
+        <v>97</v>
+      </c>
+      <c r="T7" t="s">
         <v>98</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>99</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>100</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>101</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>102</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>103</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>104</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD7" t="s">
         <v>105</v>
       </c>
-      <c r="AC7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>106</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>107</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AJ7" t="s">
         <v>108</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AM7" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN7" t="s">
         <v>109</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AQ7" t="s">
         <v>200</v>
       </c>
-      <c r="AN7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>201</v>
-      </c>
       <c r="AT7" t="s">
+        <v>202</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO7" t="s">
         <v>203</v>
       </c>
-      <c r="AY7" t="s">
-        <v>112</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>113</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ7" t="s">
+      <c r="BP7" t="s">
         <v>86</v>
       </c>
-      <c r="BO7" t="s">
-        <v>204</v>
-      </c>
-      <c r="BP7" t="s">
+      <c r="BQ7" t="s">
         <v>87</v>
       </c>
-      <c r="BQ7" t="s">
+      <c r="BR7" t="s">
         <v>88</v>
       </c>
-      <c r="BR7" t="s">
-        <v>89</v>
-      </c>
       <c r="BU7" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV7" t="s">
         <v>70</v>
       </c>
-      <c r="BV7" t="s">
-        <v>71</v>
-      </c>
       <c r="BW7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" t="s">
         <v>73</v>
       </c>
-      <c r="B8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C8" t="s">
-        <v>74</v>
-      </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1">
         <v>320620170703</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" t="s">
         <v>94</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>95</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>96</v>
       </c>
-      <c r="J8" t="s">
-        <v>97</v>
-      </c>
       <c r="K8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O8">
         <v>-9999</v>
@@ -2258,153 +2255,153 @@
         <v>-8888</v>
       </c>
       <c r="R8" t="s">
+        <v>97</v>
+      </c>
+      <c r="T8" t="s">
         <v>98</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
         <v>99</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
         <v>100</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>101</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>102</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>103</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>104</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD8" t="s">
         <v>105</v>
       </c>
-      <c r="AC8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>106</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>107</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AJ8" t="s">
         <v>108</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AL8" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN8" t="s">
         <v>109</v>
       </c>
-      <c r="AL8" t="s">
-        <v>199</v>
-      </c>
-      <c r="AM8" t="s">
+      <c r="AQ8" t="s">
         <v>200</v>
       </c>
-      <c r="AN8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ8" t="s">
+      <c r="AR8" t="s">
         <v>201</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AT8" t="s">
         <v>202</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AY8" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO8" t="s">
         <v>203</v>
       </c>
-      <c r="AY8" t="s">
-        <v>112</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>92</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ8" t="s">
+      <c r="BP8" t="s">
         <v>86</v>
       </c>
-      <c r="BO8" t="s">
+      <c r="BQ8" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>88</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BW8" t="s">
         <v>204</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>87</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>88</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>89</v>
-      </c>
-      <c r="BU8" t="s">
-        <v>70</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>71</v>
-      </c>
-      <c r="BW8" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" t="s">
         <v>73</v>
       </c>
-      <c r="B9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9" t="s">
-        <v>74</v>
-      </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" s="1">
         <v>320620180309</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" t="s">
         <v>94</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>95</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>96</v>
       </c>
-      <c r="J9" t="s">
-        <v>97</v>
-      </c>
       <c r="K9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O9">
         <v>-9999</v>
@@ -2413,135 +2410,135 @@
         <v>-8888</v>
       </c>
       <c r="R9" t="s">
+        <v>97</v>
+      </c>
+      <c r="T9" t="s">
         <v>98</v>
       </c>
-      <c r="T9" t="s">
+      <c r="V9" t="s">
         <v>99</v>
       </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
         <v>100</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>101</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>102</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>103</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>104</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD9" t="s">
         <v>105</v>
       </c>
-      <c r="AC9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>106</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>107</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AJ9" t="s">
         <v>108</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AM9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN9" t="s">
         <v>109</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AQ9" t="s">
         <v>200</v>
       </c>
-      <c r="AN9" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>201</v>
-      </c>
       <c r="AT9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>52</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO9" t="s">
         <v>203</v>
       </c>
-      <c r="AY9" t="s">
-        <v>112</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>113</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>53</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO9" t="s">
+      <c r="BQ9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>88</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BW9" t="s">
         <v>204</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>89</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>70</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>71</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" t="s">
         <v>73</v>
       </c>
-      <c r="B10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10" t="s">
-        <v>74</v>
-      </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="1">
         <v>320620140320</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" t="s">
         <v>212</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>213</v>
       </c>
-      <c r="I10" t="s">
-        <v>214</v>
-      </c>
       <c r="J10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O10">
         <v>-999</v>
@@ -2550,156 +2547,156 @@
         <v>-111</v>
       </c>
       <c r="Q10" t="s">
+        <v>214</v>
+      </c>
+      <c r="R10" t="s">
+        <v>97</v>
+      </c>
+      <c r="T10" t="s">
+        <v>98</v>
+      </c>
+      <c r="V10" t="s">
         <v>215</v>
       </c>
-      <c r="R10" t="s">
-        <v>98</v>
-      </c>
-      <c r="T10" t="s">
-        <v>99</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
+        <v>192</v>
+      </c>
+      <c r="X10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO10" t="s">
         <v>216</v>
       </c>
-      <c r="W10" t="s">
-        <v>193</v>
-      </c>
-      <c r="X10" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>199</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>200</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>202</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>112</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>113</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG10" t="s">
-        <v>92</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ10" t="s">
+      <c r="BP10" t="s">
         <v>86</v>
       </c>
-      <c r="BO10" t="s">
-        <v>217</v>
-      </c>
-      <c r="BP10" t="s">
+      <c r="BQ10" t="s">
         <v>87</v>
       </c>
-      <c r="BQ10" t="s">
+      <c r="BR10" t="s">
         <v>88</v>
       </c>
-      <c r="BR10" t="s">
-        <v>89</v>
-      </c>
       <c r="BU10" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV10" t="s">
         <v>70</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" t="s">
         <v>73</v>
       </c>
-      <c r="B11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="1">
         <v>320620110219</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I11" t="s">
         <v>219</v>
       </c>
-      <c r="H11" t="s">
-        <v>213</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>220</v>
       </c>
-      <c r="J11" t="s">
-        <v>221</v>
-      </c>
       <c r="K11" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O11">
         <v>-999</v>
@@ -2708,2639 +2705,2639 @@
         <v>9.990000000000001E-4</v>
       </c>
       <c r="R11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T11" t="s">
         <v>98</v>
       </c>
-      <c r="T11" t="s">
-        <v>99</v>
-      </c>
       <c r="V11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="W11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y11" t="s">
         <v>101</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>102</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>103</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>104</v>
       </c>
-      <c r="AB11" t="s">
-        <v>105</v>
-      </c>
       <c r="AC11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF11" t="s">
         <v>107</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AJ11" t="s">
         <v>108</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AL11" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN11" t="s">
         <v>109</v>
       </c>
-      <c r="AL11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AM11" t="s">
+      <c r="AQ11" t="s">
         <v>200</v>
       </c>
-      <c r="AN11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ11" t="s">
+      <c r="AR11" t="s">
         <v>201</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AT11" t="s">
         <v>202</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AY11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO11" t="s">
         <v>203</v>
       </c>
-      <c r="AY11" t="s">
-        <v>112</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>113</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG11" t="s">
-        <v>92</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ11" t="s">
+      <c r="BP11" t="s">
         <v>86</v>
       </c>
-      <c r="BO11" t="s">
+      <c r="BQ11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>88</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>70</v>
+      </c>
+      <c r="BW11" t="s">
         <v>204</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>87</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>88</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>89</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>70</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>71</v>
-      </c>
-      <c r="BW11" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" t="s">
         <v>222</v>
       </c>
-      <c r="C12" t="s">
-        <v>223</v>
-      </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="1">
         <v>320619971220</v>
       </c>
       <c r="F12" t="s">
+        <v>223</v>
+      </c>
+      <c r="G12" t="s">
         <v>224</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>212</v>
+      </c>
+      <c r="I12" t="s">
         <v>225</v>
       </c>
-      <c r="H12" t="s">
-        <v>213</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>226</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M12" t="s">
         <v>227</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="M12" t="s">
-        <v>228</v>
       </c>
       <c r="O12">
         <v>-999</v>
       </c>
       <c r="R12" t="s">
+        <v>97</v>
+      </c>
+      <c r="T12" t="s">
         <v>98</v>
       </c>
-      <c r="T12" t="s">
+      <c r="V12" t="s">
         <v>99</v>
       </c>
-      <c r="V12" t="s">
-        <v>100</v>
-      </c>
       <c r="X12" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y12" t="s">
         <v>229</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AA12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG12" t="s">
         <v>230</v>
       </c>
-      <c r="AA12" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>231</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" t="s">
         <v>73</v>
       </c>
-      <c r="B13" t="s">
-        <v>233</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" t="s">
         <v>74</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G13" t="s">
         <v>116</v>
       </c>
-      <c r="E13" t="s">
-        <v>182</v>
-      </c>
-      <c r="F13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>117</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>118</v>
       </c>
-      <c r="J13" t="s">
-        <v>119</v>
-      </c>
       <c r="K13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O13">
         <v>-999</v>
       </c>
       <c r="Q13" t="s">
+        <v>119</v>
+      </c>
+      <c r="R13" t="s">
+        <v>97</v>
+      </c>
+      <c r="T13" t="s">
         <v>120</v>
       </c>
-      <c r="R13" t="s">
-        <v>98</v>
-      </c>
-      <c r="T13" t="s">
+      <c r="V13" t="s">
         <v>121</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>122</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD13" t="s">
         <v>123</v>
       </c>
-      <c r="X13" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC13" t="s">
+      <c r="AE13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF13" t="s">
         <v>79</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AL13" t="s">
         <v>124</v>
       </c>
-      <c r="AE13" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL13" t="s">
+      <c r="AM13" t="s">
         <v>125</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AN13" t="s">
         <v>126</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AQ13" t="s">
         <v>127</v>
       </c>
-      <c r="AQ13" t="s">
+      <c r="AW13" t="s">
         <v>128</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="AY13" t="s">
         <v>129</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="BA13" t="s">
         <v>130</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BB13" t="s">
         <v>131</v>
       </c>
-      <c r="BB13" t="s">
+      <c r="BC13" t="s">
         <v>132</v>
       </c>
-      <c r="BC13" t="s">
+      <c r="BD13" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE13" t="s">
         <v>133</v>
       </c>
-      <c r="BD13" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE13" t="s">
+      <c r="BF13" t="s">
         <v>134</v>
       </c>
-      <c r="BF13" t="s">
+      <c r="BG13" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH13" t="s">
         <v>135</v>
       </c>
-      <c r="BG13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH13" t="s">
+      <c r="BJ13" t="s">
         <v>136</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="BK13" t="s">
         <v>137</v>
       </c>
-      <c r="BK13" t="s">
+      <c r="BL13" t="s">
         <v>138</v>
       </c>
-      <c r="BL13" t="s">
+      <c r="BP13" t="s">
         <v>139</v>
       </c>
-      <c r="BP13" t="s">
+      <c r="BQ13" t="s">
         <v>140</v>
       </c>
-      <c r="BQ13" t="s">
+      <c r="BR13" t="s">
         <v>141</v>
       </c>
-      <c r="BR13" t="s">
+      <c r="BU13" t="s">
         <v>142</v>
       </c>
-      <c r="BU13" t="s">
+      <c r="BV13" t="s">
         <v>143</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" t="s">
         <v>73</v>
       </c>
-      <c r="B14" t="s">
-        <v>256</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" t="s">
         <v>74</v>
       </c>
-      <c r="D14" t="s">
+      <c r="G14" t="s">
         <v>116</v>
       </c>
-      <c r="E14" t="s">
-        <v>255</v>
-      </c>
-      <c r="F14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>117</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>118</v>
       </c>
-      <c r="J14" t="s">
-        <v>119</v>
-      </c>
       <c r="K14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O14">
         <v>-999</v>
       </c>
       <c r="Q14" t="s">
+        <v>119</v>
+      </c>
+      <c r="R14" t="s">
+        <v>97</v>
+      </c>
+      <c r="T14" t="s">
         <v>120</v>
       </c>
-      <c r="R14" t="s">
-        <v>98</v>
-      </c>
-      <c r="T14" t="s">
+      <c r="V14" t="s">
         <v>121</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>122</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s">
         <v>123</v>
       </c>
-      <c r="X14" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC14" t="s">
+      <c r="AE14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF14" t="s">
         <v>79</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AL14" t="s">
         <v>124</v>
       </c>
-      <c r="AE14" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL14" t="s">
+      <c r="AM14" t="s">
         <v>125</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AN14" t="s">
         <v>126</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AQ14" t="s">
         <v>127</v>
       </c>
-      <c r="AQ14" t="s">
+      <c r="AW14" t="s">
         <v>128</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="AY14" t="s">
         <v>129</v>
       </c>
-      <c r="AY14" t="s">
+      <c r="BA14" t="s">
         <v>130</v>
       </c>
-      <c r="BA14" t="s">
+      <c r="BB14" t="s">
         <v>131</v>
       </c>
-      <c r="BB14" t="s">
+      <c r="BC14" t="s">
         <v>132</v>
       </c>
-      <c r="BC14" t="s">
+      <c r="BD14" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE14" t="s">
         <v>133</v>
       </c>
-      <c r="BD14" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE14" t="s">
+      <c r="BF14" t="s">
         <v>134</v>
       </c>
-      <c r="BF14" t="s">
+      <c r="BG14" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH14" t="s">
         <v>135</v>
       </c>
-      <c r="BG14" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH14" t="s">
+      <c r="BJ14" t="s">
         <v>136</v>
       </c>
-      <c r="BJ14" t="s">
+      <c r="BK14" t="s">
         <v>137</v>
       </c>
-      <c r="BK14" t="s">
+      <c r="BL14" t="s">
         <v>138</v>
       </c>
-      <c r="BL14" t="s">
+      <c r="BP14" t="s">
         <v>139</v>
       </c>
-      <c r="BP14" t="s">
+      <c r="BQ14" t="s">
         <v>140</v>
       </c>
-      <c r="BQ14" t="s">
+      <c r="BR14" t="s">
         <v>141</v>
       </c>
-      <c r="BR14" t="s">
+      <c r="BU14" t="s">
         <v>142</v>
       </c>
-      <c r="BU14" t="s">
+      <c r="BV14" t="s">
         <v>143</v>
-      </c>
-      <c r="BV14" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C15" t="s">
         <v>73</v>
       </c>
-      <c r="B15" t="s">
-        <v>257</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" t="s">
+        <v>254</v>
+      </c>
+      <c r="F15" t="s">
         <v>74</v>
       </c>
-      <c r="D15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" t="s">
-        <v>255</v>
-      </c>
-      <c r="F15" t="s">
-        <v>75</v>
-      </c>
       <c r="G15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" t="s">
         <v>145</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>146</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
+        <v>285</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M15" t="s">
         <v>147</v>
-      </c>
-      <c r="K15" t="s">
-        <v>286</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="M15" t="s">
-        <v>148</v>
       </c>
       <c r="O15">
         <v>-999</v>
       </c>
       <c r="Q15" t="s">
+        <v>148</v>
+      </c>
+      <c r="R15" t="s">
+        <v>97</v>
+      </c>
+      <c r="T15" t="s">
+        <v>120</v>
+      </c>
+      <c r="V15" t="s">
+        <v>121</v>
+      </c>
+      <c r="W15" t="s">
+        <v>122</v>
+      </c>
+      <c r="X15" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG15" t="s">
         <v>149</v>
       </c>
-      <c r="R15" t="s">
-        <v>98</v>
-      </c>
-      <c r="T15" t="s">
-        <v>121</v>
-      </c>
-      <c r="V15" t="s">
-        <v>122</v>
-      </c>
-      <c r="W15" t="s">
-        <v>123</v>
-      </c>
-      <c r="X15" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>150</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" t="s">
         <v>73</v>
       </c>
-      <c r="B16" t="s">
-        <v>234</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" t="s">
         <v>74</v>
       </c>
-      <c r="D16" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" t="s">
-        <v>183</v>
-      </c>
-      <c r="F16" t="s">
-        <v>75</v>
-      </c>
       <c r="G16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" t="s">
         <v>145</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>146</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
+        <v>285</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M16" t="s">
         <v>147</v>
-      </c>
-      <c r="K16" t="s">
-        <v>286</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="M16" t="s">
-        <v>148</v>
       </c>
       <c r="O16">
         <v>-999</v>
       </c>
       <c r="Q16" t="s">
+        <v>148</v>
+      </c>
+      <c r="R16" t="s">
+        <v>97</v>
+      </c>
+      <c r="T16" t="s">
+        <v>120</v>
+      </c>
+      <c r="V16" t="s">
+        <v>121</v>
+      </c>
+      <c r="W16" t="s">
+        <v>122</v>
+      </c>
+      <c r="X16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG16" t="s">
         <v>149</v>
       </c>
-      <c r="R16" t="s">
-        <v>98</v>
-      </c>
-      <c r="T16" t="s">
-        <v>121</v>
-      </c>
-      <c r="V16" t="s">
-        <v>122</v>
-      </c>
-      <c r="W16" t="s">
-        <v>123</v>
-      </c>
-      <c r="X16" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>150</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" t="s">
         <v>73</v>
       </c>
-      <c r="B17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" t="s">
         <v>74</v>
       </c>
-      <c r="D17" t="s">
+      <c r="G17" t="s">
         <v>116</v>
       </c>
-      <c r="E17" t="s">
-        <v>183</v>
-      </c>
-      <c r="F17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>117</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>118</v>
       </c>
-      <c r="J17" t="s">
-        <v>119</v>
-      </c>
       <c r="K17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O17">
         <v>-999</v>
       </c>
       <c r="Q17" t="s">
+        <v>119</v>
+      </c>
+      <c r="R17" t="s">
+        <v>97</v>
+      </c>
+      <c r="T17" t="s">
         <v>120</v>
       </c>
-      <c r="R17" t="s">
-        <v>98</v>
-      </c>
-      <c r="T17" t="s">
+      <c r="V17" t="s">
         <v>121</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>122</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD17" t="s">
         <v>123</v>
       </c>
-      <c r="X17" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s">
+      <c r="AE17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF17" t="s">
         <v>79</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AL17" t="s">
         <v>124</v>
       </c>
-      <c r="AE17" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL17" t="s">
+      <c r="AM17" t="s">
         <v>125</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AN17" t="s">
         <v>126</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="AQ17" t="s">
         <v>127</v>
       </c>
-      <c r="AQ17" t="s">
+      <c r="AW17" t="s">
         <v>128</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AY17" t="s">
         <v>129</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="BA17" t="s">
         <v>130</v>
       </c>
-      <c r="BA17" t="s">
+      <c r="BB17" t="s">
         <v>131</v>
       </c>
-      <c r="BB17" t="s">
+      <c r="BC17" t="s">
         <v>132</v>
       </c>
-      <c r="BC17" t="s">
+      <c r="BD17" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE17" t="s">
         <v>133</v>
       </c>
-      <c r="BD17" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE17" t="s">
+      <c r="BF17" t="s">
         <v>134</v>
       </c>
-      <c r="BF17" t="s">
+      <c r="BG17" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH17" t="s">
         <v>135</v>
       </c>
-      <c r="BG17" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH17" t="s">
+      <c r="BJ17" t="s">
         <v>136</v>
       </c>
-      <c r="BJ17" t="s">
+      <c r="BK17" t="s">
         <v>137</v>
       </c>
-      <c r="BK17" t="s">
+      <c r="BL17" t="s">
         <v>138</v>
       </c>
-      <c r="BL17" t="s">
+      <c r="BP17" t="s">
         <v>139</v>
       </c>
-      <c r="BP17" t="s">
+      <c r="BQ17" t="s">
         <v>140</v>
       </c>
-      <c r="BQ17" t="s">
+      <c r="BR17" t="s">
         <v>141</v>
       </c>
-      <c r="BR17" t="s">
+      <c r="BU17" t="s">
         <v>142</v>
       </c>
-      <c r="BU17" t="s">
+      <c r="BV17" t="s">
         <v>143</v>
-      </c>
-      <c r="BV17" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" t="s">
         <v>73</v>
       </c>
-      <c r="B18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" t="s">
         <v>74</v>
       </c>
-      <c r="D18" t="s">
+      <c r="G18" t="s">
         <v>116</v>
       </c>
-      <c r="E18" t="s">
-        <v>184</v>
-      </c>
-      <c r="F18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>117</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>118</v>
       </c>
-      <c r="J18" t="s">
-        <v>119</v>
-      </c>
       <c r="K18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O18">
         <v>-999</v>
       </c>
       <c r="Q18" t="s">
+        <v>119</v>
+      </c>
+      <c r="R18" t="s">
+        <v>97</v>
+      </c>
+      <c r="T18" t="s">
         <v>120</v>
       </c>
-      <c r="R18" t="s">
-        <v>98</v>
-      </c>
-      <c r="T18" t="s">
+      <c r="V18" t="s">
         <v>121</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>122</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD18" t="s">
         <v>123</v>
       </c>
-      <c r="X18" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC18" t="s">
+      <c r="AE18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF18" t="s">
         <v>79</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AL18" t="s">
         <v>124</v>
       </c>
-      <c r="AE18" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL18" t="s">
+      <c r="AM18" t="s">
         <v>125</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AN18" t="s">
         <v>126</v>
       </c>
-      <c r="AN18" t="s">
+      <c r="AQ18" t="s">
         <v>127</v>
       </c>
-      <c r="AQ18" t="s">
+      <c r="AW18" t="s">
         <v>128</v>
       </c>
-      <c r="AW18" t="s">
+      <c r="AY18" t="s">
         <v>129</v>
       </c>
-      <c r="AY18" t="s">
+      <c r="BA18" t="s">
         <v>130</v>
       </c>
-      <c r="BA18" t="s">
+      <c r="BB18" t="s">
         <v>131</v>
       </c>
-      <c r="BB18" t="s">
+      <c r="BC18" t="s">
         <v>132</v>
       </c>
-      <c r="BC18" t="s">
+      <c r="BD18" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE18" t="s">
         <v>133</v>
       </c>
-      <c r="BD18" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE18" t="s">
+      <c r="BF18" t="s">
         <v>134</v>
       </c>
-      <c r="BF18" t="s">
+      <c r="BG18" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH18" t="s">
         <v>135</v>
       </c>
-      <c r="BG18" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH18" t="s">
+      <c r="BJ18" t="s">
         <v>136</v>
       </c>
-      <c r="BJ18" t="s">
+      <c r="BK18" t="s">
         <v>137</v>
       </c>
-      <c r="BK18" t="s">
+      <c r="BL18" t="s">
         <v>138</v>
       </c>
-      <c r="BL18" t="s">
+      <c r="BP18" t="s">
         <v>139</v>
       </c>
-      <c r="BP18" t="s">
+      <c r="BQ18" t="s">
         <v>140</v>
       </c>
-      <c r="BQ18" t="s">
+      <c r="BR18" t="s">
         <v>141</v>
       </c>
-      <c r="BR18" t="s">
+      <c r="BU18" t="s">
         <v>142</v>
       </c>
-      <c r="BU18" t="s">
+      <c r="BV18" t="s">
         <v>143</v>
-      </c>
-      <c r="BV18" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" t="s">
         <v>73</v>
       </c>
-      <c r="B19" t="s">
-        <v>237</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" t="s">
         <v>74</v>
       </c>
-      <c r="D19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" t="s">
-        <v>184</v>
-      </c>
-      <c r="F19" t="s">
-        <v>75</v>
-      </c>
       <c r="G19" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" t="s">
         <v>145</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>146</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
+        <v>285</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M19" t="s">
         <v>147</v>
-      </c>
-      <c r="K19" t="s">
-        <v>286</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="M19" t="s">
-        <v>148</v>
       </c>
       <c r="O19">
         <v>-999</v>
       </c>
       <c r="Q19" t="s">
+        <v>148</v>
+      </c>
+      <c r="R19" t="s">
+        <v>97</v>
+      </c>
+      <c r="T19" t="s">
+        <v>120</v>
+      </c>
+      <c r="V19" t="s">
+        <v>121</v>
+      </c>
+      <c r="W19" t="s">
+        <v>122</v>
+      </c>
+      <c r="X19" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG19" t="s">
         <v>149</v>
       </c>
-      <c r="R19" t="s">
-        <v>98</v>
-      </c>
-      <c r="T19" t="s">
-        <v>121</v>
-      </c>
-      <c r="V19" t="s">
-        <v>122</v>
-      </c>
-      <c r="W19" t="s">
-        <v>123</v>
-      </c>
-      <c r="X19" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>150</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" t="s">
         <v>73</v>
       </c>
-      <c r="B20" t="s">
-        <v>238</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" t="s">
         <v>74</v>
       </c>
-      <c r="D20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" t="s">
-        <v>185</v>
-      </c>
-      <c r="F20" t="s">
-        <v>75</v>
-      </c>
       <c r="G20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" t="s">
         <v>145</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>146</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
+        <v>285</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M20" t="s">
         <v>147</v>
-      </c>
-      <c r="K20" t="s">
-        <v>286</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="M20" t="s">
-        <v>148</v>
       </c>
       <c r="O20">
         <v>-999</v>
       </c>
       <c r="Q20" t="s">
+        <v>148</v>
+      </c>
+      <c r="R20" t="s">
+        <v>97</v>
+      </c>
+      <c r="T20" t="s">
+        <v>120</v>
+      </c>
+      <c r="V20" t="s">
+        <v>121</v>
+      </c>
+      <c r="W20" t="s">
+        <v>122</v>
+      </c>
+      <c r="X20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG20" t="s">
         <v>149</v>
       </c>
-      <c r="R20" t="s">
-        <v>98</v>
-      </c>
-      <c r="T20" t="s">
-        <v>121</v>
-      </c>
-      <c r="V20" t="s">
-        <v>122</v>
-      </c>
-      <c r="W20" t="s">
-        <v>123</v>
-      </c>
-      <c r="X20" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG20" t="s">
+      <c r="AH20" t="s">
         <v>150</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" t="s">
         <v>73</v>
       </c>
-      <c r="B21" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" t="s">
         <v>74</v>
       </c>
-      <c r="D21" t="s">
+      <c r="G21" t="s">
         <v>116</v>
       </c>
-      <c r="E21" t="s">
-        <v>186</v>
-      </c>
-      <c r="F21" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>117</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>118</v>
       </c>
-      <c r="J21" t="s">
-        <v>119</v>
-      </c>
       <c r="K21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O21">
         <v>-999</v>
       </c>
       <c r="Q21" t="s">
+        <v>119</v>
+      </c>
+      <c r="R21" t="s">
+        <v>97</v>
+      </c>
+      <c r="T21" t="s">
         <v>120</v>
       </c>
-      <c r="R21" t="s">
-        <v>98</v>
-      </c>
-      <c r="T21" t="s">
+      <c r="V21" t="s">
         <v>121</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>122</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD21" t="s">
         <v>123</v>
       </c>
-      <c r="X21" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC21" t="s">
+      <c r="AE21" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF21" t="s">
         <v>79</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AL21" t="s">
         <v>124</v>
       </c>
-      <c r="AE21" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL21" t="s">
+      <c r="AM21" t="s">
         <v>125</v>
       </c>
-      <c r="AM21" t="s">
+      <c r="AN21" t="s">
         <v>126</v>
       </c>
-      <c r="AN21" t="s">
+      <c r="AQ21" t="s">
         <v>127</v>
       </c>
-      <c r="AQ21" t="s">
+      <c r="AW21" t="s">
         <v>128</v>
       </c>
-      <c r="AW21" t="s">
+      <c r="AY21" t="s">
         <v>129</v>
       </c>
-      <c r="AY21" t="s">
+      <c r="BA21" t="s">
         <v>130</v>
       </c>
-      <c r="BA21" t="s">
+      <c r="BB21" t="s">
         <v>131</v>
       </c>
-      <c r="BB21" t="s">
+      <c r="BC21" t="s">
         <v>132</v>
       </c>
-      <c r="BC21" t="s">
+      <c r="BD21" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE21" t="s">
         <v>133</v>
       </c>
-      <c r="BD21" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE21" t="s">
+      <c r="BF21" t="s">
         <v>134</v>
       </c>
-      <c r="BF21" t="s">
+      <c r="BG21" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH21" t="s">
         <v>135</v>
       </c>
-      <c r="BG21" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH21" t="s">
+      <c r="BJ21" t="s">
         <v>136</v>
       </c>
-      <c r="BJ21" t="s">
+      <c r="BK21" t="s">
         <v>137</v>
       </c>
-      <c r="BK21" t="s">
+      <c r="BL21" t="s">
         <v>138</v>
       </c>
-      <c r="BL21" t="s">
+      <c r="BP21" t="s">
         <v>139</v>
       </c>
-      <c r="BP21" t="s">
+      <c r="BQ21" t="s">
         <v>140</v>
       </c>
-      <c r="BQ21" t="s">
+      <c r="BR21" t="s">
         <v>141</v>
       </c>
-      <c r="BR21" t="s">
+      <c r="BU21" t="s">
         <v>142</v>
       </c>
-      <c r="BU21" t="s">
+      <c r="BV21" t="s">
         <v>143</v>
-      </c>
-      <c r="BV21" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C22" t="s">
         <v>73</v>
       </c>
-      <c r="B22" t="s">
-        <v>240</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" t="s">
         <v>74</v>
       </c>
-      <c r="D22" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" t="s">
-        <v>186</v>
-      </c>
-      <c r="F22" t="s">
-        <v>75</v>
-      </c>
       <c r="G22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" t="s">
         <v>145</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>146</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
+        <v>285</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M22" t="s">
         <v>147</v>
-      </c>
-      <c r="K22" t="s">
-        <v>286</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="M22" t="s">
-        <v>148</v>
       </c>
       <c r="O22">
         <v>-999</v>
       </c>
       <c r="Q22" t="s">
+        <v>148</v>
+      </c>
+      <c r="R22" t="s">
+        <v>97</v>
+      </c>
+      <c r="T22" t="s">
+        <v>120</v>
+      </c>
+      <c r="V22" t="s">
+        <v>121</v>
+      </c>
+      <c r="W22" t="s">
+        <v>122</v>
+      </c>
+      <c r="X22" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG22" t="s">
         <v>149</v>
       </c>
-      <c r="R22" t="s">
-        <v>98</v>
-      </c>
-      <c r="T22" t="s">
-        <v>121</v>
-      </c>
-      <c r="V22" t="s">
-        <v>122</v>
-      </c>
-      <c r="W22" t="s">
-        <v>123</v>
-      </c>
-      <c r="X22" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG22" t="s">
+      <c r="AH22" t="s">
         <v>150</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" t="s">
         <v>73</v>
       </c>
-      <c r="B23" t="s">
-        <v>241</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" t="s">
         <v>74</v>
       </c>
-      <c r="D23" t="s">
+      <c r="G23" t="s">
         <v>116</v>
       </c>
-      <c r="E23" t="s">
-        <v>187</v>
-      </c>
-      <c r="F23" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>117</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>118</v>
       </c>
-      <c r="J23" t="s">
-        <v>119</v>
-      </c>
       <c r="K23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O23">
         <v>-999</v>
       </c>
       <c r="Q23" t="s">
+        <v>119</v>
+      </c>
+      <c r="R23" t="s">
+        <v>97</v>
+      </c>
+      <c r="T23" t="s">
         <v>120</v>
       </c>
-      <c r="R23" t="s">
-        <v>98</v>
-      </c>
-      <c r="T23" t="s">
+      <c r="V23" t="s">
         <v>121</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>122</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD23" t="s">
         <v>123</v>
       </c>
-      <c r="X23" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC23" t="s">
+      <c r="AE23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF23" t="s">
         <v>79</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AL23" t="s">
         <v>124</v>
       </c>
-      <c r="AE23" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL23" t="s">
+      <c r="AM23" t="s">
         <v>125</v>
       </c>
-      <c r="AM23" t="s">
+      <c r="AN23" t="s">
         <v>126</v>
       </c>
-      <c r="AN23" t="s">
+      <c r="AQ23" t="s">
         <v>127</v>
       </c>
-      <c r="AQ23" t="s">
+      <c r="AW23" t="s">
         <v>128</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="AY23" t="s">
         <v>129</v>
       </c>
-      <c r="AY23" t="s">
+      <c r="BA23" t="s">
         <v>130</v>
       </c>
-      <c r="BA23" t="s">
+      <c r="BB23" t="s">
         <v>131</v>
       </c>
-      <c r="BB23" t="s">
+      <c r="BC23" t="s">
         <v>132</v>
       </c>
-      <c r="BC23" t="s">
+      <c r="BD23" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE23" t="s">
         <v>133</v>
       </c>
-      <c r="BD23" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE23" t="s">
+      <c r="BF23" t="s">
         <v>134</v>
       </c>
-      <c r="BF23" t="s">
+      <c r="BG23" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH23" t="s">
         <v>135</v>
       </c>
-      <c r="BG23" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH23" t="s">
+      <c r="BJ23" t="s">
         <v>136</v>
       </c>
-      <c r="BJ23" t="s">
+      <c r="BK23" t="s">
         <v>137</v>
       </c>
-      <c r="BK23" t="s">
+      <c r="BL23" t="s">
         <v>138</v>
       </c>
-      <c r="BL23" t="s">
+      <c r="BP23" t="s">
         <v>139</v>
       </c>
-      <c r="BP23" t="s">
+      <c r="BQ23" t="s">
         <v>140</v>
       </c>
-      <c r="BQ23" t="s">
+      <c r="BR23" t="s">
         <v>141</v>
       </c>
-      <c r="BR23" t="s">
+      <c r="BU23" t="s">
         <v>142</v>
       </c>
-      <c r="BU23" t="s">
+      <c r="BV23" t="s">
         <v>143</v>
-      </c>
-      <c r="BV23" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" t="s">
         <v>73</v>
       </c>
-      <c r="B24" t="s">
-        <v>242</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" t="s">
         <v>74</v>
       </c>
-      <c r="D24" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" t="s">
-        <v>187</v>
-      </c>
-      <c r="F24" t="s">
-        <v>75</v>
-      </c>
       <c r="G24" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" t="s">
         <v>145</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>146</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
+        <v>285</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M24" t="s">
         <v>147</v>
-      </c>
-      <c r="K24" t="s">
-        <v>286</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="M24" t="s">
-        <v>148</v>
       </c>
       <c r="O24">
         <v>-999</v>
       </c>
       <c r="Q24" t="s">
+        <v>148</v>
+      </c>
+      <c r="R24" t="s">
+        <v>97</v>
+      </c>
+      <c r="T24" t="s">
+        <v>120</v>
+      </c>
+      <c r="V24" t="s">
+        <v>121</v>
+      </c>
+      <c r="W24" t="s">
+        <v>122</v>
+      </c>
+      <c r="X24" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG24" t="s">
         <v>149</v>
       </c>
-      <c r="R24" t="s">
-        <v>98</v>
-      </c>
-      <c r="T24" t="s">
-        <v>121</v>
-      </c>
-      <c r="V24" t="s">
-        <v>122</v>
-      </c>
-      <c r="W24" t="s">
-        <v>123</v>
-      </c>
-      <c r="X24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG24" t="s">
+      <c r="AH24" t="s">
         <v>150</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>242</v>
+      </c>
+      <c r="C25" t="s">
         <v>73</v>
       </c>
-      <c r="B25" t="s">
-        <v>243</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" t="s">
         <v>74</v>
       </c>
-      <c r="D25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" t="s">
-        <v>188</v>
-      </c>
-      <c r="F25" t="s">
-        <v>75</v>
-      </c>
       <c r="G25" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" t="s">
         <v>145</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>146</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
+        <v>285</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M25" t="s">
         <v>147</v>
-      </c>
-      <c r="K25" t="s">
-        <v>286</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="M25" t="s">
-        <v>148</v>
       </c>
       <c r="O25">
         <v>-999</v>
       </c>
       <c r="Q25" t="s">
+        <v>148</v>
+      </c>
+      <c r="R25" t="s">
+        <v>97</v>
+      </c>
+      <c r="T25" t="s">
+        <v>120</v>
+      </c>
+      <c r="V25" t="s">
+        <v>121</v>
+      </c>
+      <c r="W25" t="s">
+        <v>122</v>
+      </c>
+      <c r="X25" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG25" t="s">
         <v>149</v>
       </c>
-      <c r="R25" t="s">
-        <v>98</v>
-      </c>
-      <c r="T25" t="s">
-        <v>121</v>
-      </c>
-      <c r="V25" t="s">
-        <v>122</v>
-      </c>
-      <c r="W25" t="s">
-        <v>123</v>
-      </c>
-      <c r="X25" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
         <v>150</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" t="s">
         <v>73</v>
       </c>
-      <c r="B26" t="s">
-        <v>244</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" t="s">
         <v>74</v>
       </c>
-      <c r="D26" t="s">
+      <c r="G26" t="s">
         <v>116</v>
       </c>
-      <c r="E26" t="s">
-        <v>188</v>
-      </c>
-      <c r="F26" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
         <v>117</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>118</v>
       </c>
-      <c r="J26" t="s">
-        <v>119</v>
-      </c>
       <c r="K26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O26">
         <v>-999</v>
       </c>
       <c r="Q26" t="s">
+        <v>119</v>
+      </c>
+      <c r="R26" t="s">
+        <v>97</v>
+      </c>
+      <c r="T26" t="s">
         <v>120</v>
       </c>
-      <c r="R26" t="s">
-        <v>98</v>
-      </c>
-      <c r="T26" t="s">
+      <c r="V26" t="s">
         <v>121</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>122</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD26" t="s">
         <v>123</v>
       </c>
-      <c r="X26" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC26" t="s">
+      <c r="AE26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF26" t="s">
         <v>79</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AL26" t="s">
         <v>124</v>
       </c>
-      <c r="AE26" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL26" t="s">
+      <c r="AM26" t="s">
         <v>125</v>
       </c>
-      <c r="AM26" t="s">
+      <c r="AN26" t="s">
         <v>126</v>
       </c>
-      <c r="AN26" t="s">
+      <c r="AQ26" t="s">
         <v>127</v>
       </c>
-      <c r="AQ26" t="s">
+      <c r="AW26" t="s">
         <v>128</v>
       </c>
-      <c r="AW26" t="s">
+      <c r="AY26" t="s">
         <v>129</v>
       </c>
-      <c r="AY26" t="s">
+      <c r="BA26" t="s">
         <v>130</v>
       </c>
-      <c r="BA26" t="s">
+      <c r="BB26" t="s">
         <v>131</v>
       </c>
-      <c r="BB26" t="s">
+      <c r="BC26" t="s">
         <v>132</v>
       </c>
-      <c r="BC26" t="s">
+      <c r="BD26" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE26" t="s">
         <v>133</v>
       </c>
-      <c r="BD26" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE26" t="s">
+      <c r="BF26" t="s">
         <v>134</v>
       </c>
-      <c r="BF26" t="s">
+      <c r="BG26" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH26" t="s">
         <v>135</v>
       </c>
-      <c r="BG26" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH26" t="s">
+      <c r="BJ26" t="s">
         <v>136</v>
       </c>
-      <c r="BJ26" t="s">
+      <c r="BK26" t="s">
         <v>137</v>
       </c>
-      <c r="BK26" t="s">
+      <c r="BL26" t="s">
         <v>138</v>
       </c>
-      <c r="BL26" t="s">
+      <c r="BP26" t="s">
         <v>139</v>
       </c>
-      <c r="BP26" t="s">
+      <c r="BQ26" t="s">
         <v>140</v>
       </c>
-      <c r="BQ26" t="s">
+      <c r="BR26" t="s">
         <v>141</v>
       </c>
-      <c r="BR26" t="s">
+      <c r="BU26" t="s">
         <v>142</v>
       </c>
-      <c r="BU26" t="s">
+      <c r="BV26" t="s">
         <v>143</v>
-      </c>
-      <c r="BV26" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" t="s">
         <v>73</v>
       </c>
-      <c r="B27" t="s">
-        <v>245</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" t="s">
         <v>74</v>
       </c>
-      <c r="D27" t="s">
+      <c r="G27" t="s">
         <v>116</v>
       </c>
-      <c r="E27" t="s">
-        <v>189</v>
-      </c>
-      <c r="F27" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="I27" t="s">
         <v>117</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>118</v>
       </c>
-      <c r="J27" t="s">
-        <v>119</v>
-      </c>
       <c r="K27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O27">
         <v>-999</v>
       </c>
       <c r="Q27" t="s">
+        <v>119</v>
+      </c>
+      <c r="R27" t="s">
+        <v>97</v>
+      </c>
+      <c r="T27" t="s">
         <v>120</v>
       </c>
-      <c r="R27" t="s">
-        <v>98</v>
-      </c>
-      <c r="T27" t="s">
+      <c r="V27" t="s">
         <v>121</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>122</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD27" t="s">
         <v>123</v>
       </c>
-      <c r="X27" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC27" t="s">
+      <c r="AE27" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF27" t="s">
         <v>79</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AL27" t="s">
         <v>124</v>
       </c>
-      <c r="AE27" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL27" t="s">
+      <c r="AM27" t="s">
         <v>125</v>
       </c>
-      <c r="AM27" t="s">
+      <c r="AN27" t="s">
         <v>126</v>
       </c>
-      <c r="AN27" t="s">
+      <c r="AQ27" t="s">
         <v>127</v>
       </c>
-      <c r="AQ27" t="s">
+      <c r="AW27" t="s">
         <v>128</v>
       </c>
-      <c r="AW27" t="s">
+      <c r="AY27" t="s">
         <v>129</v>
       </c>
-      <c r="AY27" t="s">
+      <c r="BA27" t="s">
         <v>130</v>
       </c>
-      <c r="BA27" t="s">
+      <c r="BB27" t="s">
         <v>131</v>
       </c>
-      <c r="BB27" t="s">
+      <c r="BC27" t="s">
         <v>132</v>
       </c>
-      <c r="BC27" t="s">
+      <c r="BD27" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE27" t="s">
         <v>133</v>
       </c>
-      <c r="BD27" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE27" t="s">
+      <c r="BF27" t="s">
         <v>134</v>
       </c>
-      <c r="BF27" t="s">
+      <c r="BG27" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH27" t="s">
         <v>135</v>
       </c>
-      <c r="BG27" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH27" t="s">
+      <c r="BJ27" t="s">
         <v>136</v>
       </c>
-      <c r="BJ27" t="s">
+      <c r="BK27" t="s">
         <v>137</v>
       </c>
-      <c r="BK27" t="s">
+      <c r="BL27" t="s">
         <v>138</v>
       </c>
-      <c r="BL27" t="s">
+      <c r="BP27" t="s">
         <v>139</v>
       </c>
-      <c r="BP27" t="s">
+      <c r="BQ27" t="s">
         <v>140</v>
       </c>
-      <c r="BQ27" t="s">
+      <c r="BR27" t="s">
         <v>141</v>
       </c>
-      <c r="BR27" t="s">
+      <c r="BU27" t="s">
         <v>142</v>
       </c>
-      <c r="BU27" t="s">
+      <c r="BV27" t="s">
         <v>143</v>
-      </c>
-      <c r="BV27" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" t="s">
         <v>73</v>
       </c>
-      <c r="B28" t="s">
-        <v>246</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" t="s">
         <v>74</v>
       </c>
-      <c r="D28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" t="s">
-        <v>189</v>
-      </c>
-      <c r="F28" t="s">
-        <v>75</v>
-      </c>
       <c r="G28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" t="s">
         <v>145</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>146</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
+        <v>285</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M28" t="s">
         <v>147</v>
-      </c>
-      <c r="K28" t="s">
-        <v>286</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="M28" t="s">
-        <v>148</v>
       </c>
       <c r="O28">
         <v>-999</v>
       </c>
       <c r="Q28" t="s">
+        <v>148</v>
+      </c>
+      <c r="R28" t="s">
+        <v>97</v>
+      </c>
+      <c r="T28" t="s">
+        <v>120</v>
+      </c>
+      <c r="V28" t="s">
+        <v>121</v>
+      </c>
+      <c r="W28" t="s">
+        <v>122</v>
+      </c>
+      <c r="X28" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG28" t="s">
         <v>149</v>
       </c>
-      <c r="R28" t="s">
-        <v>98</v>
-      </c>
-      <c r="T28" t="s">
-        <v>121</v>
-      </c>
-      <c r="V28" t="s">
-        <v>122</v>
-      </c>
-      <c r="W28" t="s">
-        <v>123</v>
-      </c>
-      <c r="X28" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG28" t="s">
+      <c r="AH28" t="s">
         <v>150</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29" t="s">
         <v>73</v>
       </c>
-      <c r="B29" t="s">
-        <v>247</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" t="s">
         <v>74</v>
       </c>
-      <c r="D29" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" t="s">
-        <v>190</v>
-      </c>
-      <c r="F29" t="s">
-        <v>75</v>
-      </c>
       <c r="G29" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" t="s">
         <v>145</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>146</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
+        <v>285</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M29" t="s">
         <v>147</v>
-      </c>
-      <c r="K29" t="s">
-        <v>286</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="M29" t="s">
-        <v>148</v>
       </c>
       <c r="O29">
         <v>-999</v>
       </c>
       <c r="Q29" t="s">
+        <v>148</v>
+      </c>
+      <c r="R29" t="s">
+        <v>97</v>
+      </c>
+      <c r="T29" t="s">
+        <v>120</v>
+      </c>
+      <c r="V29" t="s">
+        <v>121</v>
+      </c>
+      <c r="W29" t="s">
+        <v>122</v>
+      </c>
+      <c r="X29" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG29" t="s">
         <v>149</v>
       </c>
-      <c r="R29" t="s">
-        <v>98</v>
-      </c>
-      <c r="T29" t="s">
-        <v>121</v>
-      </c>
-      <c r="V29" t="s">
-        <v>122</v>
-      </c>
-      <c r="W29" t="s">
-        <v>123</v>
-      </c>
-      <c r="X29" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG29" t="s">
+      <c r="AH29" t="s">
         <v>150</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" t="s">
         <v>73</v>
       </c>
-      <c r="B30" t="s">
-        <v>248</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" t="s">
         <v>74</v>
       </c>
-      <c r="D30" t="s">
+      <c r="G30" t="s">
         <v>116</v>
       </c>
-      <c r="E30" t="s">
-        <v>190</v>
-      </c>
-      <c r="F30" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="I30" t="s">
         <v>117</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>118</v>
       </c>
-      <c r="J30" t="s">
-        <v>119</v>
-      </c>
       <c r="K30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O30">
         <v>-999</v>
       </c>
       <c r="Q30" t="s">
+        <v>119</v>
+      </c>
+      <c r="R30" t="s">
+        <v>97</v>
+      </c>
+      <c r="T30" t="s">
         <v>120</v>
       </c>
-      <c r="R30" t="s">
-        <v>98</v>
-      </c>
-      <c r="T30" t="s">
+      <c r="V30" t="s">
         <v>121</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>122</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD30" t="s">
         <v>123</v>
       </c>
-      <c r="X30" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC30" t="s">
+      <c r="AE30" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF30" t="s">
         <v>79</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AL30" t="s">
         <v>124</v>
       </c>
-      <c r="AE30" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL30" t="s">
+      <c r="AM30" t="s">
         <v>125</v>
       </c>
-      <c r="AM30" t="s">
+      <c r="AN30" t="s">
         <v>126</v>
       </c>
-      <c r="AN30" t="s">
+      <c r="AQ30" t="s">
         <v>127</v>
       </c>
-      <c r="AQ30" t="s">
+      <c r="AW30" t="s">
         <v>128</v>
       </c>
-      <c r="AW30" t="s">
+      <c r="AY30" t="s">
         <v>129</v>
       </c>
-      <c r="AY30" t="s">
+      <c r="BA30" t="s">
         <v>130</v>
       </c>
-      <c r="BA30" t="s">
+      <c r="BB30" t="s">
         <v>131</v>
       </c>
-      <c r="BB30" t="s">
+      <c r="BC30" t="s">
         <v>132</v>
       </c>
-      <c r="BC30" t="s">
+      <c r="BD30" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE30" t="s">
         <v>133</v>
       </c>
-      <c r="BD30" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE30" t="s">
+      <c r="BF30" t="s">
         <v>134</v>
       </c>
-      <c r="BF30" t="s">
+      <c r="BG30" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH30" t="s">
         <v>135</v>
       </c>
-      <c r="BG30" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH30" t="s">
+      <c r="BJ30" t="s">
         <v>136</v>
       </c>
-      <c r="BJ30" t="s">
+      <c r="BK30" t="s">
         <v>137</v>
       </c>
-      <c r="BK30" t="s">
+      <c r="BL30" t="s">
         <v>138</v>
       </c>
-      <c r="BL30" t="s">
+      <c r="BP30" t="s">
         <v>139</v>
       </c>
-      <c r="BP30" t="s">
+      <c r="BQ30" t="s">
         <v>140</v>
       </c>
-      <c r="BQ30" t="s">
+      <c r="BR30" t="s">
         <v>141</v>
       </c>
-      <c r="BR30" t="s">
+      <c r="BU30" t="s">
         <v>142</v>
       </c>
-      <c r="BU30" t="s">
+      <c r="BV30" t="s">
         <v>143</v>
-      </c>
-      <c r="BV30" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>248</v>
+      </c>
+      <c r="C31" t="s">
         <v>73</v>
       </c>
-      <c r="B31" t="s">
-        <v>249</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" t="s">
         <v>74</v>
       </c>
-      <c r="D31" t="s">
+      <c r="G31" t="s">
         <v>116</v>
       </c>
-      <c r="E31" t="s">
-        <v>191</v>
-      </c>
-      <c r="F31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
         <v>117</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>118</v>
       </c>
-      <c r="J31" t="s">
-        <v>119</v>
-      </c>
       <c r="K31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O31">
         <v>-999</v>
       </c>
       <c r="Q31" t="s">
+        <v>119</v>
+      </c>
+      <c r="R31" t="s">
+        <v>97</v>
+      </c>
+      <c r="T31" t="s">
         <v>120</v>
       </c>
-      <c r="R31" t="s">
-        <v>98</v>
-      </c>
-      <c r="T31" t="s">
+      <c r="V31" t="s">
         <v>121</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>122</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD31" t="s">
         <v>123</v>
       </c>
-      <c r="X31" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC31" t="s">
+      <c r="AE31" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF31" t="s">
         <v>79</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AL31" t="s">
         <v>124</v>
       </c>
-      <c r="AE31" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL31" t="s">
+      <c r="AM31" t="s">
         <v>125</v>
       </c>
-      <c r="AM31" t="s">
+      <c r="AN31" t="s">
         <v>126</v>
       </c>
-      <c r="AN31" t="s">
+      <c r="AQ31" t="s">
         <v>127</v>
       </c>
-      <c r="AQ31" t="s">
+      <c r="AW31" t="s">
         <v>128</v>
       </c>
-      <c r="AW31" t="s">
+      <c r="AY31" t="s">
         <v>129</v>
       </c>
-      <c r="AY31" t="s">
+      <c r="BA31" t="s">
         <v>130</v>
       </c>
-      <c r="BA31" t="s">
+      <c r="BB31" t="s">
         <v>131</v>
       </c>
-      <c r="BB31" t="s">
+      <c r="BC31" t="s">
         <v>132</v>
       </c>
-      <c r="BC31" t="s">
+      <c r="BD31" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE31" t="s">
         <v>133</v>
       </c>
-      <c r="BD31" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE31" t="s">
+      <c r="BF31" t="s">
         <v>134</v>
       </c>
-      <c r="BF31" t="s">
+      <c r="BG31" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH31" t="s">
         <v>135</v>
       </c>
-      <c r="BG31" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH31" t="s">
+      <c r="BJ31" t="s">
         <v>136</v>
       </c>
-      <c r="BJ31" t="s">
+      <c r="BK31" t="s">
         <v>137</v>
       </c>
-      <c r="BK31" t="s">
+      <c r="BL31" t="s">
         <v>138</v>
       </c>
-      <c r="BL31" t="s">
+      <c r="BP31" t="s">
         <v>139</v>
       </c>
-      <c r="BP31" t="s">
+      <c r="BQ31" t="s">
         <v>140</v>
       </c>
-      <c r="BQ31" t="s">
+      <c r="BR31" t="s">
         <v>141</v>
       </c>
-      <c r="BR31" t="s">
+      <c r="BU31" t="s">
         <v>142</v>
       </c>
-      <c r="BU31" t="s">
+      <c r="BV31" t="s">
         <v>143</v>
-      </c>
-      <c r="BV31" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C32" t="s">
         <v>73</v>
       </c>
-      <c r="B32" t="s">
-        <v>250</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" t="s">
         <v>74</v>
       </c>
-      <c r="D32" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" t="s">
-        <v>191</v>
-      </c>
-      <c r="F32" t="s">
-        <v>75</v>
-      </c>
       <c r="G32" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" t="s">
         <v>145</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>146</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
+        <v>285</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M32" t="s">
         <v>147</v>
-      </c>
-      <c r="K32" t="s">
-        <v>286</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="M32" t="s">
-        <v>148</v>
       </c>
       <c r="O32">
         <v>-999</v>
       </c>
       <c r="Q32" t="s">
+        <v>148</v>
+      </c>
+      <c r="R32" t="s">
+        <v>97</v>
+      </c>
+      <c r="T32" t="s">
+        <v>120</v>
+      </c>
+      <c r="V32" t="s">
+        <v>121</v>
+      </c>
+      <c r="W32" t="s">
+        <v>122</v>
+      </c>
+      <c r="X32" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG32" t="s">
         <v>149</v>
       </c>
-      <c r="R32" t="s">
-        <v>98</v>
-      </c>
-      <c r="T32" t="s">
-        <v>121</v>
-      </c>
-      <c r="V32" t="s">
-        <v>122</v>
-      </c>
-      <c r="W32" t="s">
-        <v>123</v>
-      </c>
-      <c r="X32" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG32" t="s">
+      <c r="AH32" t="s">
         <v>150</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C33" t="s">
         <v>73</v>
       </c>
-      <c r="B33" t="s">
-        <v>251</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" t="s">
+        <v>191</v>
+      </c>
+      <c r="F33" t="s">
         <v>74</v>
       </c>
-      <c r="D33" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" t="s">
-        <v>192</v>
-      </c>
-      <c r="F33" t="s">
-        <v>75</v>
-      </c>
       <c r="G33" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" t="s">
         <v>145</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>146</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
+        <v>285</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M33" t="s">
         <v>147</v>
-      </c>
-      <c r="K33" t="s">
-        <v>286</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="M33" t="s">
-        <v>148</v>
       </c>
       <c r="O33">
         <v>-999</v>
       </c>
       <c r="Q33" t="s">
+        <v>148</v>
+      </c>
+      <c r="R33" t="s">
+        <v>97</v>
+      </c>
+      <c r="T33" t="s">
+        <v>120</v>
+      </c>
+      <c r="V33" t="s">
+        <v>121</v>
+      </c>
+      <c r="W33" t="s">
+        <v>122</v>
+      </c>
+      <c r="X33" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG33" t="s">
         <v>149</v>
       </c>
-      <c r="R33" t="s">
-        <v>98</v>
-      </c>
-      <c r="T33" t="s">
-        <v>121</v>
-      </c>
-      <c r="V33" t="s">
-        <v>122</v>
-      </c>
-      <c r="W33" t="s">
-        <v>123</v>
-      </c>
-      <c r="X33" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG33" t="s">
+      <c r="AH33" t="s">
         <v>150</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" t="s">
         <v>73</v>
       </c>
-      <c r="B34" t="s">
-        <v>252</v>
-      </c>
-      <c r="C34" t="s">
-        <v>74</v>
-      </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E34" s="1">
         <v>320620151207</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" t="s">
         <v>94</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>95</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>96</v>
       </c>
-      <c r="J34" t="s">
-        <v>97</v>
-      </c>
       <c r="K34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O34">
         <v>-9999</v>
@@ -5349,177 +5346,177 @@
         <v>-8888</v>
       </c>
       <c r="R34" t="s">
+        <v>97</v>
+      </c>
+      <c r="T34" t="s">
         <v>98</v>
       </c>
-      <c r="T34" t="s">
+      <c r="V34" t="s">
         <v>99</v>
       </c>
-      <c r="V34" t="s">
+      <c r="X34" t="s">
         <v>100</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>101</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>102</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>103</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AB34" t="s">
         <v>104</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AC34" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD34" t="s">
         <v>105</v>
       </c>
-      <c r="AC34" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD34" t="s">
+      <c r="AE34" t="s">
         <v>106</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AF34" t="s">
         <v>107</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AJ34" t="s">
         <v>108</v>
       </c>
-      <c r="AJ34" t="s">
+      <c r="AL34" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN34" t="s">
         <v>109</v>
       </c>
-      <c r="AL34" t="s">
-        <v>199</v>
-      </c>
-      <c r="AM34" t="s">
+      <c r="AQ34" t="s">
         <v>200</v>
       </c>
-      <c r="AN34" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ34" t="s">
+      <c r="AR34" t="s">
         <v>201</v>
       </c>
-      <c r="AR34" t="s">
+      <c r="AT34" t="s">
         <v>202</v>
       </c>
-      <c r="AT34" t="s">
+      <c r="AY34" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO34" t="s">
         <v>203</v>
       </c>
-      <c r="AY34" t="s">
-        <v>112</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>113</v>
-      </c>
-      <c r="BB34" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF34" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>92</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ34" t="s">
+      <c r="BP34" t="s">
         <v>86</v>
       </c>
-      <c r="BO34" t="s">
+      <c r="BQ34" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>88</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>70</v>
+      </c>
+      <c r="BW34" t="s">
         <v>204</v>
-      </c>
-      <c r="BP34" t="s">
-        <v>87</v>
-      </c>
-      <c r="BQ34" t="s">
-        <v>88</v>
-      </c>
-      <c r="BR34" t="s">
-        <v>89</v>
-      </c>
-      <c r="BU34" t="s">
-        <v>70</v>
-      </c>
-      <c r="BV34" t="s">
-        <v>71</v>
-      </c>
-      <c r="BW34" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" t="s">
         <v>73</v>
       </c>
-      <c r="B35" t="s">
-        <v>254</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>296</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F35" t="s">
         <v>74</v>
       </c>
-      <c r="D35" t="s">
-        <v>297</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F35" t="s">
-        <v>75</v>
-      </c>
       <c r="G35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H35" t="s">
+        <v>257</v>
+      </c>
+      <c r="K35" t="s">
+        <v>286</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="M35" t="s">
         <v>258</v>
       </c>
-      <c r="K35" t="s">
-        <v>287</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="M35" t="s">
-        <v>259</v>
-      </c>
       <c r="O35" t="s">
+        <v>271</v>
+      </c>
+      <c r="T35" t="s">
+        <v>265</v>
+      </c>
+      <c r="V35" t="s">
+        <v>280</v>
+      </c>
+      <c r="W35" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA35" t="s">
         <v>272</v>
       </c>
-      <c r="T35" t="s">
-        <v>266</v>
-      </c>
-      <c r="V35" t="s">
-        <v>281</v>
-      </c>
-      <c r="W35" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA35" t="s">
+      <c r="AB35" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ35" t="s">
         <v>273</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>280</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>274</v>
       </c>
       <c r="AL35" t="s">
         <v>35</v>
@@ -5531,171 +5528,171 @@
         <v>37</v>
       </c>
       <c r="AO35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AP35" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ35" t="s">
         <v>39</v>
       </c>
-      <c r="AQ35" t="s">
-        <v>40</v>
-      </c>
       <c r="AR35" t="s">
+        <v>277</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT35" t="s">
         <v>278</v>
       </c>
-      <c r="AS35" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>279</v>
-      </c>
       <c r="AU35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV35" t="s">
         <v>44</v>
       </c>
-      <c r="AV35" t="s">
+      <c r="AW35" t="s">
         <v>45</v>
       </c>
-      <c r="AW35" t="s">
+      <c r="AX35" t="s">
         <v>46</v>
       </c>
-      <c r="AX35" t="s">
+      <c r="AY35" t="s">
         <v>47</v>
       </c>
-      <c r="AY35" t="s">
+      <c r="AZ35" t="s">
         <v>48</v>
       </c>
-      <c r="AZ35" t="s">
+      <c r="BA35" t="s">
         <v>49</v>
       </c>
-      <c r="BA35" t="s">
+      <c r="BB35" t="s">
         <v>50</v>
       </c>
-      <c r="BB35" t="s">
+      <c r="BC35" t="s">
         <v>51</v>
       </c>
-      <c r="BC35" t="s">
+      <c r="BD35" t="s">
         <v>52</v>
       </c>
-      <c r="BD35" t="s">
+      <c r="BE35" t="s">
         <v>53</v>
       </c>
-      <c r="BE35" t="s">
+      <c r="BF35" t="s">
         <v>54</v>
       </c>
-      <c r="BF35" t="s">
+      <c r="BG35" t="s">
         <v>55</v>
       </c>
-      <c r="BG35" t="s">
+      <c r="BH35" t="s">
         <v>56</v>
       </c>
-      <c r="BH35" t="s">
+      <c r="BI35" t="s">
         <v>57</v>
       </c>
-      <c r="BI35" t="s">
+      <c r="BJ35" t="s">
         <v>58</v>
       </c>
-      <c r="BJ35" t="s">
+      <c r="BK35" t="s">
         <v>59</v>
       </c>
-      <c r="BK35" t="s">
+      <c r="BL35" t="s">
         <v>60</v>
       </c>
-      <c r="BL35" t="s">
+      <c r="BM35" t="s">
         <v>61</v>
       </c>
-      <c r="BM35" t="s">
+      <c r="BN35" t="s">
         <v>62</v>
       </c>
-      <c r="BN35" t="s">
+      <c r="BO35" t="s">
         <v>63</v>
       </c>
-      <c r="BO35" t="s">
+      <c r="BP35" t="s">
         <v>64</v>
       </c>
-      <c r="BP35" t="s">
+      <c r="BQ35" t="s">
         <v>65</v>
       </c>
-      <c r="BQ35" t="s">
+      <c r="BR35" t="s">
         <v>66</v>
       </c>
-      <c r="BR35" t="s">
+      <c r="BS35" t="s">
         <v>67</v>
       </c>
-      <c r="BS35" t="s">
+      <c r="BT35" t="s">
         <v>68</v>
       </c>
-      <c r="BT35" t="s">
+      <c r="BU35" t="s">
         <v>69</v>
       </c>
-      <c r="BU35" t="s">
+      <c r="BV35" t="s">
         <v>70</v>
-      </c>
-      <c r="BV35" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36" t="s">
         <v>73</v>
       </c>
-      <c r="B36" t="s">
-        <v>253</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" t="s">
         <v>74</v>
       </c>
-      <c r="D36" t="s">
-        <v>297</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F36" t="s">
-        <v>75</v>
-      </c>
       <c r="G36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H36" t="s">
+        <v>257</v>
+      </c>
+      <c r="K36" t="s">
+        <v>286</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="M36" t="s">
         <v>258</v>
       </c>
-      <c r="K36" t="s">
-        <v>287</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="M36" t="s">
-        <v>259</v>
-      </c>
       <c r="O36" t="s">
+        <v>271</v>
+      </c>
+      <c r="T36" t="s">
+        <v>265</v>
+      </c>
+      <c r="V36" t="s">
+        <v>280</v>
+      </c>
+      <c r="W36" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA36" t="s">
         <v>272</v>
       </c>
-      <c r="T36" t="s">
-        <v>266</v>
-      </c>
-      <c r="V36" t="s">
-        <v>281</v>
-      </c>
-      <c r="W36" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA36" t="s">
+      <c r="AB36" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ36" t="s">
         <v>273</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>280</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>274</v>
       </c>
       <c r="AL36" t="s">
         <v>35</v>
@@ -5707,402 +5704,402 @@
         <v>37</v>
       </c>
       <c r="AO36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AP36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ36" t="s">
         <v>39</v>
       </c>
-      <c r="AQ36" t="s">
-        <v>40</v>
-      </c>
       <c r="AR36" t="s">
+        <v>277</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT36" t="s">
         <v>278</v>
       </c>
-      <c r="AS36" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT36" t="s">
-        <v>279</v>
-      </c>
       <c r="AU36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV36" t="s">
         <v>44</v>
       </c>
-      <c r="AV36" t="s">
+      <c r="AW36" t="s">
         <v>45</v>
       </c>
-      <c r="AW36" t="s">
+      <c r="AX36" t="s">
         <v>46</v>
       </c>
-      <c r="AX36" t="s">
+      <c r="AY36" t="s">
         <v>47</v>
       </c>
-      <c r="AY36" t="s">
+      <c r="AZ36" t="s">
         <v>48</v>
       </c>
-      <c r="AZ36" t="s">
+      <c r="BA36" t="s">
         <v>49</v>
       </c>
-      <c r="BA36" t="s">
+      <c r="BB36" t="s">
         <v>50</v>
       </c>
-      <c r="BB36" t="s">
+      <c r="BC36" t="s">
         <v>51</v>
       </c>
-      <c r="BC36" t="s">
+      <c r="BD36" t="s">
         <v>52</v>
       </c>
-      <c r="BD36" t="s">
+      <c r="BE36" t="s">
         <v>53</v>
       </c>
-      <c r="BE36" t="s">
+      <c r="BF36" t="s">
         <v>54</v>
       </c>
-      <c r="BF36" t="s">
+      <c r="BG36" t="s">
         <v>55</v>
       </c>
-      <c r="BG36" t="s">
+      <c r="BH36" t="s">
         <v>56</v>
       </c>
-      <c r="BH36" t="s">
+      <c r="BI36" t="s">
         <v>57</v>
       </c>
-      <c r="BI36" t="s">
+      <c r="BJ36" t="s">
         <v>58</v>
       </c>
-      <c r="BJ36" t="s">
+      <c r="BK36" t="s">
         <v>59</v>
       </c>
-      <c r="BK36" t="s">
+      <c r="BL36" t="s">
         <v>60</v>
       </c>
-      <c r="BL36" t="s">
+      <c r="BM36" t="s">
         <v>61</v>
       </c>
-      <c r="BM36" t="s">
+      <c r="BN36" t="s">
         <v>62</v>
       </c>
-      <c r="BN36" t="s">
+      <c r="BO36" t="s">
         <v>63</v>
       </c>
-      <c r="BO36" t="s">
+      <c r="BP36" t="s">
         <v>64</v>
       </c>
-      <c r="BP36" t="s">
+      <c r="BQ36" t="s">
         <v>65</v>
       </c>
-      <c r="BQ36" t="s">
+      <c r="BR36" t="s">
         <v>66</v>
       </c>
-      <c r="BR36" t="s">
+      <c r="BS36" t="s">
         <v>67</v>
       </c>
-      <c r="BS36" t="s">
+      <c r="BT36" t="s">
         <v>68</v>
       </c>
-      <c r="BT36" t="s">
+      <c r="BU36" t="s">
         <v>69</v>
       </c>
-      <c r="BU36" t="s">
+      <c r="BV36" t="s">
         <v>70</v>
-      </c>
-      <c r="BV36" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D37" t="s">
+        <v>294</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F37" t="s">
         <v>264</v>
       </c>
-      <c r="D37" t="s">
-        <v>295</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
+        <v>174</v>
+      </c>
+      <c r="H37" t="s">
+        <v>257</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M37" t="s">
+        <v>299</v>
+      </c>
+      <c r="O37" t="s">
+        <v>153</v>
+      </c>
+      <c r="R37" t="s">
+        <v>97</v>
+      </c>
+      <c r="T37" t="s">
         <v>265</v>
       </c>
-      <c r="G37" t="s">
-        <v>175</v>
-      </c>
-      <c r="H37" t="s">
-        <v>258</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="M37" t="s">
-        <v>300</v>
-      </c>
-      <c r="O37" t="s">
-        <v>154</v>
-      </c>
-      <c r="R37" t="s">
-        <v>98</v>
-      </c>
-      <c r="T37" t="s">
+      <c r="V37" t="s">
         <v>266</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>267</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>268</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>269</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="AA37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG37" t="s">
         <v>270</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C38" t="s">
+        <v>263</v>
+      </c>
+      <c r="D38" t="s">
+        <v>294</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" t="s">
         <v>264</v>
       </c>
-      <c r="D38" t="s">
-        <v>295</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
+        <v>174</v>
+      </c>
+      <c r="H38" t="s">
+        <v>257</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M38" t="s">
+        <v>299</v>
+      </c>
+      <c r="O38" t="s">
+        <v>153</v>
+      </c>
+      <c r="R38" t="s">
+        <v>97</v>
+      </c>
+      <c r="T38" t="s">
         <v>265</v>
       </c>
-      <c r="G38" t="s">
-        <v>175</v>
-      </c>
-      <c r="H38" t="s">
-        <v>258</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="M38" t="s">
-        <v>300</v>
-      </c>
-      <c r="O38" t="s">
-        <v>154</v>
-      </c>
-      <c r="R38" t="s">
-        <v>98</v>
-      </c>
-      <c r="T38" t="s">
+      <c r="V38" t="s">
         <v>266</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>267</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>268</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>269</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="AA38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG38" t="s">
         <v>270</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C39" t="s">
+        <v>263</v>
+      </c>
+      <c r="D39" t="s">
+        <v>294</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F39" t="s">
         <v>264</v>
       </c>
-      <c r="D39" t="s">
-        <v>295</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H39" t="s">
+        <v>257</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M39" t="s">
+        <v>299</v>
+      </c>
+      <c r="O39" t="s">
+        <v>153</v>
+      </c>
+      <c r="R39" t="s">
+        <v>97</v>
+      </c>
+      <c r="T39" t="s">
         <v>265</v>
       </c>
-      <c r="G39" t="s">
-        <v>175</v>
-      </c>
-      <c r="H39" t="s">
-        <v>258</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="M39" t="s">
-        <v>300</v>
-      </c>
-      <c r="O39" t="s">
-        <v>154</v>
-      </c>
-      <c r="R39" t="s">
-        <v>98</v>
-      </c>
-      <c r="T39" t="s">
+      <c r="V39" t="s">
         <v>266</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>267</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>268</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>269</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="AA39" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG39" t="s">
         <v>270</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
+        <v>262</v>
+      </c>
+      <c r="C40" t="s">
         <v>263</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>294</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" t="s">
         <v>264</v>
       </c>
-      <c r="D40" t="s">
-        <v>295</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
+        <v>174</v>
+      </c>
+      <c r="H40" t="s">
+        <v>257</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M40" t="s">
+        <v>299</v>
+      </c>
+      <c r="O40" t="s">
+        <v>153</v>
+      </c>
+      <c r="R40" t="s">
+        <v>97</v>
+      </c>
+      <c r="T40" t="s">
         <v>265</v>
       </c>
-      <c r="G40" t="s">
-        <v>175</v>
-      </c>
-      <c r="H40" t="s">
-        <v>258</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="M40" t="s">
-        <v>300</v>
-      </c>
-      <c r="O40" t="s">
-        <v>154</v>
-      </c>
-      <c r="R40" t="s">
-        <v>98</v>
-      </c>
-      <c r="T40" t="s">
+      <c r="V40" t="s">
         <v>266</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>267</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>268</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>269</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="AA40" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG40" t="s">
         <v>270</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:75" x14ac:dyDescent="0.35">

--- a/product_data/processing_metadata/C3/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C3/PIG_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="370" documentId="8_{E310EAF6-001C-4683-A632-3F0045222FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91203B2F-4C10-434C-AE1C-108936E139EB}"/>
+  <xr:revisionPtr revIDLastSave="422" documentId="8_{E310EAF6-001C-4683-A632-3F0045222FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D06E3DD-732C-4FB1-8659-2969B06DAA17}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DD0B7FAE-241F-4E23-A02A-6E81F5ECAC2C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD0B7FAE-241F-4E23-A02A-6E81F5ECAC2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="308">
   <si>
     <t>file_type</t>
   </si>
@@ -393,9 +393,6 @@
     <t>10.6073/pasta/4d583713667a0f52b9d2937a26d0d82e</t>
   </si>
   <si>
-    <t>Cast-uw</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -453,9 +450,6 @@
     <t>Beta.carotene</t>
   </si>
   <si>
-    <t>Neoxanthin..µg.l.</t>
-  </si>
-  <si>
     <t>Diadinoxanthin</t>
   </si>
   <si>
@@ -480,9 +474,6 @@
     <t>PALMER_LTER</t>
   </si>
   <si>
-    <t>Cast.Number-uw</t>
-  </si>
-  <si>
     <t>Chlorophyll</t>
   </si>
   <si>
@@ -943,6 +934,30 @@
   </si>
   <si>
     <t>E:/Data_downloads/JGOFS/320619970404/HPLC_pigments</t>
+  </si>
+  <si>
+    <t>Time data in original file is incorrect. All set to 00:00:00</t>
+  </si>
+  <si>
+    <t>Sampling.Device-SWI</t>
+  </si>
+  <si>
+    <t>33LG19980910</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/PAL-LTER/pigments/CHL/33LG19980122</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/PAL-LTER/pigments/CHL/33LG19980910</t>
+  </si>
+  <si>
+    <t>Sampling.Device-Underway sampling</t>
+  </si>
+  <si>
+    <t>Sampling.Device-Event</t>
+  </si>
+  <si>
+    <t>Neoxanthin</t>
   </si>
 </sst>
 </file>
@@ -1304,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50972AA6-2965-4F2B-AD21-A9711D8DE30C}">
-  <dimension ref="A1:BW41"/>
+  <dimension ref="A1:BW43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB25" workbookViewId="0">
-      <selection activeCell="AO36" sqref="AO36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1347,10 +1362,10 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -1437,7 +1452,7 @@
         <v>37</v>
       </c>
       <c r="AO1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AP1" t="s">
         <v>38</v>
@@ -1547,13 +1562,13 @@
         <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C2" t="s">
         <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E2" s="1">
         <v>320619970404</v>
@@ -1562,100 +1577,100 @@
         <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R2" t="s">
         <v>75</v>
       </c>
       <c r="T2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="U2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AD2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>154</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AM2" t="s">
         <v>155</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AN2" t="s">
         <v>156</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AQ2" t="s">
         <v>157</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AS2" t="s">
         <v>158</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AY2" t="s">
         <v>159</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="BA2" t="s">
         <v>160</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BB2" t="s">
         <v>161</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BC2" t="s">
         <v>162</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BD2" t="s">
         <v>163</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BE2" t="s">
         <v>164</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>165</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>166</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>167</v>
       </c>
       <c r="BF2" t="s">
         <v>90</v>
       </c>
       <c r="BG2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="BH2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="BJ2" t="s">
         <v>89</v>
       </c>
       <c r="BK2" t="s">
+        <v>167</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BR2" t="s">
         <v>170</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>171</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.35">
@@ -1663,13 +1678,13 @@
         <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C3" t="s">
         <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E3" s="1">
         <v>320619970404</v>
@@ -1678,49 +1693,49 @@
         <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="O3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R3" t="s">
         <v>75</v>
       </c>
       <c r="T3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="U3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AD3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AE3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AF3" t="s">
         <v>79</v>
       </c>
       <c r="AG3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AH3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:75" x14ac:dyDescent="0.35">
@@ -1728,13 +1743,13 @@
         <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
         <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E4" s="1">
         <v>320619971105</v>
@@ -1743,103 +1758,103 @@
         <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R4" t="s">
         <v>75</v>
       </c>
       <c r="T4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="U4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AD4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>154</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AM4" t="s">
         <v>155</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AN4" t="s">
         <v>156</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AQ4" t="s">
         <v>157</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AS4" t="s">
         <v>158</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AY4" t="s">
         <v>159</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="BA4" t="s">
         <v>160</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="BB4" t="s">
         <v>161</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="BC4" t="s">
         <v>162</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BD4" t="s">
         <v>163</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BE4" t="s">
         <v>164</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>165</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>166</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>167</v>
       </c>
       <c r="BF4" t="s">
         <v>90</v>
       </c>
       <c r="BG4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="BH4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="BJ4" t="s">
         <v>89</v>
       </c>
       <c r="BK4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BR4" t="s">
         <v>170</v>
       </c>
-      <c r="BL4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>172</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>173</v>
-      </c>
       <c r="BW4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:75" x14ac:dyDescent="0.35">
@@ -1847,13 +1862,13 @@
         <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
         <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E5" s="1">
         <v>320619971105</v>
@@ -1862,49 +1877,49 @@
         <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="O5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R5" t="s">
         <v>75</v>
       </c>
       <c r="T5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="U5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AD5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AE5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AF5" t="s">
         <v>79</v>
       </c>
       <c r="AG5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AH5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:75" x14ac:dyDescent="0.35">
@@ -1912,7 +1927,7 @@
         <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
         <v>73</v>
@@ -1939,13 +1954,13 @@
         <v>96</v>
       </c>
       <c r="K6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O6">
         <v>-9999</v>
@@ -1993,22 +2008,22 @@
         <v>108</v>
       </c>
       <c r="AL6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AM6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AN6" t="s">
         <v>109</v>
       </c>
       <c r="AQ6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AR6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AT6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AY6" t="s">
         <v>111</v>
@@ -2041,7 +2056,7 @@
         <v>85</v>
       </c>
       <c r="BO6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="BP6" t="s">
         <v>86</v>
@@ -2059,7 +2074,7 @@
         <v>70</v>
       </c>
       <c r="BW6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:75" x14ac:dyDescent="0.35">
@@ -2067,7 +2082,7 @@
         <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C7" t="s">
         <v>73</v>
@@ -2094,13 +2109,13 @@
         <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O7">
         <v>-9999</v>
@@ -2148,16 +2163,16 @@
         <v>108</v>
       </c>
       <c r="AM7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AN7" t="s">
         <v>109</v>
       </c>
       <c r="AQ7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AT7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AY7" t="s">
         <v>111</v>
@@ -2187,7 +2202,7 @@
         <v>85</v>
       </c>
       <c r="BO7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="BP7" t="s">
         <v>86</v>
@@ -2205,7 +2220,7 @@
         <v>70</v>
       </c>
       <c r="BW7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:75" x14ac:dyDescent="0.35">
@@ -2213,7 +2228,7 @@
         <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
         <v>73</v>
@@ -2240,13 +2255,13 @@
         <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O8">
         <v>-9999</v>
@@ -2294,22 +2309,22 @@
         <v>108</v>
       </c>
       <c r="AL8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AM8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AN8" t="s">
         <v>109</v>
       </c>
       <c r="AQ8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AR8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AT8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AY8" t="s">
         <v>111</v>
@@ -2342,7 +2357,7 @@
         <v>85</v>
       </c>
       <c r="BO8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="BP8" t="s">
         <v>86</v>
@@ -2360,7 +2375,7 @@
         <v>70</v>
       </c>
       <c r="BW8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:75" x14ac:dyDescent="0.35">
@@ -2368,7 +2383,7 @@
         <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
         <v>73</v>
@@ -2395,13 +2410,13 @@
         <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O9">
         <v>-9999</v>
@@ -2449,16 +2464,16 @@
         <v>108</v>
       </c>
       <c r="AM9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AN9" t="s">
         <v>109</v>
       </c>
       <c r="AQ9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AT9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AY9" t="s">
         <v>111</v>
@@ -2482,7 +2497,7 @@
         <v>84</v>
       </c>
       <c r="BO9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="BQ9" t="s">
         <v>87</v>
@@ -2497,7 +2512,7 @@
         <v>70</v>
       </c>
       <c r="BW9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:75" x14ac:dyDescent="0.35">
@@ -2505,7 +2520,7 @@
         <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
         <v>73</v>
@@ -2520,25 +2535,25 @@
         <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O10">
         <v>-999</v>
@@ -2547,7 +2562,7 @@
         <v>-111</v>
       </c>
       <c r="Q10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="R10" t="s">
         <v>97</v>
@@ -2556,10 +2571,10 @@
         <v>98</v>
       </c>
       <c r="V10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="W10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="X10" t="s">
         <v>100</v>
@@ -2592,10 +2607,10 @@
         <v>108</v>
       </c>
       <c r="AL10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AM10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AN10" t="s">
         <v>109</v>
@@ -2604,10 +2619,10 @@
         <v>110</v>
       </c>
       <c r="AR10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AT10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AY10" t="s">
         <v>111</v>
@@ -2640,7 +2655,7 @@
         <v>85</v>
       </c>
       <c r="BO10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BP10" t="s">
         <v>86</v>
@@ -2663,7 +2678,7 @@
         <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
         <v>73</v>
@@ -2678,25 +2693,25 @@
         <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O11">
         <v>-999</v>
@@ -2711,10 +2726,10 @@
         <v>98</v>
       </c>
       <c r="V11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="W11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="X11" t="s">
         <v>100</v>
@@ -2744,22 +2759,22 @@
         <v>108</v>
       </c>
       <c r="AL11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AM11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AN11" t="s">
         <v>109</v>
       </c>
       <c r="AQ11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AR11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AT11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AY11" t="s">
         <v>111</v>
@@ -2792,7 +2807,7 @@
         <v>85</v>
       </c>
       <c r="BO11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="BP11" t="s">
         <v>86</v>
@@ -2810,7 +2825,7 @@
         <v>70</v>
       </c>
       <c r="BW11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:75" x14ac:dyDescent="0.35">
@@ -2818,10 +2833,10 @@
         <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D12" t="s">
         <v>92</v>
@@ -2830,28 +2845,28 @@
         <v>320619971220</v>
       </c>
       <c r="F12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H12" t="s">
+        <v>209</v>
+      </c>
+      <c r="I12" t="s">
+        <v>222</v>
+      </c>
+      <c r="J12" t="s">
         <v>223</v>
       </c>
-      <c r="G12" t="s">
+      <c r="K12" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M12" t="s">
         <v>224</v>
-      </c>
-      <c r="H12" t="s">
-        <v>212</v>
-      </c>
-      <c r="I12" t="s">
-        <v>225</v>
-      </c>
-      <c r="J12" t="s">
-        <v>226</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="M12" t="s">
-        <v>227</v>
       </c>
       <c r="O12">
         <v>-999</v>
@@ -2866,10 +2881,10 @@
         <v>99</v>
       </c>
       <c r="X12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Y12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AA12" t="s">
         <v>103</v>
@@ -2887,10 +2902,10 @@
         <v>107</v>
       </c>
       <c r="AG12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AH12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:75" x14ac:dyDescent="0.35">
@@ -2898,7 +2913,7 @@
         <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C13" t="s">
         <v>73</v>
@@ -2907,7 +2922,7 @@
         <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F13" t="s">
         <v>74</v>
@@ -2922,37 +2937,34 @@
         <v>118</v>
       </c>
       <c r="K13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M13" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O13">
         <v>-999</v>
       </c>
-      <c r="Q13" t="s">
-        <v>119</v>
-      </c>
       <c r="R13" t="s">
         <v>97</v>
       </c>
       <c r="T13" t="s">
+        <v>119</v>
+      </c>
+      <c r="V13" t="s">
         <v>120</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>121</v>
       </c>
-      <c r="W13" t="s">
-        <v>122</v>
-      </c>
       <c r="X13" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y13" t="s">
         <v>121</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>122</v>
       </c>
       <c r="AA13" t="s">
         <v>76</v>
@@ -2964,7 +2976,7 @@
         <v>78</v>
       </c>
       <c r="AD13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE13" t="s">
         <v>114</v>
@@ -2973,70 +2985,70 @@
         <v>79</v>
       </c>
       <c r="AL13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM13" t="s">
         <v>124</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AN13" t="s">
         <v>125</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AQ13" t="s">
         <v>126</v>
       </c>
-      <c r="AQ13" t="s">
+      <c r="AW13" t="s">
         <v>127</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="AY13" t="s">
         <v>128</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="BA13" t="s">
         <v>129</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BB13" t="s">
         <v>130</v>
       </c>
-      <c r="BB13" t="s">
+      <c r="BC13" t="s">
         <v>131</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>132</v>
       </c>
       <c r="BD13" t="s">
         <v>81</v>
       </c>
       <c r="BE13" t="s">
+        <v>132</v>
+      </c>
+      <c r="BF13" t="s">
         <v>133</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>134</v>
       </c>
       <c r="BG13" t="s">
         <v>55</v>
       </c>
       <c r="BH13" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ13" t="s">
         <v>135</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="BK13" t="s">
         <v>136</v>
       </c>
-      <c r="BK13" t="s">
+      <c r="BL13" t="s">
         <v>137</v>
       </c>
-      <c r="BL13" t="s">
+      <c r="BP13" t="s">
+        <v>307</v>
+      </c>
+      <c r="BQ13" t="s">
         <v>138</v>
       </c>
-      <c r="BP13" t="s">
+      <c r="BR13" t="s">
         <v>139</v>
       </c>
-      <c r="BQ13" t="s">
+      <c r="BU13" t="s">
         <v>140</v>
       </c>
-      <c r="BR13" t="s">
+      <c r="BV13" t="s">
         <v>141</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>142</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:75" x14ac:dyDescent="0.35">
@@ -3044,7 +3056,7 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="C14" t="s">
         <v>73</v>
@@ -3053,52 +3065,52 @@
         <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="F14" t="s">
         <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="I14" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="J14" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M14" t="s">
-        <v>298</v>
+        <v>145</v>
       </c>
       <c r="O14">
         <v>-999</v>
       </c>
       <c r="Q14" t="s">
-        <v>119</v>
+        <v>301</v>
       </c>
       <c r="R14" t="s">
         <v>97</v>
       </c>
       <c r="T14" t="s">
+        <v>119</v>
+      </c>
+      <c r="V14" t="s">
         <v>120</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>121</v>
       </c>
-      <c r="W14" t="s">
-        <v>122</v>
-      </c>
       <c r="X14" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y14" t="s">
         <v>121</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>122</v>
       </c>
       <c r="AA14" t="s">
         <v>76</v>
@@ -3110,79 +3122,19 @@
         <v>78</v>
       </c>
       <c r="AD14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE14" t="s">
         <v>114</v>
       </c>
       <c r="AF14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>128</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>129</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>130</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>131</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG14" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH14" t="s">
-        <v>135</v>
-      </c>
-      <c r="BJ14" t="s">
-        <v>136</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>137</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>139</v>
-      </c>
-      <c r="BQ14" t="s">
-        <v>140</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>141</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>142</v>
-      </c>
-      <c r="BV14" t="s">
-        <v>143</v>
+        <v>107</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:75" x14ac:dyDescent="0.35">
@@ -3190,7 +3142,7 @@
         <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="C15" t="s">
         <v>73</v>
@@ -3199,52 +3151,52 @@
         <v>115</v>
       </c>
       <c r="E15" t="s">
-        <v>254</v>
+        <v>302</v>
       </c>
       <c r="F15" t="s">
         <v>74</v>
       </c>
       <c r="G15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
         <v>144</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
+        <v>282</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M15" t="s">
         <v>145</v>
-      </c>
-      <c r="J15" t="s">
-        <v>146</v>
-      </c>
-      <c r="K15" t="s">
-        <v>285</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="M15" t="s">
-        <v>147</v>
       </c>
       <c r="O15">
         <v>-999</v>
       </c>
       <c r="Q15" t="s">
-        <v>148</v>
+        <v>301</v>
       </c>
       <c r="R15" t="s">
         <v>97</v>
       </c>
       <c r="T15" t="s">
+        <v>119</v>
+      </c>
+      <c r="V15" t="s">
         <v>120</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>121</v>
       </c>
-      <c r="W15" t="s">
-        <v>122</v>
-      </c>
       <c r="X15" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y15" t="s">
         <v>121</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>122</v>
       </c>
       <c r="AA15" t="s">
         <v>76</v>
@@ -3256,7 +3208,7 @@
         <v>78</v>
       </c>
       <c r="AD15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE15" t="s">
         <v>114</v>
@@ -3265,10 +3217,10 @@
         <v>107</v>
       </c>
       <c r="AG15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AH15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:75" x14ac:dyDescent="0.35">
@@ -3276,7 +3228,7 @@
         <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="C16" t="s">
         <v>73</v>
@@ -3285,52 +3237,43 @@
         <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="F16" t="s">
         <v>74</v>
       </c>
       <c r="G16" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="K16" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M16" t="s">
-        <v>147</v>
+        <v>295</v>
       </c>
       <c r="O16">
         <v>-999</v>
       </c>
-      <c r="Q16" t="s">
-        <v>148</v>
-      </c>
       <c r="R16" t="s">
         <v>97</v>
       </c>
       <c r="T16" t="s">
+        <v>119</v>
+      </c>
+      <c r="V16" t="s">
         <v>120</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>121</v>
-      </c>
-      <c r="W16" t="s">
-        <v>122</v>
-      </c>
-      <c r="X16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>122</v>
       </c>
       <c r="AA16" t="s">
         <v>76</v>
@@ -3342,19 +3285,82 @@
         <v>78</v>
       </c>
       <c r="AD16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE16" t="s">
         <v>114</v>
       </c>
       <c r="AF16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>150</v>
+        <v>79</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>128</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>132</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>307</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>138</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>139</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>140</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>141</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:74" x14ac:dyDescent="0.35">
@@ -3362,7 +3368,7 @@
         <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="C17" t="s">
         <v>73</v>
@@ -3371,52 +3377,52 @@
         <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="F17" t="s">
         <v>74</v>
       </c>
       <c r="G17" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="I17" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M17" t="s">
-        <v>298</v>
+        <v>145</v>
       </c>
       <c r="O17">
         <v>-999</v>
       </c>
       <c r="Q17" t="s">
-        <v>119</v>
+        <v>301</v>
       </c>
       <c r="R17" t="s">
         <v>97</v>
       </c>
       <c r="T17" t="s">
+        <v>119</v>
+      </c>
+      <c r="V17" t="s">
         <v>120</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>121</v>
       </c>
-      <c r="W17" t="s">
-        <v>122</v>
-      </c>
       <c r="X17" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y17" t="s">
         <v>121</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>122</v>
       </c>
       <c r="AA17" t="s">
         <v>76</v>
@@ -3428,79 +3434,19 @@
         <v>78</v>
       </c>
       <c r="AD17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE17" t="s">
         <v>114</v>
       </c>
       <c r="AF17" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>128</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>129</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>130</v>
-      </c>
-      <c r="BB17" t="s">
-        <v>131</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD17" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE17" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF17" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG17" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>135</v>
-      </c>
-      <c r="BJ17" t="s">
-        <v>136</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>137</v>
-      </c>
-      <c r="BL17" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP17" t="s">
-        <v>139</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>140</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>141</v>
-      </c>
-      <c r="BU17" t="s">
-        <v>142</v>
-      </c>
-      <c r="BV17" t="s">
-        <v>143</v>
+        <v>107</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:74" x14ac:dyDescent="0.35">
@@ -3508,7 +3454,7 @@
         <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C18" t="s">
         <v>73</v>
@@ -3517,52 +3463,52 @@
         <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F18" t="s">
         <v>74</v>
       </c>
       <c r="G18" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="I18" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="J18" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="K18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M18" t="s">
-        <v>298</v>
+        <v>145</v>
       </c>
       <c r="O18">
         <v>-999</v>
       </c>
       <c r="Q18" t="s">
-        <v>119</v>
+        <v>301</v>
       </c>
       <c r="R18" t="s">
         <v>97</v>
       </c>
       <c r="T18" t="s">
+        <v>119</v>
+      </c>
+      <c r="V18" t="s">
         <v>120</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>121</v>
       </c>
-      <c r="W18" t="s">
-        <v>122</v>
-      </c>
       <c r="X18" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y18" t="s">
         <v>121</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>122</v>
       </c>
       <c r="AA18" t="s">
         <v>76</v>
@@ -3574,79 +3520,19 @@
         <v>78</v>
       </c>
       <c r="AD18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE18" t="s">
         <v>114</v>
       </c>
       <c r="AF18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>128</v>
-      </c>
-      <c r="AY18" t="s">
-        <v>129</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>130</v>
-      </c>
-      <c r="BB18" t="s">
-        <v>131</v>
-      </c>
-      <c r="BC18" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG18" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>135</v>
-      </c>
-      <c r="BJ18" t="s">
-        <v>136</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>137</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP18" t="s">
-        <v>139</v>
-      </c>
-      <c r="BQ18" t="s">
-        <v>140</v>
-      </c>
-      <c r="BR18" t="s">
-        <v>141</v>
-      </c>
-      <c r="BU18" t="s">
-        <v>142</v>
-      </c>
-      <c r="BV18" t="s">
-        <v>143</v>
+        <v>107</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:74" x14ac:dyDescent="0.35">
@@ -3654,7 +3540,7 @@
         <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C19" t="s">
         <v>73</v>
@@ -3663,52 +3549,49 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F19" t="s">
         <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="I19" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="J19" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="K19" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M19" t="s">
-        <v>147</v>
+        <v>295</v>
       </c>
       <c r="O19">
         <v>-999</v>
       </c>
-      <c r="Q19" t="s">
-        <v>148</v>
-      </c>
       <c r="R19" t="s">
         <v>97</v>
       </c>
       <c r="T19" t="s">
+        <v>119</v>
+      </c>
+      <c r="V19" t="s">
         <v>120</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>121</v>
       </c>
-      <c r="W19" t="s">
-        <v>122</v>
-      </c>
       <c r="X19" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y19" t="s">
         <v>121</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>122</v>
       </c>
       <c r="AA19" t="s">
         <v>76</v>
@@ -3720,19 +3603,79 @@
         <v>78</v>
       </c>
       <c r="AD19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE19" t="s">
         <v>114</v>
       </c>
       <c r="AF19" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>150</v>
+        <v>79</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>128</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>132</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>307</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>138</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>139</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>140</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:74" x14ac:dyDescent="0.35">
@@ -3740,7 +3683,7 @@
         <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C20" t="s">
         <v>73</v>
@@ -3749,52 +3692,49 @@
         <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F20" t="s">
         <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="I20" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="J20" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="K20" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M20" t="s">
-        <v>147</v>
+        <v>295</v>
       </c>
       <c r="O20">
         <v>-999</v>
       </c>
-      <c r="Q20" t="s">
-        <v>148</v>
-      </c>
       <c r="R20" t="s">
         <v>97</v>
       </c>
       <c r="T20" t="s">
+        <v>119</v>
+      </c>
+      <c r="V20" t="s">
         <v>120</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>121</v>
       </c>
-      <c r="W20" t="s">
-        <v>122</v>
-      </c>
       <c r="X20" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y20" t="s">
         <v>121</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>122</v>
       </c>
       <c r="AA20" t="s">
         <v>76</v>
@@ -3806,19 +3746,79 @@
         <v>78</v>
       </c>
       <c r="AD20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE20" t="s">
         <v>114</v>
       </c>
       <c r="AF20" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>150</v>
+        <v>79</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>128</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>132</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>307</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>139</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>140</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:74" x14ac:dyDescent="0.35">
@@ -3826,7 +3826,7 @@
         <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C21" t="s">
         <v>73</v>
@@ -3835,52 +3835,52 @@
         <v>115</v>
       </c>
       <c r="E21" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F21" t="s">
         <v>74</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="I21" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="J21" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="K21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M21" t="s">
-        <v>298</v>
+        <v>145</v>
       </c>
       <c r="O21">
         <v>-999</v>
       </c>
       <c r="Q21" t="s">
-        <v>119</v>
+        <v>301</v>
       </c>
       <c r="R21" t="s">
         <v>97</v>
       </c>
       <c r="T21" t="s">
+        <v>119</v>
+      </c>
+      <c r="V21" t="s">
         <v>120</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>121</v>
       </c>
-      <c r="W21" t="s">
-        <v>122</v>
-      </c>
       <c r="X21" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y21" t="s">
         <v>121</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>122</v>
       </c>
       <c r="AA21" t="s">
         <v>76</v>
@@ -3892,79 +3892,19 @@
         <v>78</v>
       </c>
       <c r="AD21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE21" t="s">
         <v>114</v>
       </c>
       <c r="AF21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>128</v>
-      </c>
-      <c r="AY21" t="s">
-        <v>129</v>
-      </c>
-      <c r="BA21" t="s">
-        <v>130</v>
-      </c>
-      <c r="BB21" t="s">
-        <v>131</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD21" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF21" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG21" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH21" t="s">
-        <v>135</v>
-      </c>
-      <c r="BJ21" t="s">
-        <v>136</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>137</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP21" t="s">
-        <v>139</v>
-      </c>
-      <c r="BQ21" t="s">
-        <v>140</v>
-      </c>
-      <c r="BR21" t="s">
-        <v>141</v>
-      </c>
-      <c r="BU21" t="s">
-        <v>142</v>
-      </c>
-      <c r="BV21" t="s">
-        <v>143</v>
+        <v>107</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:74" x14ac:dyDescent="0.35">
@@ -3972,7 +3912,7 @@
         <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C22" t="s">
         <v>73</v>
@@ -3981,52 +3921,52 @@
         <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F22" t="s">
         <v>74</v>
       </c>
       <c r="G22" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" t="s">
         <v>144</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
+        <v>282</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M22" t="s">
         <v>145</v>
-      </c>
-      <c r="J22" t="s">
-        <v>146</v>
-      </c>
-      <c r="K22" t="s">
-        <v>285</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="M22" t="s">
-        <v>147</v>
       </c>
       <c r="O22">
         <v>-999</v>
       </c>
       <c r="Q22" t="s">
-        <v>148</v>
+        <v>301</v>
       </c>
       <c r="R22" t="s">
         <v>97</v>
       </c>
       <c r="T22" t="s">
+        <v>119</v>
+      </c>
+      <c r="V22" t="s">
         <v>120</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>121</v>
       </c>
-      <c r="W22" t="s">
-        <v>122</v>
-      </c>
       <c r="X22" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y22" t="s">
         <v>121</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>122</v>
       </c>
       <c r="AA22" t="s">
         <v>76</v>
@@ -4038,7 +3978,7 @@
         <v>78</v>
       </c>
       <c r="AD22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE22" t="s">
         <v>114</v>
@@ -4047,10 +3987,10 @@
         <v>107</v>
       </c>
       <c r="AG22" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AH22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:74" x14ac:dyDescent="0.35">
@@ -4058,7 +3998,7 @@
         <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C23" t="s">
         <v>73</v>
@@ -4067,7 +4007,7 @@
         <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F23" t="s">
         <v>74</v>
@@ -4082,37 +4022,34 @@
         <v>118</v>
       </c>
       <c r="K23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M23" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O23">
         <v>-999</v>
       </c>
-      <c r="Q23" t="s">
-        <v>119</v>
-      </c>
       <c r="R23" t="s">
         <v>97</v>
       </c>
       <c r="T23" t="s">
+        <v>119</v>
+      </c>
+      <c r="V23" t="s">
         <v>120</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>121</v>
       </c>
-      <c r="W23" t="s">
-        <v>122</v>
-      </c>
       <c r="X23" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y23" t="s">
         <v>121</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>122</v>
       </c>
       <c r="AA23" t="s">
         <v>76</v>
@@ -4124,7 +4061,7 @@
         <v>78</v>
       </c>
       <c r="AD23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE23" t="s">
         <v>114</v>
@@ -4133,70 +4070,70 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM23" t="s">
         <v>124</v>
       </c>
-      <c r="AM23" t="s">
+      <c r="AN23" t="s">
         <v>125</v>
       </c>
-      <c r="AN23" t="s">
+      <c r="AQ23" t="s">
         <v>126</v>
       </c>
-      <c r="AQ23" t="s">
+      <c r="AW23" t="s">
         <v>127</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="AY23" t="s">
         <v>128</v>
       </c>
-      <c r="AY23" t="s">
+      <c r="BA23" t="s">
         <v>129</v>
       </c>
-      <c r="BA23" t="s">
+      <c r="BB23" t="s">
         <v>130</v>
       </c>
-      <c r="BB23" t="s">
+      <c r="BC23" t="s">
         <v>131</v>
-      </c>
-      <c r="BC23" t="s">
-        <v>132</v>
       </c>
       <c r="BD23" t="s">
         <v>81</v>
       </c>
       <c r="BE23" t="s">
+        <v>132</v>
+      </c>
+      <c r="BF23" t="s">
         <v>133</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>134</v>
       </c>
       <c r="BG23" t="s">
         <v>55</v>
       </c>
       <c r="BH23" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ23" t="s">
         <v>135</v>
       </c>
-      <c r="BJ23" t="s">
+      <c r="BK23" t="s">
         <v>136</v>
       </c>
-      <c r="BK23" t="s">
+      <c r="BL23" t="s">
         <v>137</v>
       </c>
-      <c r="BL23" t="s">
+      <c r="BP23" t="s">
+        <v>307</v>
+      </c>
+      <c r="BQ23" t="s">
         <v>138</v>
       </c>
-      <c r="BP23" t="s">
+      <c r="BR23" t="s">
         <v>139</v>
       </c>
-      <c r="BQ23" t="s">
+      <c r="BU23" t="s">
         <v>140</v>
       </c>
-      <c r="BR23" t="s">
+      <c r="BV23" t="s">
         <v>141</v>
-      </c>
-      <c r="BU23" t="s">
-        <v>142</v>
-      </c>
-      <c r="BV23" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:74" x14ac:dyDescent="0.35">
@@ -4204,7 +4141,7 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C24" t="s">
         <v>73</v>
@@ -4213,52 +4150,52 @@
         <v>115</v>
       </c>
       <c r="E24" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F24" t="s">
         <v>74</v>
       </c>
       <c r="G24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" t="s">
         <v>144</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
+        <v>282</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M24" t="s">
         <v>145</v>
-      </c>
-      <c r="J24" t="s">
-        <v>146</v>
-      </c>
-      <c r="K24" t="s">
-        <v>285</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="M24" t="s">
-        <v>147</v>
       </c>
       <c r="O24">
         <v>-999</v>
       </c>
       <c r="Q24" t="s">
-        <v>148</v>
+        <v>301</v>
       </c>
       <c r="R24" t="s">
         <v>97</v>
       </c>
       <c r="T24" t="s">
+        <v>119</v>
+      </c>
+      <c r="V24" t="s">
         <v>120</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>121</v>
       </c>
-      <c r="W24" t="s">
-        <v>122</v>
-      </c>
       <c r="X24" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y24" t="s">
         <v>121</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>122</v>
       </c>
       <c r="AA24" t="s">
         <v>76</v>
@@ -4270,7 +4207,7 @@
         <v>78</v>
       </c>
       <c r="AD24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE24" t="s">
         <v>114</v>
@@ -4279,10 +4216,10 @@
         <v>107</v>
       </c>
       <c r="AG24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AH24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:74" x14ac:dyDescent="0.35">
@@ -4290,7 +4227,7 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C25" t="s">
         <v>73</v>
@@ -4299,52 +4236,49 @@
         <v>115</v>
       </c>
       <c r="E25" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F25" t="s">
         <v>74</v>
       </c>
       <c r="G25" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="I25" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="J25" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="K25" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M25" t="s">
-        <v>147</v>
+        <v>295</v>
       </c>
       <c r="O25">
         <v>-999</v>
       </c>
-      <c r="Q25" t="s">
-        <v>148</v>
-      </c>
       <c r="R25" t="s">
         <v>97</v>
       </c>
       <c r="T25" t="s">
+        <v>119</v>
+      </c>
+      <c r="V25" t="s">
         <v>120</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>121</v>
       </c>
-      <c r="W25" t="s">
-        <v>122</v>
-      </c>
       <c r="X25" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y25" t="s">
         <v>121</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>122</v>
       </c>
       <c r="AA25" t="s">
         <v>76</v>
@@ -4356,19 +4290,79 @@
         <v>78</v>
       </c>
       <c r="AD25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE25" t="s">
         <v>114</v>
       </c>
       <c r="AF25" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>150</v>
+        <v>79</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>128</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>132</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK25" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>307</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>138</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>139</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>140</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:74" x14ac:dyDescent="0.35">
@@ -4376,7 +4370,7 @@
         <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C26" t="s">
         <v>73</v>
@@ -4385,52 +4379,52 @@
         <v>115</v>
       </c>
       <c r="E26" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F26" t="s">
         <v>74</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="I26" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="J26" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="K26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M26" t="s">
-        <v>298</v>
+        <v>145</v>
       </c>
       <c r="O26">
         <v>-999</v>
       </c>
       <c r="Q26" t="s">
-        <v>119</v>
+        <v>301</v>
       </c>
       <c r="R26" t="s">
         <v>97</v>
       </c>
       <c r="T26" t="s">
+        <v>119</v>
+      </c>
+      <c r="V26" t="s">
         <v>120</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>121</v>
       </c>
-      <c r="W26" t="s">
-        <v>122</v>
-      </c>
       <c r="X26" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y26" t="s">
         <v>121</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>122</v>
       </c>
       <c r="AA26" t="s">
         <v>76</v>
@@ -4442,79 +4436,19 @@
         <v>78</v>
       </c>
       <c r="AD26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE26" t="s">
         <v>114</v>
       </c>
       <c r="AF26" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW26" t="s">
-        <v>128</v>
-      </c>
-      <c r="AY26" t="s">
-        <v>129</v>
-      </c>
-      <c r="BA26" t="s">
-        <v>130</v>
-      </c>
-      <c r="BB26" t="s">
-        <v>131</v>
-      </c>
-      <c r="BC26" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD26" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE26" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF26" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG26" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH26" t="s">
-        <v>135</v>
-      </c>
-      <c r="BJ26" t="s">
-        <v>136</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>137</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP26" t="s">
-        <v>139</v>
-      </c>
-      <c r="BQ26" t="s">
-        <v>140</v>
-      </c>
-      <c r="BR26" t="s">
-        <v>141</v>
-      </c>
-      <c r="BU26" t="s">
-        <v>142</v>
-      </c>
-      <c r="BV26" t="s">
-        <v>143</v>
+        <v>107</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:74" x14ac:dyDescent="0.35">
@@ -4522,7 +4456,7 @@
         <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C27" t="s">
         <v>73</v>
@@ -4531,52 +4465,52 @@
         <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F27" t="s">
         <v>74</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="I27" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="J27" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="K27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M27" t="s">
-        <v>298</v>
+        <v>145</v>
       </c>
       <c r="O27">
         <v>-999</v>
       </c>
       <c r="Q27" t="s">
-        <v>119</v>
+        <v>301</v>
       </c>
       <c r="R27" t="s">
         <v>97</v>
       </c>
       <c r="T27" t="s">
+        <v>119</v>
+      </c>
+      <c r="V27" t="s">
         <v>120</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>121</v>
       </c>
-      <c r="W27" t="s">
-        <v>122</v>
-      </c>
       <c r="X27" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y27" t="s">
         <v>121</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>122</v>
       </c>
       <c r="AA27" t="s">
         <v>76</v>
@@ -4588,79 +4522,19 @@
         <v>78</v>
       </c>
       <c r="AD27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE27" t="s">
         <v>114</v>
       </c>
       <c r="AF27" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW27" t="s">
-        <v>128</v>
-      </c>
-      <c r="AY27" t="s">
-        <v>129</v>
-      </c>
-      <c r="BA27" t="s">
-        <v>130</v>
-      </c>
-      <c r="BB27" t="s">
-        <v>131</v>
-      </c>
-      <c r="BC27" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD27" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE27" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF27" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG27" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH27" t="s">
-        <v>135</v>
-      </c>
-      <c r="BJ27" t="s">
-        <v>136</v>
-      </c>
-      <c r="BK27" t="s">
-        <v>137</v>
-      </c>
-      <c r="BL27" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP27" t="s">
-        <v>139</v>
-      </c>
-      <c r="BQ27" t="s">
-        <v>140</v>
-      </c>
-      <c r="BR27" t="s">
-        <v>141</v>
-      </c>
-      <c r="BU27" t="s">
-        <v>142</v>
-      </c>
-      <c r="BV27" t="s">
-        <v>143</v>
+        <v>107</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:74" x14ac:dyDescent="0.35">
@@ -4668,7 +4542,7 @@
         <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C28" t="s">
         <v>73</v>
@@ -4677,52 +4551,49 @@
         <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F28" t="s">
         <v>74</v>
       </c>
       <c r="G28" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="I28" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="J28" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="K28" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M28" t="s">
-        <v>147</v>
+        <v>295</v>
       </c>
       <c r="O28">
         <v>-999</v>
       </c>
-      <c r="Q28" t="s">
-        <v>148</v>
-      </c>
       <c r="R28" t="s">
         <v>97</v>
       </c>
       <c r="T28" t="s">
+        <v>119</v>
+      </c>
+      <c r="V28" t="s">
         <v>120</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>121</v>
       </c>
-      <c r="W28" t="s">
-        <v>122</v>
-      </c>
       <c r="X28" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y28" t="s">
         <v>121</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>122</v>
       </c>
       <c r="AA28" t="s">
         <v>76</v>
@@ -4734,19 +4605,79 @@
         <v>78</v>
       </c>
       <c r="AD28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE28" t="s">
         <v>114</v>
       </c>
       <c r="AF28" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>150</v>
+        <v>79</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>128</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>132</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP28" t="s">
+        <v>307</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>138</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>139</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>140</v>
+      </c>
+      <c r="BV28" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:74" x14ac:dyDescent="0.35">
@@ -4754,7 +4685,7 @@
         <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C29" t="s">
         <v>73</v>
@@ -4763,52 +4694,49 @@
         <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F29" t="s">
         <v>74</v>
       </c>
       <c r="G29" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="I29" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="J29" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="K29" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M29" t="s">
-        <v>147</v>
+        <v>295</v>
       </c>
       <c r="O29">
         <v>-999</v>
       </c>
-      <c r="Q29" t="s">
-        <v>148</v>
-      </c>
       <c r="R29" t="s">
         <v>97</v>
       </c>
       <c r="T29" t="s">
+        <v>119</v>
+      </c>
+      <c r="V29" t="s">
         <v>120</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>121</v>
       </c>
-      <c r="W29" t="s">
-        <v>122</v>
-      </c>
       <c r="X29" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y29" t="s">
         <v>121</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>122</v>
       </c>
       <c r="AA29" t="s">
         <v>76</v>
@@ -4820,19 +4748,79 @@
         <v>78</v>
       </c>
       <c r="AD29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE29" t="s">
         <v>114</v>
       </c>
       <c r="AF29" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>150</v>
+        <v>79</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>128</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>132</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK29" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP29" t="s">
+        <v>307</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>138</v>
+      </c>
+      <c r="BR29" t="s">
+        <v>139</v>
+      </c>
+      <c r="BU29" t="s">
+        <v>140</v>
+      </c>
+      <c r="BV29" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:74" x14ac:dyDescent="0.35">
@@ -4840,7 +4828,7 @@
         <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C30" t="s">
         <v>73</v>
@@ -4849,52 +4837,52 @@
         <v>115</v>
       </c>
       <c r="E30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F30" t="s">
         <v>74</v>
       </c>
       <c r="G30" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="I30" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="J30" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="K30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M30" t="s">
-        <v>298</v>
+        <v>145</v>
       </c>
       <c r="O30">
         <v>-999</v>
       </c>
       <c r="Q30" t="s">
-        <v>119</v>
+        <v>301</v>
       </c>
       <c r="R30" t="s">
         <v>97</v>
       </c>
       <c r="T30" t="s">
+        <v>119</v>
+      </c>
+      <c r="V30" t="s">
         <v>120</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>121</v>
       </c>
-      <c r="W30" t="s">
-        <v>122</v>
-      </c>
       <c r="X30" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y30" t="s">
         <v>121</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>122</v>
       </c>
       <c r="AA30" t="s">
         <v>76</v>
@@ -4906,79 +4894,19 @@
         <v>78</v>
       </c>
       <c r="AD30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE30" t="s">
         <v>114</v>
       </c>
       <c r="AF30" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW30" t="s">
-        <v>128</v>
-      </c>
-      <c r="AY30" t="s">
-        <v>129</v>
-      </c>
-      <c r="BA30" t="s">
-        <v>130</v>
-      </c>
-      <c r="BB30" t="s">
-        <v>131</v>
-      </c>
-      <c r="BC30" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD30" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE30" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF30" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG30" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH30" t="s">
-        <v>135</v>
-      </c>
-      <c r="BJ30" t="s">
-        <v>136</v>
-      </c>
-      <c r="BK30" t="s">
-        <v>137</v>
-      </c>
-      <c r="BL30" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP30" t="s">
-        <v>139</v>
-      </c>
-      <c r="BQ30" t="s">
-        <v>140</v>
-      </c>
-      <c r="BR30" t="s">
-        <v>141</v>
-      </c>
-      <c r="BU30" t="s">
-        <v>142</v>
-      </c>
-      <c r="BV30" t="s">
-        <v>143</v>
+        <v>107</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:74" x14ac:dyDescent="0.35">
@@ -4986,7 +4914,7 @@
         <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C31" t="s">
         <v>73</v>
@@ -4995,52 +4923,52 @@
         <v>115</v>
       </c>
       <c r="E31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F31" t="s">
         <v>74</v>
       </c>
       <c r="G31" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="I31" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="J31" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="K31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M31" t="s">
-        <v>298</v>
+        <v>145</v>
       </c>
       <c r="O31">
         <v>-999</v>
       </c>
       <c r="Q31" t="s">
-        <v>119</v>
+        <v>301</v>
       </c>
       <c r="R31" t="s">
         <v>97</v>
       </c>
       <c r="T31" t="s">
+        <v>119</v>
+      </c>
+      <c r="V31" t="s">
         <v>120</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>121</v>
       </c>
-      <c r="W31" t="s">
-        <v>122</v>
-      </c>
       <c r="X31" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y31" t="s">
         <v>121</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>122</v>
       </c>
       <c r="AA31" t="s">
         <v>76</v>
@@ -5052,79 +4980,19 @@
         <v>78</v>
       </c>
       <c r="AD31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE31" t="s">
         <v>114</v>
       </c>
       <c r="AF31" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW31" t="s">
-        <v>128</v>
-      </c>
-      <c r="AY31" t="s">
-        <v>129</v>
-      </c>
-      <c r="BA31" t="s">
-        <v>130</v>
-      </c>
-      <c r="BB31" t="s">
-        <v>131</v>
-      </c>
-      <c r="BC31" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD31" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE31" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF31" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG31" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH31" t="s">
-        <v>135</v>
-      </c>
-      <c r="BJ31" t="s">
-        <v>136</v>
-      </c>
-      <c r="BK31" t="s">
-        <v>137</v>
-      </c>
-      <c r="BL31" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP31" t="s">
-        <v>139</v>
-      </c>
-      <c r="BQ31" t="s">
-        <v>140</v>
-      </c>
-      <c r="BR31" t="s">
-        <v>141</v>
-      </c>
-      <c r="BU31" t="s">
-        <v>142</v>
-      </c>
-      <c r="BV31" t="s">
-        <v>143</v>
+        <v>107</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:74" x14ac:dyDescent="0.35">
@@ -5132,7 +5000,7 @@
         <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C32" t="s">
         <v>73</v>
@@ -5141,52 +5009,49 @@
         <v>115</v>
       </c>
       <c r="E32" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F32" t="s">
         <v>74</v>
       </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="I32" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="J32" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="K32" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M32" t="s">
-        <v>147</v>
+        <v>295</v>
       </c>
       <c r="O32">
         <v>-999</v>
       </c>
-      <c r="Q32" t="s">
-        <v>148</v>
-      </c>
       <c r="R32" t="s">
         <v>97</v>
       </c>
       <c r="T32" t="s">
+        <v>119</v>
+      </c>
+      <c r="V32" t="s">
         <v>120</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>121</v>
       </c>
-      <c r="W32" t="s">
-        <v>122</v>
-      </c>
       <c r="X32" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y32" t="s">
         <v>121</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>122</v>
       </c>
       <c r="AA32" t="s">
         <v>76</v>
@@ -5198,19 +5063,79 @@
         <v>78</v>
       </c>
       <c r="AD32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE32" t="s">
         <v>114</v>
       </c>
       <c r="AF32" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>150</v>
+        <v>79</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>128</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>132</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>307</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>138</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>139</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>140</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:75" x14ac:dyDescent="0.35">
@@ -5218,7 +5143,7 @@
         <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C33" t="s">
         <v>73</v>
@@ -5227,52 +5152,49 @@
         <v>115</v>
       </c>
       <c r="E33" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F33" t="s">
         <v>74</v>
       </c>
       <c r="G33" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="I33" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="J33" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="K33" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M33" t="s">
-        <v>147</v>
+        <v>295</v>
       </c>
       <c r="O33">
         <v>-999</v>
       </c>
-      <c r="Q33" t="s">
-        <v>148</v>
-      </c>
       <c r="R33" t="s">
         <v>97</v>
       </c>
       <c r="T33" t="s">
+        <v>119</v>
+      </c>
+      <c r="V33" t="s">
         <v>120</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>121</v>
       </c>
-      <c r="W33" t="s">
-        <v>122</v>
-      </c>
       <c r="X33" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y33" t="s">
         <v>121</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>122</v>
       </c>
       <c r="AA33" t="s">
         <v>76</v>
@@ -5284,19 +5206,79 @@
         <v>78</v>
       </c>
       <c r="AD33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE33" t="s">
         <v>114</v>
       </c>
       <c r="AF33" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>150</v>
+        <v>79</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>128</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>132</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>307</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>138</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>139</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>140</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:75" x14ac:dyDescent="0.35">
@@ -5304,154 +5286,85 @@
         <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C34" t="s">
         <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="1">
-        <v>320620151207</v>
+        <v>115</v>
+      </c>
+      <c r="E34" t="s">
+        <v>187</v>
       </c>
       <c r="F34" t="s">
         <v>74</v>
       </c>
       <c r="G34" t="s">
-        <v>93</v>
-      </c>
-      <c r="H34" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="I34" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="J34" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="K34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M34" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="O34">
-        <v>-9999</v>
-      </c>
-      <c r="P34">
-        <v>-8888</v>
+        <v>-999</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>305</v>
       </c>
       <c r="R34" t="s">
         <v>97</v>
       </c>
       <c r="T34" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="V34" t="s">
-        <v>99</v>
+        <v>120</v>
+      </c>
+      <c r="W34" t="s">
+        <v>121</v>
       </c>
       <c r="X34" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Y34" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="AA34" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AB34" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AC34" t="s">
         <v>78</v>
       </c>
       <c r="AD34" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AE34" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AF34" t="s">
         <v>107</v>
       </c>
-      <c r="AJ34" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>199</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>200</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>201</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>202</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>111</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>112</v>
-      </c>
-      <c r="BB34" t="s">
-        <v>113</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>80</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF34" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>91</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ34" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO34" t="s">
-        <v>203</v>
-      </c>
-      <c r="BP34" t="s">
-        <v>86</v>
-      </c>
-      <c r="BQ34" t="s">
-        <v>87</v>
-      </c>
-      <c r="BR34" t="s">
-        <v>88</v>
-      </c>
-      <c r="BU34" t="s">
-        <v>69</v>
-      </c>
-      <c r="BV34" t="s">
-        <v>70</v>
-      </c>
-      <c r="BW34" t="s">
-        <v>204</v>
+      <c r="AG34" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:75" x14ac:dyDescent="0.35">
@@ -5459,175 +5372,85 @@
         <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C35" t="s">
         <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>296</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>178</v>
+        <v>115</v>
+      </c>
+      <c r="E35" t="s">
+        <v>188</v>
       </c>
       <c r="F35" t="s">
         <v>74</v>
       </c>
       <c r="G35" t="s">
-        <v>174</v>
-      </c>
-      <c r="H35" t="s">
-        <v>257</v>
+        <v>142</v>
+      </c>
+      <c r="I35" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" t="s">
+        <v>144</v>
       </c>
       <c r="K35" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s">
-        <v>258</v>
-      </c>
-      <c r="O35" t="s">
-        <v>271</v>
+        <v>145</v>
+      </c>
+      <c r="O35">
+        <v>-999</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>301</v>
+      </c>
+      <c r="R35" t="s">
+        <v>97</v>
       </c>
       <c r="T35" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="V35" t="s">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="W35" t="s">
-        <v>281</v>
+        <v>121</v>
+      </c>
+      <c r="X35" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>121</v>
       </c>
       <c r="AA35" t="s">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="AB35" t="s">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s">
         <v>78</v>
       </c>
+      <c r="AD35" t="s">
+        <v>122</v>
+      </c>
       <c r="AE35" t="s">
         <v>114</v>
       </c>
       <c r="AF35" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>273</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM35" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO35" t="s">
-        <v>274</v>
-      </c>
-      <c r="AP35" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ35" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR35" t="s">
-        <v>277</v>
-      </c>
-      <c r="AS35" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>278</v>
-      </c>
-      <c r="AU35" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV35" t="s">
-        <v>44</v>
-      </c>
-      <c r="AW35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AX35" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY35" t="s">
-        <v>47</v>
-      </c>
-      <c r="AZ35" t="s">
-        <v>48</v>
-      </c>
-      <c r="BA35" t="s">
-        <v>49</v>
-      </c>
-      <c r="BB35" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC35" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD35" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE35" t="s">
-        <v>53</v>
-      </c>
-      <c r="BF35" t="s">
-        <v>54</v>
-      </c>
-      <c r="BG35" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH35" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI35" t="s">
-        <v>57</v>
-      </c>
-      <c r="BJ35" t="s">
-        <v>58</v>
-      </c>
-      <c r="BK35" t="s">
-        <v>59</v>
-      </c>
-      <c r="BL35" t="s">
-        <v>60</v>
-      </c>
-      <c r="BM35" t="s">
-        <v>61</v>
-      </c>
-      <c r="BN35" t="s">
-        <v>62</v>
-      </c>
-      <c r="BO35" t="s">
-        <v>63</v>
-      </c>
-      <c r="BP35" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ35" t="s">
-        <v>65</v>
-      </c>
-      <c r="BR35" t="s">
-        <v>66</v>
-      </c>
-      <c r="BS35" t="s">
-        <v>67</v>
-      </c>
-      <c r="BT35" t="s">
-        <v>68</v>
-      </c>
-      <c r="BU35" t="s">
-        <v>69</v>
-      </c>
-      <c r="BV35" t="s">
-        <v>70</v>
+        <v>107</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:75" x14ac:dyDescent="0.35">
@@ -5635,175 +5458,154 @@
         <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C36" t="s">
         <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>179</v>
+        <v>92</v>
+      </c>
+      <c r="E36" s="1">
+        <v>320620151207</v>
       </c>
       <c r="F36" t="s">
         <v>74</v>
       </c>
       <c r="G36" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s">
-        <v>257</v>
+        <v>94</v>
+      </c>
+      <c r="I36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J36" t="s">
+        <v>96</v>
       </c>
       <c r="K36" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M36" t="s">
-        <v>258</v>
-      </c>
-      <c r="O36" t="s">
-        <v>271</v>
+        <v>194</v>
+      </c>
+      <c r="O36">
+        <v>-9999</v>
+      </c>
+      <c r="P36">
+        <v>-8888</v>
+      </c>
+      <c r="R36" t="s">
+        <v>97</v>
       </c>
       <c r="T36" t="s">
-        <v>265</v>
+        <v>98</v>
       </c>
       <c r="V36" t="s">
-        <v>280</v>
-      </c>
-      <c r="W36" t="s">
-        <v>281</v>
+        <v>99</v>
+      </c>
+      <c r="X36" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>102</v>
       </c>
       <c r="AA36" t="s">
-        <v>272</v>
+        <v>103</v>
       </c>
       <c r="AB36" t="s">
-        <v>279</v>
+        <v>104</v>
       </c>
       <c r="AC36" t="s">
         <v>78</v>
       </c>
+      <c r="AD36" t="s">
+        <v>105</v>
+      </c>
       <c r="AE36" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="AF36" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="AJ36" t="s">
-        <v>273</v>
+        <v>108</v>
       </c>
       <c r="AL36" t="s">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c r="AM36" t="s">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="AN36" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>274</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="AQ36" t="s">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="AR36" t="s">
-        <v>277</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="AT36" t="s">
-        <v>278</v>
-      </c>
-      <c r="AU36" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV36" t="s">
-        <v>44</v>
-      </c>
-      <c r="AW36" t="s">
-        <v>45</v>
-      </c>
-      <c r="AX36" t="s">
-        <v>46</v>
+        <v>199</v>
       </c>
       <c r="AY36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AZ36" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="BA36" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="BB36" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="BC36" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="BD36" t="s">
         <v>52</v>
       </c>
       <c r="BE36" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="BF36" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="BG36" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="BH36" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI36" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="BJ36" t="s">
-        <v>58</v>
-      </c>
-      <c r="BK36" t="s">
-        <v>59</v>
-      </c>
-      <c r="BL36" t="s">
-        <v>60</v>
-      </c>
-      <c r="BM36" t="s">
-        <v>61</v>
-      </c>
-      <c r="BN36" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="BO36" t="s">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="BP36" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="BQ36" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="BR36" t="s">
-        <v>66</v>
-      </c>
-      <c r="BS36" t="s">
-        <v>67</v>
-      </c>
-      <c r="BT36" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="BU36" t="s">
         <v>69</v>
       </c>
       <c r="BV36" t="s">
         <v>70</v>
+      </c>
+      <c r="BW36" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:75" x14ac:dyDescent="0.35">
@@ -5811,61 +5613,55 @@
         <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C37" t="s">
-        <v>263</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>294</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="F37" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H37" t="s">
-        <v>257</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>293</v>
+        <v>254</v>
+      </c>
+      <c r="K37" t="s">
+        <v>283</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M37" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="O37" t="s">
-        <v>153</v>
+        <v>268</v>
       </c>
       <c r="R37" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="T37" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="V37" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="W37" t="s">
-        <v>267</v>
-      </c>
-      <c r="X37" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y37" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA37" t="s">
         <v>269</v>
       </c>
-      <c r="AA37" t="s">
-        <v>76</v>
-      </c>
       <c r="AB37" t="s">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="AC37" t="s">
         <v>78</v>
@@ -5874,10 +5670,121 @@
         <v>114</v>
       </c>
       <c r="AF37" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG37" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ37" t="s">
         <v>270</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>271</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>274</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>275</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>58</v>
+      </c>
+      <c r="BK37" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>61</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO37" t="s">
+        <v>63</v>
+      </c>
+      <c r="BP37" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ37" t="s">
+        <v>65</v>
+      </c>
+      <c r="BR37" t="s">
+        <v>66</v>
+      </c>
+      <c r="BS37" t="s">
+        <v>67</v>
+      </c>
+      <c r="BT37" t="s">
+        <v>68</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV37" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:75" x14ac:dyDescent="0.35">
@@ -5885,61 +5792,55 @@
         <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C38" t="s">
-        <v>263</v>
+        <v>73</v>
       </c>
       <c r="D38" t="s">
-        <v>294</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>178</v>
+        <v>293</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="F38" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="G38" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H38" t="s">
-        <v>257</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>293</v>
+        <v>254</v>
+      </c>
+      <c r="K38" t="s">
+        <v>283</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="O38" t="s">
-        <v>153</v>
+        <v>268</v>
       </c>
       <c r="R38" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="T38" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="V38" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="W38" t="s">
-        <v>267</v>
-      </c>
-      <c r="X38" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y38" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA38" t="s">
         <v>269</v>
       </c>
-      <c r="AA38" t="s">
-        <v>76</v>
-      </c>
       <c r="AB38" t="s">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="AC38" t="s">
         <v>78</v>
@@ -5948,10 +5849,121 @@
         <v>114</v>
       </c>
       <c r="AF38" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG38" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ38" t="s">
         <v>270</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>274</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>275</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG38" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI38" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ38" t="s">
+        <v>58</v>
+      </c>
+      <c r="BK38" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>61</v>
+      </c>
+      <c r="BN38" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO38" t="s">
+        <v>63</v>
+      </c>
+      <c r="BP38" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ38" t="s">
+        <v>65</v>
+      </c>
+      <c r="BR38" t="s">
+        <v>66</v>
+      </c>
+      <c r="BS38" t="s">
+        <v>67</v>
+      </c>
+      <c r="BT38" t="s">
+        <v>68</v>
+      </c>
+      <c r="BU38" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV38" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:75" x14ac:dyDescent="0.35">
@@ -5959,55 +5971,55 @@
         <v>72</v>
       </c>
       <c r="B39" t="s">
+        <v>256</v>
+      </c>
+      <c r="C39" t="s">
+        <v>260</v>
+      </c>
+      <c r="D39" t="s">
+        <v>291</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F39" t="s">
         <v>261</v>
       </c>
-      <c r="C39" t="s">
-        <v>263</v>
-      </c>
-      <c r="D39" t="s">
-        <v>294</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F39" t="s">
-        <v>264</v>
-      </c>
       <c r="G39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H39" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M39" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="O39" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R39" t="s">
         <v>97</v>
       </c>
       <c r="T39" t="s">
+        <v>262</v>
+      </c>
+      <c r="V39" t="s">
+        <v>263</v>
+      </c>
+      <c r="W39" t="s">
+        <v>264</v>
+      </c>
+      <c r="X39" t="s">
         <v>265</v>
       </c>
-      <c r="V39" t="s">
+      <c r="Y39" t="s">
         <v>266</v>
-      </c>
-      <c r="W39" t="s">
-        <v>267</v>
-      </c>
-      <c r="X39" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>269</v>
       </c>
       <c r="AA39" t="s">
         <v>76</v>
@@ -6025,7 +6037,7 @@
         <v>107</v>
       </c>
       <c r="AG39" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:75" x14ac:dyDescent="0.35">
@@ -6033,55 +6045,55 @@
         <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C40" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D40" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F40" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G40" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H40" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M40" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="O40" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R40" t="s">
         <v>97</v>
       </c>
       <c r="T40" t="s">
+        <v>262</v>
+      </c>
+      <c r="V40" t="s">
+        <v>263</v>
+      </c>
+      <c r="W40" t="s">
+        <v>264</v>
+      </c>
+      <c r="X40" t="s">
         <v>265</v>
       </c>
-      <c r="V40" t="s">
+      <c r="Y40" t="s">
         <v>266</v>
-      </c>
-      <c r="W40" t="s">
-        <v>267</v>
-      </c>
-      <c r="X40" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>269</v>
       </c>
       <c r="AA40" t="s">
         <v>76</v>
@@ -6099,15 +6111,164 @@
         <v>107</v>
       </c>
       <c r="AG40" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="1:75" x14ac:dyDescent="0.35">
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" t="s">
+        <v>258</v>
+      </c>
+      <c r="C41" t="s">
+        <v>260</v>
+      </c>
+      <c r="D41" t="s">
+        <v>291</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" t="s">
+        <v>261</v>
+      </c>
+      <c r="G41" t="s">
+        <v>171</v>
+      </c>
+      <c r="H41" t="s">
+        <v>254</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M41" t="s">
+        <v>296</v>
+      </c>
+      <c r="O41" t="s">
+        <v>150</v>
+      </c>
+      <c r="R41" t="s">
+        <v>97</v>
+      </c>
+      <c r="T41" t="s">
+        <v>262</v>
+      </c>
+      <c r="V41" t="s">
+        <v>263</v>
+      </c>
+      <c r="W41" t="s">
+        <v>264</v>
+      </c>
+      <c r="X41" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" t="s">
+        <v>259</v>
+      </c>
+      <c r="C42" t="s">
+        <v>260</v>
+      </c>
+      <c r="D42" t="s">
+        <v>291</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F42" t="s">
+        <v>261</v>
+      </c>
+      <c r="G42" t="s">
+        <v>171</v>
+      </c>
+      <c r="H42" t="s">
+        <v>254</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M42" t="s">
+        <v>296</v>
+      </c>
+      <c r="O42" t="s">
+        <v>150</v>
+      </c>
+      <c r="R42" t="s">
+        <v>97</v>
+      </c>
+      <c r="T42" t="s">
+        <v>262</v>
+      </c>
+      <c r="V42" t="s">
+        <v>263</v>
+      </c>
+      <c r="W42" t="s">
+        <v>264</v>
+      </c>
+      <c r="X42" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>